--- a/Semi_F_GDCC/src/main/webapp/WEB-INF/F팀 인터페이스설계서.xlsx
+++ b/Semi_F_GDCC/src/main/webapp/WEB-INF/F팀 인터페이스설계서.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/5677259fca2c5981/문서/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6CF31B28-4C17-4E6B-AF2B-D93FE306D8D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{EEC98B69-3789-42DE-AA6C-B41155E7B092}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1050" uniqueCount="678">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1054" uniqueCount="681">
   <si>
     <t>인터페이스 설계서</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1115,6 +1115,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>/customer/hotelComplex/rsvComplexList.jsp</t>
+  </si>
+  <si>
+    <t>String cusMail</t>
+  </si>
+  <si>
+    <t>부가시설 예약 리스트</t>
+  </si>
+  <si>
     <t>/customer/hotelComplex/rsvOne.jsp</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1232,7 +1241,10 @@
     <t>/customer/hotelBf/insertRsvForm.jsp</t>
   </si>
   <si>
-    <t>RsvHotelDAO#selectdate</t>
+    <t>cusMail</t>
+  </si>
+  <si>
+    <t>RsvBfDAO#selectdate</t>
   </si>
   <si>
     <t>HashMap &lt;String,Object&gt;</t>
@@ -1323,19 +1335,13 @@
     <t>int rsvNo
 String rsvDate
 String rsvTime
-int rsvMember
-String rsvState
-String rsvMenu</t>
+int rsvMember</t>
   </si>
   <si>
     <t>/customer/updateRsvAction.jsp</t>
   </si>
   <si>
     <t>RsvBfDAO#updateRsv</t>
-  </si>
-  <si>
-    <t>/customer/hotelBf/rsvList.jsp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>호텔 조식 수정 액션</t>
@@ -2442,7 +2448,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="29">
+  <fonts count="28">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2553,14 +2559,6 @@
       <color rgb="FFFF0000"/>
       <name val="Calibri (Основной текст)"/>
       <family val="3"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="맑은 고딕"/>
-      <family val="2"/>
-      <charset val="129"/>
     </font>
     <font>
       <sz val="11"/>
@@ -3052,7 +3050,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="165">
+  <cellXfs count="169">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3287,9 +3285,6 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -3323,9 +3318,6 @@
     <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -3356,22 +3348,22 @@
     <xf numFmtId="0" fontId="0" fillId="10" borderId="15" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
@@ -3383,13 +3375,13 @@
     <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="19" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="2" xfId="0" applyFill="1" applyBorder="1">
@@ -3401,7 +3393,7 @@
     <xf numFmtId="0" fontId="11" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1">
@@ -3431,25 +3423,25 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="24" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="10" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="10" xfId="0" applyFill="1" applyBorder="1">
@@ -3458,13 +3450,13 @@
     <xf numFmtId="0" fontId="0" fillId="13" borderId="15" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="25" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="6" xfId="0" applyFill="1" applyBorder="1">
@@ -3482,70 +3474,88 @@
     <xf numFmtId="0" fontId="0" fillId="13" borderId="21" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="3" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="2" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="5" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -3834,10 +3844,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I173"/>
+  <dimension ref="A1:I174"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A162" zoomScale="72" zoomScaleNormal="72" workbookViewId="0">
-      <selection activeCell="B165" sqref="B165"/>
+    <sheetView tabSelected="1" topLeftCell="A163" zoomScale="72" zoomScaleNormal="72" workbookViewId="0">
+      <selection activeCell="B155" sqref="B155"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="17.100000000000001"/>
@@ -3848,7 +3858,7 @@
     <col min="4" max="4" width="42.625" customWidth="1"/>
     <col min="5" max="5" width="28.625" customWidth="1"/>
     <col min="6" max="6" width="32.5" customWidth="1"/>
-    <col min="7" max="7" width="34.375" customWidth="1"/>
+    <col min="7" max="7" width="27" customWidth="1"/>
     <col min="8" max="8" width="34.875" customWidth="1"/>
     <col min="9" max="9" width="43.625" customWidth="1"/>
   </cols>
@@ -3860,19 +3870,19 @@
       <c r="C1" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="92" t="s">
+      <c r="D1" s="90" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="84" t="s">
+      <c r="E1" s="83" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="85" t="s">
+      <c r="F1" s="84" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="86" t="s">
+      <c r="G1" s="85" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="87" t="s">
+      <c r="H1" s="86" t="s">
         <v>6</v>
       </c>
     </row>
@@ -3911,10 +3921,10 @@
       </c>
     </row>
     <row r="4" spans="1:9" ht="50.25" customHeight="1">
-      <c r="A4" s="145">
+      <c r="A4" s="143">
         <v>1</v>
       </c>
-      <c r="B4" s="93" t="s">
+      <c r="B4" s="91" t="s">
         <v>17</v>
       </c>
       <c r="C4" s="3" t="s">
@@ -3934,10 +3944,10 @@
       </c>
     </row>
     <row r="5" spans="1:9" ht="50.25" customHeight="1">
-      <c r="A5" s="145">
+      <c r="A5" s="143">
         <v>2</v>
       </c>
-      <c r="B5" s="93" t="s">
+      <c r="B5" s="91" t="s">
         <v>20</v>
       </c>
       <c r="C5" s="39" t="s">
@@ -3963,14 +3973,14 @@
       </c>
     </row>
     <row r="6" spans="1:9" ht="50.25" customHeight="1">
-      <c r="A6" s="145">
+      <c r="A6" s="143">
         <v>3</v>
       </c>
-      <c r="B6" s="94" t="s">
+      <c r="B6" s="92" t="s">
         <v>28</v>
       </c>
       <c r="C6" s="3"/>
-      <c r="D6" s="95" t="s">
+      <c r="D6" s="93" t="s">
         <v>29</v>
       </c>
       <c r="E6" s="3"/>
@@ -3988,10 +3998,10 @@
       </c>
     </row>
     <row r="7" spans="1:9" ht="50.25" customHeight="1">
-      <c r="A7" s="145">
+      <c r="A7" s="143">
         <v>4</v>
       </c>
-      <c r="B7" s="93" t="s">
+      <c r="B7" s="91" t="s">
         <v>34</v>
       </c>
       <c r="D7" s="2" t="s">
@@ -4014,10 +4024,10 @@
       </c>
     </row>
     <row r="8" spans="1:9" ht="50.25" customHeight="1">
-      <c r="A8" s="145">
+      <c r="A8" s="143">
         <v>5</v>
       </c>
-      <c r="B8" s="93" t="s">
+      <c r="B8" s="91" t="s">
         <v>40</v>
       </c>
       <c r="C8" s="3"/>
@@ -4033,10 +4043,10 @@
       </c>
     </row>
     <row r="9" spans="1:9" ht="165">
-      <c r="A9" s="145">
+      <c r="A9" s="143">
         <v>6</v>
       </c>
-      <c r="B9" s="93" t="s">
+      <c r="B9" s="91" t="s">
         <v>42</v>
       </c>
       <c r="C9" s="3" t="s">
@@ -4060,10 +4070,10 @@
       </c>
     </row>
     <row r="10" spans="1:9" ht="50.25" customHeight="1">
-      <c r="A10" s="145">
+      <c r="A10" s="143">
         <v>7</v>
       </c>
-      <c r="B10" s="93" t="s">
+      <c r="B10" s="91" t="s">
         <v>48</v>
       </c>
       <c r="C10" s="3"/>
@@ -4079,10 +4089,10 @@
       </c>
     </row>
     <row r="11" spans="1:9" ht="50.25" customHeight="1">
-      <c r="A11" s="145">
+      <c r="A11" s="143">
         <v>8</v>
       </c>
-      <c r="B11" s="93" t="s">
+      <c r="B11" s="91" t="s">
         <v>50</v>
       </c>
       <c r="C11" s="3" t="s">
@@ -4108,10 +4118,10 @@
       </c>
     </row>
     <row r="12" spans="1:9" ht="50.25" customHeight="1">
-      <c r="A12" s="145">
+      <c r="A12" s="143">
         <v>9</v>
       </c>
-      <c r="B12" s="93" t="s">
+      <c r="B12" s="91" t="s">
         <v>58</v>
       </c>
       <c r="C12" s="3"/>
@@ -4127,10 +4137,10 @@
       </c>
     </row>
     <row r="13" spans="1:9" ht="50.25" customHeight="1">
-      <c r="A13" s="145">
+      <c r="A13" s="143">
         <v>10</v>
       </c>
-      <c r="B13" s="93" t="s">
+      <c r="B13" s="91" t="s">
         <v>60</v>
       </c>
       <c r="C13" s="3" t="s">
@@ -4154,10 +4164,10 @@
       <c r="I13" s="2"/>
     </row>
     <row r="14" spans="1:9" ht="50.25" customHeight="1">
-      <c r="A14" s="146">
+      <c r="A14" s="144">
         <v>11</v>
       </c>
-      <c r="B14" s="105" t="s">
+      <c r="B14" s="103" t="s">
         <v>65</v>
       </c>
       <c r="C14" s="2"/>
@@ -4171,10 +4181,10 @@
       </c>
     </row>
     <row r="15" spans="1:9" ht="50.25" customHeight="1">
-      <c r="A15" s="147">
+      <c r="A15" s="145">
         <v>12</v>
       </c>
-      <c r="B15" s="97" t="s">
+      <c r="B15" s="95" t="s">
         <v>67</v>
       </c>
       <c r="C15" s="3" t="s">
@@ -4200,10 +4210,10 @@
       </c>
     </row>
     <row r="16" spans="1:9" ht="50.25" customHeight="1">
-      <c r="A16" s="147">
+      <c r="A16" s="145">
         <v>13</v>
       </c>
-      <c r="B16" s="97" t="s">
+      <c r="B16" s="95" t="s">
         <v>71</v>
       </c>
       <c r="C16" s="3" t="s">
@@ -4227,10 +4237,10 @@
       <c r="I16" s="2"/>
     </row>
     <row r="17" spans="1:9" ht="66">
-      <c r="A17" s="147">
+      <c r="A17" s="145">
         <v>14</v>
       </c>
-      <c r="B17" s="97" t="s">
+      <c r="B17" s="95" t="s">
         <v>73</v>
       </c>
       <c r="C17" s="3" t="s">
@@ -4252,10 +4262,10 @@
       <c r="I17" s="2"/>
     </row>
     <row r="18" spans="1:9" ht="50.25" customHeight="1">
-      <c r="A18" s="147">
+      <c r="A18" s="145">
         <v>15</v>
       </c>
-      <c r="B18" s="97" t="s">
+      <c r="B18" s="95" t="s">
         <v>77</v>
       </c>
       <c r="C18" s="3"/>
@@ -4271,10 +4281,10 @@
       <c r="I18" s="2"/>
     </row>
     <row r="19" spans="1:9" ht="50.25" customHeight="1">
-      <c r="A19" s="147">
+      <c r="A19" s="145">
         <v>16</v>
       </c>
-      <c r="B19" s="97" t="s">
+      <c r="B19" s="95" t="s">
         <v>78</v>
       </c>
       <c r="C19" s="3" t="s">
@@ -4296,10 +4306,10 @@
       <c r="I19" s="2"/>
     </row>
     <row r="20" spans="1:9" ht="50.25" customHeight="1">
-      <c r="A20" s="147">
+      <c r="A20" s="145">
         <v>17</v>
       </c>
-      <c r="B20" s="97" t="s">
+      <c r="B20" s="95" t="s">
         <v>82</v>
       </c>
       <c r="C20" s="3"/>
@@ -4315,10 +4325,10 @@
       </c>
     </row>
     <row r="21" spans="1:9" ht="50.25" customHeight="1">
-      <c r="A21" s="147">
+      <c r="A21" s="145">
         <v>18</v>
       </c>
-      <c r="B21" s="97" t="s">
+      <c r="B21" s="95" t="s">
         <v>84</v>
       </c>
       <c r="C21" s="3" t="s">
@@ -4344,22 +4354,22 @@
       </c>
     </row>
     <row r="22" spans="1:9" ht="50.25" customHeight="1">
-      <c r="A22" s="148">
+      <c r="A22" s="146">
         <v>19</v>
       </c>
-      <c r="B22" s="97" t="s">
+      <c r="B22" s="95" t="s">
         <v>91</v>
       </c>
       <c r="C22" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="D22" s="110" t="s">
+      <c r="D22" s="108" t="s">
         <v>91</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="F22" s="82" t="s">
+      <c r="F22" s="81" t="s">
         <v>92</v>
       </c>
       <c r="G22" s="2" t="s">
@@ -4368,21 +4378,21 @@
       <c r="H22" s="15" t="s">
         <v>91</v>
       </c>
-      <c r="I22" s="101" t="s">
+      <c r="I22" s="99" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="50.25" customHeight="1">
-      <c r="A23" s="148">
+      <c r="A23" s="146">
         <v>20</v>
       </c>
-      <c r="B23" s="98" t="s">
+      <c r="B23" s="96" t="s">
         <v>95</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="D23" s="111" t="s">
+      <c r="D23" s="109" t="s">
         <v>95</v>
       </c>
       <c r="E23" s="2" t="s">
@@ -4397,21 +4407,21 @@
       <c r="H23" s="20" t="s">
         <v>95</v>
       </c>
-      <c r="I23" s="102" t="s">
+      <c r="I23" s="100" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="50.25" customHeight="1">
-      <c r="A24" s="148">
+      <c r="A24" s="146">
         <v>21</v>
       </c>
-      <c r="B24" s="99" t="s">
+      <c r="B24" s="97" t="s">
         <v>98</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="D24" s="81" t="s">
+      <c r="D24" s="80" t="s">
         <v>98</v>
       </c>
       <c r="E24" s="6" t="s">
@@ -4426,19 +4436,19 @@
       <c r="H24" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="I24" s="101" t="s">
+      <c r="I24" s="99" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="50.25" customHeight="1">
-      <c r="A25" s="148">
+      <c r="A25" s="146">
         <v>22</v>
       </c>
-      <c r="B25" s="99" t="s">
+      <c r="B25" s="97" t="s">
         <v>104</v>
       </c>
       <c r="C25" s="3"/>
-      <c r="D25" s="111" t="s">
+      <c r="D25" s="109" t="s">
         <v>104</v>
       </c>
       <c r="E25" s="6"/>
@@ -4447,15 +4457,15 @@
       <c r="H25" s="20" t="s">
         <v>104</v>
       </c>
-      <c r="I25" s="101" t="s">
+      <c r="I25" s="99" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="50.25" customHeight="1">
-      <c r="A26" s="148">
+      <c r="A26" s="146">
         <v>23</v>
       </c>
-      <c r="B26" s="99" t="s">
+      <c r="B26" s="97" t="s">
         <v>106</v>
       </c>
       <c r="C26" s="3" t="s">
@@ -4474,15 +4484,15 @@
       <c r="H26" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="I26" s="101" t="s">
+      <c r="I26" s="99" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="50.25" customHeight="1">
-      <c r="A27" s="148">
+      <c r="A27" s="146">
         <v>24</v>
       </c>
-      <c r="B27" s="99" t="s">
+      <c r="B27" s="97" t="s">
         <v>111</v>
       </c>
       <c r="C27" s="3" t="s">
@@ -4503,15 +4513,15 @@
       <c r="H27" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="I27" s="101" t="s">
+      <c r="I27" s="99" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="50.25" customHeight="1">
-      <c r="A28" s="149">
+      <c r="A28" s="147">
         <v>25</v>
       </c>
-      <c r="B28" s="99" t="s">
+      <c r="B28" s="97" t="s">
         <v>116</v>
       </c>
       <c r="C28" s="3" t="s">
@@ -4530,21 +4540,21 @@
       <c r="H28" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="I28" s="103" t="s">
+      <c r="I28" s="101" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="50.25" customHeight="1">
-      <c r="A29" s="149">
+      <c r="A29" s="147">
         <v>26</v>
       </c>
-      <c r="B29" s="99" t="s">
+      <c r="B29" s="97" t="s">
         <v>120</v>
       </c>
       <c r="C29" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="D29" s="110" t="s">
+      <c r="D29" s="108" t="s">
         <v>120</v>
       </c>
       <c r="E29" s="6" t="s">
@@ -4559,15 +4569,15 @@
       <c r="H29" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="I29" s="101" t="s">
+      <c r="I29" s="99" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="50.25" customHeight="1">
-      <c r="A30" s="149">
+      <c r="A30" s="147">
         <v>27</v>
       </c>
-      <c r="B30" s="99" t="s">
+      <c r="B30" s="97" t="s">
         <v>124</v>
       </c>
       <c r="C30" s="3" t="s">
@@ -4582,25 +4592,25 @@
       <c r="F30" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="G30" s="80"/>
-      <c r="H30" s="106" t="s">
+      <c r="G30" s="79"/>
+      <c r="H30" s="104" t="s">
         <v>111</v>
       </c>
-      <c r="I30" s="101" t="s">
+      <c r="I30" s="99" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="50.25" customHeight="1">
-      <c r="A31" s="149">
+      <c r="A31" s="147">
         <v>28</v>
       </c>
-      <c r="B31" s="98" t="s">
+      <c r="B31" s="96" t="s">
         <v>128</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="D31" s="79" t="s">
+      <c r="D31" s="78" t="s">
         <v>128</v>
       </c>
       <c r="E31" s="2"/>
@@ -4613,21 +4623,21 @@
       <c r="H31" s="20" t="s">
         <v>128</v>
       </c>
-      <c r="I31" s="104" t="s">
+      <c r="I31" s="102" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="50.25" customHeight="1">
-      <c r="A32" s="149">
+      <c r="A32" s="147">
         <v>29</v>
       </c>
-      <c r="B32" s="98" t="s">
+      <c r="B32" s="96" t="s">
         <v>132</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="D32" s="79" t="s">
+      <c r="D32" s="78" t="s">
         <v>132</v>
       </c>
       <c r="E32" s="2"/>
@@ -4640,15 +4650,15 @@
       <c r="H32" s="20" t="s">
         <v>132</v>
       </c>
-      <c r="I32" s="104" t="s">
+      <c r="I32" s="102" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="50.25" customHeight="1">
-      <c r="A33" s="149">
+      <c r="A33" s="147">
         <v>30</v>
       </c>
-      <c r="B33" s="98" t="s">
+      <c r="B33" s="96" t="s">
         <v>135</v>
       </c>
       <c r="C33" s="18" t="s">
@@ -4669,15 +4679,15 @@
       <c r="H33" s="22" t="s">
         <v>135</v>
       </c>
-      <c r="I33" s="104" t="s">
+      <c r="I33" s="102" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="50.25" customHeight="1">
-      <c r="A34" s="149">
+      <c r="A34" s="147">
         <v>31</v>
       </c>
-      <c r="B34" s="98" t="s">
+      <c r="B34" s="96" t="s">
         <v>139</v>
       </c>
       <c r="C34" s="18" t="s">
@@ -4698,57 +4708,57 @@
       <c r="H34" s="22" t="s">
         <v>139</v>
       </c>
-      <c r="I34" s="104" t="s">
+      <c r="I34" s="102" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="60" customHeight="1">
-      <c r="A35" s="149">
+      <c r="A35" s="147">
         <v>32</v>
       </c>
-      <c r="B35" s="99" t="s">
+      <c r="B35" s="97" t="s">
         <v>142</v>
       </c>
       <c r="C35" s="18"/>
-      <c r="D35" s="112" t="s">
+      <c r="D35" s="110" t="s">
         <v>142</v>
       </c>
       <c r="E35" s="21"/>
       <c r="F35" s="2"/>
       <c r="G35" s="2"/>
-      <c r="H35" s="82" t="s">
+      <c r="H35" s="81" t="s">
         <v>142</v>
       </c>
-      <c r="I35" s="103" t="s">
+      <c r="I35" s="101" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="36" spans="1:9" ht="60" customHeight="1">
-      <c r="A36" s="149">
+      <c r="A36" s="147">
         <v>33</v>
       </c>
-      <c r="B36" s="99" t="s">
+      <c r="B36" s="97" t="s">
         <v>144</v>
       </c>
       <c r="C36" s="18"/>
-      <c r="D36" s="112" t="s">
+      <c r="D36" s="110" t="s">
         <v>144</v>
       </c>
       <c r="E36" s="21"/>
       <c r="F36" s="2"/>
       <c r="G36" s="2"/>
-      <c r="H36" s="82" t="s">
+      <c r="H36" s="81" t="s">
         <v>144</v>
       </c>
-      <c r="I36" s="103" t="s">
+      <c r="I36" s="101" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="37" spans="1:9" ht="66">
-      <c r="A37" s="149">
+      <c r="A37" s="147">
         <v>34</v>
       </c>
-      <c r="B37" s="99" t="s">
+      <c r="B37" s="97" t="s">
         <v>146</v>
       </c>
       <c r="C37" s="12" t="s">
@@ -4764,18 +4774,18 @@
         <v>148</v>
       </c>
       <c r="G37" s="2"/>
-      <c r="H37" s="106" t="s">
+      <c r="H37" s="104" t="s">
         <v>95</v>
       </c>
-      <c r="I37" s="103" t="s">
+      <c r="I37" s="101" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="38" spans="1:9" ht="66">
-      <c r="A38" s="149">
+      <c r="A38" s="147">
         <v>35</v>
       </c>
-      <c r="B38" s="99" t="s">
+      <c r="B38" s="97" t="s">
         <v>150</v>
       </c>
       <c r="C38" s="12" t="s">
@@ -4791,18 +4801,18 @@
         <v>151</v>
       </c>
       <c r="G38" s="2"/>
-      <c r="H38" s="106" t="s">
+      <c r="H38" s="104" t="s">
         <v>95</v>
       </c>
-      <c r="I38" s="103" t="s">
+      <c r="I38" s="101" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="39" spans="1:9" ht="50.25" customHeight="1">
-      <c r="A39" s="149">
+      <c r="A39" s="147">
         <v>36</v>
       </c>
-      <c r="B39" s="98" t="s">
+      <c r="B39" s="96" t="s">
         <v>153</v>
       </c>
       <c r="C39" s="18" t="s">
@@ -4820,18 +4830,18 @@
       <c r="G39" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="H39" s="82" t="s">
+      <c r="H39" s="81" t="s">
         <v>153</v>
       </c>
-      <c r="I39" s="88" t="s">
+      <c r="I39" s="87" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="40" spans="1:9" ht="50.25" customHeight="1">
-      <c r="A40" s="149">
+      <c r="A40" s="147">
         <v>37</v>
       </c>
-      <c r="B40" s="98" t="s">
+      <c r="B40" s="96" t="s">
         <v>155</v>
       </c>
       <c r="C40" s="18" t="s">
@@ -4849,18 +4859,18 @@
       <c r="G40" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="H40" s="82" t="s">
+      <c r="H40" s="81" t="s">
         <v>155</v>
       </c>
-      <c r="I40" s="88" t="s">
+      <c r="I40" s="87" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="41" spans="1:9" ht="50.25" customHeight="1">
-      <c r="A41" s="149">
+      <c r="A41" s="147">
         <v>38</v>
       </c>
-      <c r="B41" s="115" t="s">
+      <c r="B41" s="113" t="s">
         <v>157</v>
       </c>
       <c r="C41" s="3" t="s">
@@ -4876,18 +4886,18 @@
         <v>160</v>
       </c>
       <c r="G41" s="2"/>
-      <c r="H41" s="106" t="s">
+      <c r="H41" s="104" t="s">
         <v>95</v>
       </c>
-      <c r="I41" s="88" t="s">
+      <c r="I41" s="87" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="42" spans="1:9" ht="50.25" customHeight="1">
-      <c r="A42" s="149">
+      <c r="A42" s="147">
         <v>39</v>
       </c>
-      <c r="B42" s="115" t="s">
+      <c r="B42" s="113" t="s">
         <v>162</v>
       </c>
       <c r="C42" s="3" t="s">
@@ -4903,18 +4913,18 @@
         <v>164</v>
       </c>
       <c r="G42" s="2"/>
-      <c r="H42" s="106" t="s">
+      <c r="H42" s="104" t="s">
         <v>95</v>
       </c>
-      <c r="I42" s="88" t="s">
+      <c r="I42" s="87" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="43" spans="1:9" ht="50.25" customHeight="1">
-      <c r="A43" s="149">
+      <c r="A43" s="147">
         <v>40</v>
       </c>
-      <c r="B43" s="115" t="s">
+      <c r="B43" s="113" t="s">
         <v>166</v>
       </c>
       <c r="C43" s="2" t="s">
@@ -4930,18 +4940,18 @@
         <v>168</v>
       </c>
       <c r="G43" s="2"/>
-      <c r="H43" s="116" t="s">
+      <c r="H43" s="114" t="s">
         <v>169</v>
       </c>
-      <c r="I43" s="88" t="s">
+      <c r="I43" s="87" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="44" spans="1:9" ht="50.25" customHeight="1">
-      <c r="A44" s="149">
+      <c r="A44" s="147">
         <v>41</v>
       </c>
-      <c r="B44" s="115" t="s">
+      <c r="B44" s="113" t="s">
         <v>171</v>
       </c>
       <c r="C44" s="2" t="s">
@@ -4957,15 +4967,15 @@
         <v>173</v>
       </c>
       <c r="G44" s="2"/>
-      <c r="H44" s="116" t="s">
+      <c r="H44" s="114" t="s">
         <v>174</v>
       </c>
-      <c r="I44" s="88" t="s">
+      <c r="I44" s="87" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="45" spans="1:9" ht="50.25" customHeight="1">
-      <c r="A45" s="150">
+      <c r="A45" s="148">
         <v>42</v>
       </c>
       <c r="B45" s="10" t="s">
@@ -4994,7 +5004,7 @@
       </c>
     </row>
     <row r="46" spans="1:9" ht="50.25" customHeight="1">
-      <c r="A46" s="146">
+      <c r="A46" s="144">
         <v>43</v>
       </c>
       <c r="B46" s="10" t="s">
@@ -5013,10 +5023,10 @@
       </c>
     </row>
     <row r="47" spans="1:9" ht="50.25" customHeight="1">
-      <c r="A47" s="147">
+      <c r="A47" s="145">
         <v>44</v>
       </c>
-      <c r="B47" s="107" t="s">
+      <c r="B47" s="105" t="s">
         <v>181</v>
       </c>
       <c r="C47" s="2" t="s">
@@ -5042,7 +5052,7 @@
       </c>
     </row>
     <row r="48" spans="1:9" ht="50.25" customHeight="1">
-      <c r="A48" s="151">
+      <c r="A48" s="149">
         <v>45</v>
       </c>
       <c r="B48" s="11" t="s">
@@ -5071,10 +5081,10 @@
       </c>
     </row>
     <row r="49" spans="1:9" ht="50.25" customHeight="1">
-      <c r="A49" s="147">
+      <c r="A49" s="145">
         <v>46</v>
       </c>
-      <c r="B49" s="108" t="s">
+      <c r="B49" s="106" t="s">
         <v>189</v>
       </c>
       <c r="C49" s="2" t="s">
@@ -5100,7 +5110,7 @@
       </c>
     </row>
     <row r="50" spans="1:9" ht="50.25" customHeight="1">
-      <c r="A50" s="151">
+      <c r="A50" s="149">
         <v>47</v>
       </c>
       <c r="B50" s="11" t="s">
@@ -5127,10 +5137,10 @@
       <c r="I50" s="2"/>
     </row>
     <row r="51" spans="1:9" ht="50.25" customHeight="1">
-      <c r="A51" s="147">
+      <c r="A51" s="145">
         <v>48</v>
       </c>
-      <c r="B51" s="109" t="s">
+      <c r="B51" s="107" t="s">
         <v>195</v>
       </c>
       <c r="C51" s="9"/>
@@ -5146,10 +5156,10 @@
       </c>
     </row>
     <row r="52" spans="1:9" ht="50.25" customHeight="1">
-      <c r="A52" s="147">
+      <c r="A52" s="145">
         <v>49</v>
       </c>
-      <c r="B52" s="119" t="s">
+      <c r="B52" s="117" t="s">
         <v>197</v>
       </c>
       <c r="C52" s="9"/>
@@ -5167,16 +5177,16 @@
       </c>
     </row>
     <row r="53" spans="1:9" ht="50.25" customHeight="1">
-      <c r="A53" s="147">
+      <c r="A53" s="145">
         <v>50</v>
       </c>
-      <c r="B53" s="119" t="s">
+      <c r="B53" s="117" t="s">
         <v>200</v>
       </c>
       <c r="C53" s="9" t="s">
         <v>201</v>
       </c>
-      <c r="D53" s="109" t="s">
+      <c r="D53" s="107" t="s">
         <v>200</v>
       </c>
       <c r="E53" s="3" t="s">
@@ -5194,10 +5204,10 @@
       </c>
     </row>
     <row r="54" spans="1:9" ht="99">
-      <c r="A54" s="147">
+      <c r="A54" s="145">
         <v>51</v>
       </c>
-      <c r="B54" s="114" t="s">
+      <c r="B54" s="112" t="s">
         <v>205</v>
       </c>
       <c r="C54" s="17" t="s">
@@ -5221,10 +5231,10 @@
       </c>
     </row>
     <row r="55" spans="1:9" ht="50.25" customHeight="1">
-      <c r="A55" s="147">
+      <c r="A55" s="145">
         <v>52</v>
       </c>
-      <c r="B55" s="114" t="s">
+      <c r="B55" s="112" t="s">
         <v>212</v>
       </c>
       <c r="C55" s="2" t="s">
@@ -5242,16 +5252,16 @@
       </c>
     </row>
     <row r="56" spans="1:9" ht="50.25" customHeight="1">
-      <c r="A56" s="147">
+      <c r="A56" s="145">
         <v>53</v>
       </c>
-      <c r="B56" s="114" t="s">
+      <c r="B56" s="112" t="s">
         <v>214</v>
       </c>
       <c r="C56" s="3" t="s">
         <v>215</v>
       </c>
-      <c r="D56" s="124"/>
+      <c r="D56" s="122"/>
       <c r="E56" s="3" t="s">
         <v>201</v>
       </c>
@@ -5259,16 +5269,16 @@
         <v>203</v>
       </c>
       <c r="G56" s="2"/>
-      <c r="H56" s="125" t="s">
+      <c r="H56" s="123" t="s">
         <v>216</v>
       </c>
       <c r="I56" s="2"/>
     </row>
     <row r="57" spans="1:9" ht="82.5">
-      <c r="A57" s="147">
+      <c r="A57" s="145">
         <v>54</v>
       </c>
-      <c r="B57" s="114" t="s">
+      <c r="B57" s="112" t="s">
         <v>217</v>
       </c>
       <c r="C57" s="3" t="s">
@@ -5292,10 +5302,10 @@
       </c>
     </row>
     <row r="58" spans="1:9" ht="50.25" customHeight="1">
-      <c r="A58" s="147">
+      <c r="A58" s="145">
         <v>55</v>
       </c>
-      <c r="B58" s="114" t="s">
+      <c r="B58" s="112" t="s">
         <v>223</v>
       </c>
       <c r="C58" s="2" t="s">
@@ -5317,10 +5327,10 @@
       </c>
     </row>
     <row r="59" spans="1:9" ht="50.25" customHeight="1">
-      <c r="A59" s="147">
+      <c r="A59" s="145">
         <v>56</v>
       </c>
-      <c r="B59" s="128" t="s">
+      <c r="B59" s="126" t="s">
         <v>225</v>
       </c>
       <c r="C59" s="2" t="s">
@@ -5329,10 +5339,10 @@
       <c r="D59" s="11" t="s">
         <v>225</v>
       </c>
-      <c r="E59" s="126" t="s">
+      <c r="E59" s="124" t="s">
         <v>226</v>
       </c>
-      <c r="F59" s="127" t="s">
+      <c r="F59" s="125" t="s">
         <v>227</v>
       </c>
       <c r="G59" s="2" t="s">
@@ -5344,10 +5354,10 @@
       </c>
     </row>
     <row r="60" spans="1:9" ht="50.25" customHeight="1">
-      <c r="A60" s="147">
+      <c r="A60" s="145">
         <v>57</v>
       </c>
-      <c r="B60" s="114" t="s">
+      <c r="B60" s="112" t="s">
         <v>230</v>
       </c>
       <c r="C60" s="2" t="s">
@@ -5369,7 +5379,7 @@
       <c r="I60" s="2"/>
     </row>
     <row r="61" spans="1:9" ht="50.25" customHeight="1">
-      <c r="A61" s="146"/>
+      <c r="A61" s="144"/>
       <c r="B61" s="10" t="s">
         <v>234</v>
       </c>
@@ -5382,7 +5392,7 @@
       <c r="I61" s="2"/>
     </row>
     <row r="62" spans="1:9" ht="50.25" customHeight="1">
-      <c r="A62" s="152">
+      <c r="A62" s="150">
         <v>58</v>
       </c>
       <c r="B62" s="10" t="s">
@@ -5411,7 +5421,7 @@
       </c>
     </row>
     <row r="63" spans="1:9" ht="50.25" customHeight="1">
-      <c r="A63" s="150">
+      <c r="A63" s="148">
         <v>59</v>
       </c>
       <c r="B63" s="10" t="s">
@@ -5440,7 +5450,7 @@
       </c>
     </row>
     <row r="64" spans="1:9" ht="50.25" customHeight="1">
-      <c r="A64" s="155" t="s">
+      <c r="A64" s="153" t="s">
         <v>245</v>
       </c>
       <c r="B64" s="11" t="s">
@@ -5459,7 +5469,7 @@
       </c>
     </row>
     <row r="65" spans="1:9" ht="99">
-      <c r="A65" s="155">
+      <c r="A65" s="153">
         <v>61</v>
       </c>
       <c r="B65" s="11" t="s">
@@ -5486,7 +5496,7 @@
       </c>
     </row>
     <row r="66" spans="1:9" ht="50.25" customHeight="1">
-      <c r="A66" s="155">
+      <c r="A66" s="153">
         <v>62</v>
       </c>
       <c r="B66" s="11" t="s">
@@ -5507,7 +5517,7 @@
       </c>
     </row>
     <row r="67" spans="1:9" ht="99">
-      <c r="A67" s="155">
+      <c r="A67" s="153">
         <v>63</v>
       </c>
       <c r="B67" s="11" t="s">
@@ -5534,7 +5544,7 @@
       </c>
     </row>
     <row r="68" spans="1:9" ht="50.25" customHeight="1">
-      <c r="A68" s="155">
+      <c r="A68" s="153">
         <v>64</v>
       </c>
       <c r="B68" s="11" t="s">
@@ -5561,7 +5571,7 @@
       </c>
     </row>
     <row r="69" spans="1:9" ht="50.25" customHeight="1">
-      <c r="A69" s="155">
+      <c r="A69" s="153">
         <v>65</v>
       </c>
       <c r="B69" s="11" t="s">
@@ -5588,7 +5598,7 @@
       </c>
     </row>
     <row r="70" spans="1:9" ht="50.25" customHeight="1">
-      <c r="A70" s="155">
+      <c r="A70" s="153">
         <v>66</v>
       </c>
       <c r="B70" s="11" t="s">
@@ -5614,7 +5624,7 @@
       </c>
     </row>
     <row r="71" spans="1:9" ht="50.25" customHeight="1">
-      <c r="A71" s="146"/>
+      <c r="A71" s="144"/>
       <c r="B71" s="10" t="s">
         <v>269</v>
       </c>
@@ -5627,10 +5637,10 @@
       <c r="I71" s="2"/>
     </row>
     <row r="72" spans="1:9" ht="50.25" customHeight="1">
-      <c r="A72" s="153">
+      <c r="A72" s="151">
         <v>67</v>
       </c>
-      <c r="B72" s="144" t="s">
+      <c r="B72" s="142" t="s">
         <v>271</v>
       </c>
       <c r="C72" s="2"/>
@@ -5646,10 +5656,10 @@
       </c>
     </row>
     <row r="73" spans="1:9" ht="50.25" customHeight="1">
-      <c r="A73" s="153">
+      <c r="A73" s="151">
         <v>68</v>
       </c>
-      <c r="B73" s="78" t="s">
+      <c r="B73" s="142" t="s">
         <v>274</v>
       </c>
       <c r="C73" s="2"/>
@@ -5666,11 +5676,11 @@
         <v>277</v>
       </c>
     </row>
-    <row r="74" spans="1:9" ht="99">
-      <c r="A74" s="153">
+    <row r="74" spans="1:9" ht="69.75" customHeight="1">
+      <c r="A74" s="151">
         <v>69</v>
       </c>
-      <c r="B74" s="77" t="s">
+      <c r="B74" s="167" t="s">
         <v>278</v>
       </c>
       <c r="C74" s="3" t="s">
@@ -5693,2229 +5703,2227 @@
         <v>282</v>
       </c>
     </row>
-    <row r="75" spans="1:9" ht="50.25" customHeight="1">
-      <c r="A75" s="153">
+    <row r="75" spans="1:9" ht="49.5" customHeight="1">
+      <c r="A75" s="151"/>
+      <c r="B75" s="167" t="s">
+        <v>283</v>
+      </c>
+      <c r="C75" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="D75" s="20"/>
+      <c r="E75" s="3"/>
+      <c r="F75" s="2"/>
+      <c r="G75" s="2"/>
+      <c r="H75" s="77" t="s">
+        <v>283</v>
+      </c>
+      <c r="I75" s="56" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" ht="50.25" customHeight="1">
+      <c r="A76" s="151">
         <v>70</v>
       </c>
-      <c r="B75" s="76" t="s">
-        <v>283</v>
-      </c>
-      <c r="C75" s="2" t="s">
+      <c r="B76" s="163" t="s">
+        <v>286</v>
+      </c>
+      <c r="C76" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="D75" s="34" t="s">
-        <v>284</v>
-      </c>
-      <c r="E75" s="2" t="s">
+      <c r="D76" s="34" t="s">
+        <v>287</v>
+      </c>
+      <c r="E76" s="2" t="s">
         <v>231</v>
       </c>
-      <c r="F75" s="2" t="s">
-        <v>285</v>
-      </c>
-      <c r="G75" s="2" t="s">
-        <v>286</v>
-      </c>
-      <c r="H75" s="2"/>
-      <c r="I75" s="56" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9" ht="50.25" customHeight="1">
-      <c r="A76" s="153">
-        <v>71</v>
-      </c>
-      <c r="B76" s="22" t="s">
+      <c r="F76" s="2" t="s">
         <v>288</v>
       </c>
-      <c r="C76" s="2"/>
-      <c r="D76" s="34" t="s">
-        <v>288</v>
-      </c>
-      <c r="E76" s="2"/>
-      <c r="F76" s="2"/>
-      <c r="G76" s="2"/>
+      <c r="G76" s="2" t="s">
+        <v>289</v>
+      </c>
       <c r="H76" s="2"/>
       <c r="I76" s="56" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
     </row>
     <row r="77" spans="1:9" ht="50.25" customHeight="1">
-      <c r="A77" s="153">
+      <c r="A77" s="151">
+        <v>71</v>
+      </c>
+      <c r="B77" s="22" t="s">
+        <v>291</v>
+      </c>
+      <c r="C77" s="2"/>
+      <c r="D77" s="34" t="s">
+        <v>291</v>
+      </c>
+      <c r="E77" s="2"/>
+      <c r="F77" s="2"/>
+      <c r="G77" s="2"/>
+      <c r="H77" s="2"/>
+      <c r="I77" s="56" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" ht="50.25" customHeight="1">
+      <c r="A78" s="151">
         <v>72</v>
       </c>
-      <c r="B77" s="76" t="s">
-        <v>290</v>
-      </c>
-      <c r="C77" s="2" t="s">
+      <c r="B78" s="76" t="s">
+        <v>293</v>
+      </c>
+      <c r="C78" s="2" t="s">
         <v>231</v>
       </c>
-      <c r="D77" s="20" t="s">
-        <v>291</v>
-      </c>
-      <c r="E77" s="2" t="s">
+      <c r="D78" s="20" t="s">
+        <v>294</v>
+      </c>
+      <c r="E78" s="2" t="s">
         <v>231</v>
       </c>
-      <c r="F77" s="2" t="s">
-        <v>292</v>
-      </c>
-      <c r="G77" s="2"/>
-      <c r="H77" s="27" t="s">
+      <c r="F78" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="G78" s="2"/>
+      <c r="H78" s="27" t="s">
         <v>281</v>
       </c>
-      <c r="I77" s="56" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9" ht="50.25" customHeight="1">
-      <c r="A78" s="153">
+      <c r="I78" s="56" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" ht="50.25" customHeight="1">
+      <c r="A79" s="151">
         <v>73</v>
       </c>
-      <c r="B78" s="76" t="s">
-        <v>294</v>
-      </c>
-      <c r="C78" s="2" t="s">
-        <v>295</v>
-      </c>
-      <c r="D78" s="20" t="s">
-        <v>296</v>
-      </c>
-      <c r="E78" s="2" t="s">
-        <v>295</v>
-      </c>
-      <c r="G78" s="2" t="s">
+      <c r="B79" s="76" t="s">
+        <v>297</v>
+      </c>
+      <c r="C79" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="D79" s="20" t="s">
+        <v>299</v>
+      </c>
+      <c r="E79" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="G79" s="2" t="s">
         <v>228</v>
       </c>
-      <c r="H78" s="2"/>
-      <c r="I78" s="56" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="79" spans="1:9" ht="50.25" customHeight="1">
-      <c r="A79" s="153">
-        <v>74</v>
-      </c>
-      <c r="B79" s="76" t="s">
-        <v>298</v>
-      </c>
-      <c r="C79" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="D79" s="34" t="s">
-        <v>299</v>
-      </c>
-      <c r="E79" s="2"/>
-      <c r="F79" s="2" t="s">
-        <v>300</v>
-      </c>
-      <c r="G79" s="2"/>
       <c r="H79" s="2"/>
       <c r="I79" s="56" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" ht="50.25" customHeight="1">
+      <c r="A80" s="151">
+        <v>74</v>
+      </c>
+      <c r="B80" s="76" t="s">
         <v>301</v>
       </c>
-    </row>
-    <row r="80" spans="1:9" ht="99">
-      <c r="A80" s="153">
+      <c r="C80" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="D80" s="34" t="s">
+        <v>302</v>
+      </c>
+      <c r="E80" s="2"/>
+      <c r="F80" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="G80" s="2"/>
+      <c r="H80" s="2"/>
+      <c r="I80" s="56" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" ht="99">
+      <c r="A81" s="151">
         <v>75</v>
       </c>
-      <c r="B80" s="75" t="s">
-        <v>302</v>
-      </c>
-      <c r="C80" s="3" t="s">
+      <c r="B81" s="75" t="s">
+        <v>305</v>
+      </c>
+      <c r="C81" s="3" t="s">
+        <v>306</v>
+      </c>
+      <c r="D81" s="20" t="s">
+        <v>307</v>
+      </c>
+      <c r="E81" s="3" t="s">
+        <v>308</v>
+      </c>
+      <c r="F81" s="2" t="s">
         <v>303</v>
       </c>
-      <c r="D80" s="20" t="s">
-        <v>304</v>
-      </c>
-      <c r="E80" s="3" t="s">
-        <v>305</v>
-      </c>
-      <c r="F80" s="2" t="s">
-        <v>300</v>
-      </c>
-      <c r="G80" s="2"/>
-      <c r="H80" s="27" t="s">
+      <c r="G81" s="2"/>
+      <c r="H81" s="27" t="s">
         <v>281</v>
       </c>
-      <c r="I80" s="56" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="81" spans="1:9" ht="50.25" customHeight="1">
-      <c r="A81" s="146"/>
-      <c r="B81" s="7" t="s">
-        <v>307</v>
-      </c>
-      <c r="C81" s="2"/>
-      <c r="D81" s="11" t="s">
-        <v>308</v>
-      </c>
-      <c r="E81" s="2"/>
-      <c r="F81" s="2"/>
-      <c r="G81" s="2"/>
-      <c r="H81" s="2"/>
-      <c r="I81" s="2"/>
+      <c r="I81" s="56" t="s">
+        <v>309</v>
+      </c>
     </row>
     <row r="82" spans="1:9" ht="50.25" customHeight="1">
-      <c r="A82" s="148">
-        <v>76</v>
-      </c>
+      <c r="A82" s="144"/>
       <c r="B82" s="7" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" s="11" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="E82" s="2"/>
       <c r="F82" s="2"/>
       <c r="G82" s="2"/>
-      <c r="H82" s="16" t="s">
-        <v>310</v>
-      </c>
-      <c r="I82" s="89" t="s">
-        <v>311</v>
-      </c>
+      <c r="H82" s="2"/>
+      <c r="I82" s="2"/>
     </row>
     <row r="83" spans="1:9" ht="50.25" customHeight="1">
-      <c r="A83" s="148">
+      <c r="A83" s="146">
+        <v>76</v>
+      </c>
+      <c r="B83" s="7" t="s">
+        <v>312</v>
+      </c>
+      <c r="C83" s="2"/>
+      <c r="D83" s="11" t="s">
+        <v>312</v>
+      </c>
+      <c r="E83" s="2"/>
+      <c r="F83" s="2"/>
+      <c r="G83" s="2"/>
+      <c r="H83" s="16" t="s">
+        <v>313</v>
+      </c>
+      <c r="I83" s="88" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" ht="50.25" customHeight="1">
+      <c r="A84" s="146">
         <v>77</v>
       </c>
-      <c r="B83" s="121" t="s">
-        <v>312</v>
-      </c>
-      <c r="C83" s="2" t="s">
+      <c r="B84" s="119" t="s">
+        <v>315</v>
+      </c>
+      <c r="C84" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="D84" s="110" t="s">
+        <v>315</v>
+      </c>
+      <c r="E84" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="F84" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="G84" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="H84" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="I84" s="88" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" ht="82.5">
+      <c r="A85" s="146">
+        <v>78</v>
+      </c>
+      <c r="B85" s="137" t="s">
+        <v>320</v>
+      </c>
+      <c r="C85" s="3" t="s">
+        <v>321</v>
+      </c>
+      <c r="D85" s="11" t="s">
+        <v>322</v>
+      </c>
+      <c r="E85" s="3" t="s">
+        <v>321</v>
+      </c>
+      <c r="F85" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="G85" s="2"/>
+      <c r="H85" s="104" t="s">
+        <v>67</v>
+      </c>
+      <c r="I85" s="88" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" ht="50.25" customHeight="1">
+      <c r="A86" s="146">
+        <v>79</v>
+      </c>
+      <c r="B86" s="138" t="s">
+        <v>325</v>
+      </c>
+      <c r="C86" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="D83" s="112" t="s">
-        <v>312</v>
-      </c>
-      <c r="E83" s="2" t="s">
+      <c r="D86" s="109" t="s">
+        <v>325</v>
+      </c>
+      <c r="E86" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="F86" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="G86" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="H86" s="11" t="s">
+        <v>327</v>
+      </c>
+      <c r="I86" s="88" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" ht="50.25" customHeight="1">
+      <c r="A87" s="146">
+        <v>80</v>
+      </c>
+      <c r="B87" s="119" t="s">
+        <v>329</v>
+      </c>
+      <c r="C87" s="19" t="s">
         <v>190</v>
       </c>
-      <c r="F83" s="2" t="s">
-        <v>313</v>
-      </c>
-      <c r="G83" s="2" t="s">
-        <v>314</v>
-      </c>
-      <c r="H83" s="2" t="s">
-        <v>312</v>
-      </c>
-      <c r="I83" s="89" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="84" spans="1:9" ht="82.5">
-      <c r="A84" s="148">
-        <v>78</v>
-      </c>
-      <c r="B84" s="139" t="s">
-        <v>316</v>
-      </c>
-      <c r="C84" s="3" t="s">
-        <v>317</v>
-      </c>
-      <c r="D84" s="11" t="s">
-        <v>318</v>
-      </c>
-      <c r="E84" s="3" t="s">
-        <v>317</v>
-      </c>
-      <c r="F84" s="2" t="s">
-        <v>319</v>
-      </c>
-      <c r="G84" s="2"/>
-      <c r="H84" s="106" t="s">
+      <c r="D87" s="141" t="s">
+        <v>329</v>
+      </c>
+      <c r="E87" s="2"/>
+      <c r="F87" s="2"/>
+      <c r="G87" s="2"/>
+      <c r="H87" s="8" t="s">
+        <v>330</v>
+      </c>
+      <c r="I87" s="88" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" ht="50.25" customHeight="1">
+      <c r="A88" s="146">
+        <v>81</v>
+      </c>
+      <c r="B88" s="139" t="s">
+        <v>332</v>
+      </c>
+      <c r="C88" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="D88" s="11" t="s">
+        <v>333</v>
+      </c>
+      <c r="E88" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="F88" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="G88" s="2"/>
+      <c r="H88" s="104" t="s">
         <v>67</v>
       </c>
-      <c r="I84" s="89" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="85" spans="1:9" ht="50.25" customHeight="1">
-      <c r="A85" s="148">
-        <v>79</v>
-      </c>
-      <c r="B85" s="140" t="s">
-        <v>321</v>
-      </c>
-      <c r="C85" s="2" t="s">
+      <c r="I88" s="88" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" ht="50.25" customHeight="1">
+      <c r="A89" s="146">
+        <v>82</v>
+      </c>
+      <c r="B89" s="140" t="s">
+        <v>336</v>
+      </c>
+      <c r="C89" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="D89" s="11" t="s">
+        <v>336</v>
+      </c>
+      <c r="E89" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="F89" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="G89" s="2"/>
+      <c r="H89" s="2"/>
+      <c r="I89" s="88" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" ht="50.25" customHeight="1">
+      <c r="A90" s="146">
+        <v>83</v>
+      </c>
+      <c r="B90" s="164" t="s">
+        <v>339</v>
+      </c>
+      <c r="C90" s="82" t="s">
         <v>190</v>
-      </c>
-      <c r="D85" s="111" t="s">
-        <v>321</v>
-      </c>
-      <c r="E85" s="2" t="s">
-        <v>231</v>
-      </c>
-      <c r="F85" s="2" t="s">
-        <v>322</v>
-      </c>
-      <c r="G85" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="H85" s="11" t="s">
-        <v>323</v>
-      </c>
-      <c r="I85" s="89" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="86" spans="1:9" ht="50.25" customHeight="1">
-      <c r="A86" s="148">
-        <v>80</v>
-      </c>
-      <c r="B86" s="121" t="s">
-        <v>325</v>
-      </c>
-      <c r="C86" s="19" t="s">
-        <v>190</v>
-      </c>
-      <c r="D86" s="143" t="s">
-        <v>325</v>
-      </c>
-      <c r="E86" s="2"/>
-      <c r="F86" s="2"/>
-      <c r="G86" s="2"/>
-      <c r="H86" s="8" t="s">
-        <v>326</v>
-      </c>
-      <c r="I86" s="89" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="87" spans="1:9" ht="50.25" customHeight="1">
-      <c r="A87" s="148">
-        <v>81</v>
-      </c>
-      <c r="B87" s="141" t="s">
-        <v>328</v>
-      </c>
-      <c r="C87" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="D87" s="11" t="s">
-        <v>329</v>
-      </c>
-      <c r="E87" s="2" t="s">
-        <v>231</v>
-      </c>
-      <c r="F87" s="2" t="s">
-        <v>330</v>
-      </c>
-      <c r="G87" s="2"/>
-      <c r="H87" s="106" t="s">
-        <v>67</v>
-      </c>
-      <c r="I87" s="89" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="88" spans="1:9" ht="50.25" customHeight="1">
-      <c r="A88" s="148">
-        <v>82</v>
-      </c>
-      <c r="B88" s="142" t="s">
-        <v>332</v>
-      </c>
-      <c r="C88" s="2" t="s">
-        <v>263</v>
-      </c>
-      <c r="D88" s="11" t="s">
-        <v>332</v>
-      </c>
-      <c r="E88" s="2" t="s">
-        <v>295</v>
-      </c>
-      <c r="F88" s="2" t="s">
-        <v>333</v>
-      </c>
-      <c r="G88" s="2"/>
-      <c r="H88" s="2"/>
-      <c r="I88" s="89" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="89" spans="1:9" ht="50.25" customHeight="1">
-      <c r="A89" s="148">
-        <v>83</v>
-      </c>
-      <c r="B89" s="48" t="s">
-        <v>335</v>
-      </c>
-      <c r="C89" s="83" t="s">
-        <v>190</v>
-      </c>
-      <c r="D89" s="11" t="s">
-        <v>335</v>
-      </c>
-      <c r="E89" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="F89" s="2" t="s">
-        <v>322</v>
-      </c>
-      <c r="G89" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="H89" s="2" t="s">
-        <v>335</v>
-      </c>
-      <c r="I89" s="89" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="90" spans="1:9" ht="99">
-      <c r="A90" s="148">
-        <v>84</v>
-      </c>
-      <c r="B90" s="4" t="s">
-        <v>337</v>
-      </c>
-      <c r="C90" s="43" t="s">
-        <v>338</v>
       </c>
       <c r="D90" s="11" t="s">
         <v>339</v>
       </c>
-      <c r="E90" s="3" t="s">
-        <v>338</v>
-      </c>
-      <c r="F90" s="31" t="s">
+      <c r="E90" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="F90" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="G90" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="H90" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="I90" s="88" t="s">
         <v>340</v>
       </c>
-      <c r="G90" s="2"/>
-      <c r="H90" s="27" t="s">
+    </row>
+    <row r="91" spans="1:9" ht="66">
+      <c r="A91" s="146">
+        <v>84</v>
+      </c>
+      <c r="B91" s="165" t="s">
         <v>341</v>
       </c>
-      <c r="I90" s="89" t="s">
+      <c r="C91" s="43" t="s">
         <v>342</v>
       </c>
-    </row>
-    <row r="91" spans="1:9" ht="24" customHeight="1">
-      <c r="A91" s="154" t="s">
+      <c r="D91" s="11" t="s">
         <v>343</v>
       </c>
-      <c r="B91" s="54"/>
-      <c r="C91" s="54"/>
-      <c r="D91" s="54"/>
-      <c r="E91" s="54"/>
-      <c r="F91" s="54"/>
-      <c r="G91" s="54"/>
-      <c r="H91" s="54"/>
-      <c r="I91" s="54"/>
-    </row>
-    <row r="92" spans="1:9" ht="16.5">
-      <c r="A92" s="155" t="s">
+      <c r="E91" s="3" t="s">
+        <v>342</v>
+      </c>
+      <c r="F91" s="31" t="s">
+        <v>344</v>
+      </c>
+      <c r="G91" s="2"/>
+      <c r="H91" s="166" t="s">
+        <v>67</v>
+      </c>
+      <c r="I91" s="88" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" ht="24" customHeight="1">
+      <c r="A92" s="152" t="s">
+        <v>346</v>
+      </c>
+      <c r="B92" s="54"/>
+      <c r="C92" s="54"/>
+      <c r="D92" s="54"/>
+      <c r="E92" s="54"/>
+      <c r="F92" s="54"/>
+      <c r="G92" s="54"/>
+      <c r="H92" s="54"/>
+      <c r="I92" s="54"/>
+    </row>
+    <row r="93" spans="1:9" ht="16.5">
+      <c r="A93" s="153" t="s">
         <v>8</v>
       </c>
-      <c r="B92" s="37" t="s">
+      <c r="B93" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="C92" s="5" t="s">
+      <c r="C93" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D92" s="5" t="s">
+      <c r="D93" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E92" s="5" t="s">
+      <c r="E93" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="F92" s="5" t="s">
+      <c r="F93" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="G92" s="5" t="s">
+      <c r="G93" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="H92" s="5" t="s">
+      <c r="H93" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="I92" s="5" t="s">
+      <c r="I93" s="5" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="93" spans="1:9" ht="50.25" customHeight="1">
-      <c r="A93" s="156">
+    <row r="94" spans="1:9" ht="50.25" customHeight="1">
+      <c r="A94" s="154">
         <v>85</v>
       </c>
-      <c r="B93" s="91" t="s">
-        <v>344</v>
-      </c>
-      <c r="C93" s="21"/>
-      <c r="D93" s="32" t="s">
-        <v>345</v>
-      </c>
-      <c r="E93" s="2"/>
-      <c r="F93" s="2"/>
-      <c r="G93" s="2"/>
-      <c r="H93" s="16" t="s">
-        <v>344</v>
-      </c>
-      <c r="I93" s="2" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="94" spans="1:9" ht="50.25" customHeight="1">
-      <c r="A94" s="156">
+      <c r="B94" s="89" t="s">
+        <v>347</v>
+      </c>
+      <c r="C94" s="21"/>
+      <c r="D94" s="32" t="s">
+        <v>348</v>
+      </c>
+      <c r="E94" s="2"/>
+      <c r="F94" s="2"/>
+      <c r="G94" s="2"/>
+      <c r="H94" s="16" t="s">
+        <v>347</v>
+      </c>
+      <c r="I94" s="2" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9" ht="50.25" customHeight="1">
+      <c r="A95" s="154">
         <v>86</v>
       </c>
-      <c r="B94" s="91" t="s">
+      <c r="B95" s="89" t="s">
+        <v>350</v>
+      </c>
+      <c r="C95" s="21" t="s">
+        <v>351</v>
+      </c>
+      <c r="D95" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="E95" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="F95" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="G95" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="H95" s="27" t="s">
         <v>347</v>
       </c>
-      <c r="C94" s="21" t="s">
-        <v>348</v>
-      </c>
-      <c r="D94" s="2" t="s">
-        <v>349</v>
-      </c>
-      <c r="E94" s="2" t="s">
-        <v>350</v>
-      </c>
-      <c r="F94" s="2" t="s">
-        <v>351</v>
-      </c>
-      <c r="G94" s="2" t="s">
-        <v>352</v>
-      </c>
-      <c r="H94" s="27" t="s">
-        <v>344</v>
-      </c>
-      <c r="I94" s="2" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="95" spans="1:9" ht="148.5">
-      <c r="A95" s="156">
+      <c r="I95" s="2" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9" ht="148.5">
+      <c r="A96" s="154">
         <v>87</v>
       </c>
-      <c r="B95" s="96" t="s">
-        <v>354</v>
-      </c>
-      <c r="C95" s="3" t="s">
-        <v>355</v>
-      </c>
-      <c r="D95" s="2" t="s">
-        <v>356</v>
-      </c>
-      <c r="E95" s="3" t="s">
+      <c r="B96" s="94" t="s">
         <v>357</v>
       </c>
-      <c r="F95" s="2" t="s">
+      <c r="C96" s="3" t="s">
         <v>358</v>
       </c>
-      <c r="G95" s="2"/>
-      <c r="H95" s="25" t="s">
+      <c r="D96" s="2" t="s">
         <v>359</v>
       </c>
-      <c r="I95" s="2" t="s">
+      <c r="E96" s="3" t="s">
         <v>360</v>
       </c>
-    </row>
-    <row r="96" spans="1:9" ht="50.25" customHeight="1">
-      <c r="A96" s="156">
-        <v>88</v>
-      </c>
-      <c r="B96" s="90" t="s">
+      <c r="F96" s="2" t="s">
         <v>361</v>
       </c>
-      <c r="C96" s="3"/>
-      <c r="D96" s="32" t="s">
+      <c r="G96" s="2"/>
+      <c r="H96" s="25" t="s">
         <v>362</v>
-      </c>
-      <c r="E96" s="2"/>
-      <c r="F96" s="2"/>
-      <c r="G96" s="2"/>
-      <c r="H96" s="2" t="s">
-        <v>361</v>
       </c>
       <c r="I96" s="2" t="s">
         <v>363</v>
       </c>
     </row>
     <row r="97" spans="1:9" ht="50.25" customHeight="1">
-      <c r="A97" s="156">
+      <c r="A97" s="154">
+        <v>88</v>
+      </c>
+      <c r="B97" s="163" t="s">
+        <v>364</v>
+      </c>
+      <c r="C97" s="3"/>
+      <c r="D97" s="32" t="s">
+        <v>365</v>
+      </c>
+      <c r="E97" s="2"/>
+      <c r="F97" s="2"/>
+      <c r="G97" s="2"/>
+      <c r="H97" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="I97" s="2" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9" ht="50.25" customHeight="1">
+      <c r="A98" s="154">
         <v>89</v>
       </c>
-      <c r="B97" s="91" t="s">
-        <v>364</v>
-      </c>
-      <c r="C97" s="3" t="s">
-        <v>365</v>
-      </c>
-      <c r="D97" s="2" t="s">
-        <v>366</v>
-      </c>
-      <c r="E97" s="3" t="s">
+      <c r="B98" s="89" t="s">
         <v>367</v>
       </c>
-      <c r="F97" t="s">
+      <c r="C98" s="3" t="s">
         <v>368</v>
       </c>
-      <c r="G97" s="2" t="s">
+      <c r="D98" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="E98" s="3" t="s">
+        <v>370</v>
+      </c>
+      <c r="F98" t="s">
+        <v>371</v>
+      </c>
+      <c r="G98" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="H97" s="25" t="s">
-        <v>369</v>
-      </c>
-      <c r="I97" s="2" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="98" spans="1:9" ht="122.25" customHeight="1">
-      <c r="A98" s="156">
+      <c r="H98" s="25" t="s">
+        <v>372</v>
+      </c>
+      <c r="I98" s="2" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9" ht="122.25" customHeight="1">
+      <c r="A99" s="154">
         <v>90</v>
       </c>
-      <c r="B98" s="91" t="s">
-        <v>371</v>
-      </c>
-      <c r="C98" s="2"/>
-      <c r="D98" s="32" t="s">
-        <v>372</v>
-      </c>
-      <c r="E98" s="2"/>
-      <c r="F98" s="2"/>
-      <c r="G98" s="2"/>
-      <c r="H98" s="2" t="s">
-        <v>373</v>
-      </c>
-      <c r="I98" s="2" t="s">
+      <c r="B99" s="89" t="s">
         <v>374</v>
       </c>
-    </row>
-    <row r="99" spans="1:9" ht="88.5" customHeight="1">
-      <c r="A99" s="156">
+      <c r="C99" s="2"/>
+      <c r="D99" s="32" t="s">
+        <v>375</v>
+      </c>
+      <c r="E99" s="2"/>
+      <c r="F99" s="2"/>
+      <c r="G99" s="2"/>
+      <c r="H99" s="2" t="s">
+        <v>376</v>
+      </c>
+      <c r="I99" s="2" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9" ht="88.5" customHeight="1">
+      <c r="A100" s="154">
         <v>91</v>
       </c>
-      <c r="B99" s="91" t="s">
+      <c r="B100" s="89" t="s">
+        <v>378</v>
+      </c>
+      <c r="C100" s="3" t="s">
+        <v>379</v>
+      </c>
+      <c r="D100" s="32" t="s">
         <v>375</v>
       </c>
-      <c r="C99" s="3" t="s">
-        <v>376</v>
-      </c>
-      <c r="D99" s="32" t="s">
-        <v>372</v>
-      </c>
-      <c r="E99" s="3" t="s">
-        <v>376</v>
-      </c>
-      <c r="F99" s="2" t="s">
-        <v>377</v>
-      </c>
-      <c r="G99" s="2"/>
-      <c r="H99" s="27" t="s">
-        <v>373</v>
-      </c>
-      <c r="I99" s="2" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="100" spans="1:9" ht="96.75" customHeight="1">
-      <c r="A100" s="156">
-        <v>92</v>
-      </c>
-      <c r="B100" s="91" t="s">
+      <c r="E100" s="3" t="s">
         <v>379</v>
       </c>
-      <c r="C100" s="3" t="s">
+      <c r="F100" s="2" t="s">
         <v>380</v>
-      </c>
-      <c r="D100" s="7" t="s">
-        <v>379</v>
-      </c>
-      <c r="E100" s="3" t="s">
-        <v>381</v>
-      </c>
-      <c r="F100" s="2" t="s">
-        <v>382</v>
       </c>
       <c r="G100" s="2"/>
       <c r="H100" s="27" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="I100" s="2" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9" ht="96.75" customHeight="1">
+      <c r="A101" s="154">
+        <v>92</v>
+      </c>
+      <c r="B101" s="89" t="s">
+        <v>382</v>
+      </c>
+      <c r="C101" s="3" t="s">
         <v>383</v>
       </c>
-    </row>
-    <row r="101" spans="1:9" ht="50.25" customHeight="1">
-      <c r="A101" s="156">
+      <c r="D101" s="7" t="s">
+        <v>382</v>
+      </c>
+      <c r="E101" s="3" t="s">
+        <v>384</v>
+      </c>
+      <c r="F101" s="2" t="s">
+        <v>385</v>
+      </c>
+      <c r="G101" s="2"/>
+      <c r="H101" s="27" t="s">
+        <v>376</v>
+      </c>
+      <c r="I101" s="2" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9" ht="50.25" customHeight="1">
+      <c r="A102" s="154">
         <v>93</v>
       </c>
-      <c r="B101" s="91" t="s">
-        <v>384</v>
-      </c>
-      <c r="C101" s="2"/>
-      <c r="D101" s="16" t="s">
-        <v>384</v>
-      </c>
-      <c r="E101" s="2"/>
-      <c r="F101" s="2"/>
-      <c r="G101" s="2" t="s">
-        <v>385</v>
-      </c>
-      <c r="H101" s="25" t="s">
-        <v>386</v>
-      </c>
-      <c r="I101" s="2" t="s">
+      <c r="B102" s="89" t="s">
         <v>387</v>
       </c>
-    </row>
-    <row r="102" spans="1:9" ht="50.25" customHeight="1">
-      <c r="A102" s="156">
+      <c r="C102" s="2"/>
+      <c r="D102" s="16" t="s">
+        <v>387</v>
+      </c>
+      <c r="E102" s="2"/>
+      <c r="F102" s="2"/>
+      <c r="G102" s="2" t="s">
+        <v>388</v>
+      </c>
+      <c r="H102" s="25" t="s">
+        <v>389</v>
+      </c>
+      <c r="I102" s="2" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9" ht="50.25" customHeight="1">
+      <c r="A103" s="154">
         <v>94</v>
       </c>
-      <c r="B102" s="91" t="s">
-        <v>388</v>
-      </c>
-      <c r="C102" s="2" t="s">
-        <v>389</v>
-      </c>
-      <c r="D102" s="16" t="s">
-        <v>388</v>
-      </c>
-      <c r="E102" s="3" t="s">
-        <v>390</v>
-      </c>
-      <c r="F102" s="2" t="s">
+      <c r="B103" s="89" t="s">
         <v>391</v>
       </c>
-      <c r="G102" s="3" t="s">
+      <c r="C103" s="2" t="s">
         <v>392</v>
       </c>
-      <c r="H102" s="2" t="s">
-        <v>388</v>
-      </c>
-      <c r="I102" s="2" t="s">
+      <c r="D103" s="16" t="s">
+        <v>391</v>
+      </c>
+      <c r="E103" s="3" t="s">
         <v>393</v>
       </c>
-    </row>
-    <row r="103" spans="1:9" ht="50.25" customHeight="1">
-      <c r="A103" s="156">
+      <c r="F103" s="2" t="s">
+        <v>394</v>
+      </c>
+      <c r="G103" s="3" t="s">
+        <v>395</v>
+      </c>
+      <c r="H103" s="2" t="s">
+        <v>391</v>
+      </c>
+      <c r="I103" s="2" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9" ht="50.25" customHeight="1">
+      <c r="A104" s="154">
         <v>95</v>
       </c>
-      <c r="B103" s="117" t="s">
-        <v>394</v>
-      </c>
-      <c r="C103" s="3" t="s">
-        <v>395</v>
-      </c>
-      <c r="D103" s="75" t="s">
-        <v>394</v>
-      </c>
-      <c r="E103" s="3" t="s">
-        <v>395</v>
-      </c>
-      <c r="F103" s="2" t="s">
-        <v>396</v>
-      </c>
-      <c r="G103" s="3"/>
-      <c r="H103" s="27" t="s">
-        <v>388</v>
-      </c>
-      <c r="I103" s="2" t="s">
+      <c r="B104" s="115" t="s">
         <v>397</v>
       </c>
-    </row>
-    <row r="104" spans="1:9" ht="50.25" customHeight="1">
-      <c r="A104" s="157">
+      <c r="C104" s="3" t="s">
+        <v>398</v>
+      </c>
+      <c r="D104" s="75" t="s">
+        <v>397</v>
+      </c>
+      <c r="E104" s="3" t="s">
+        <v>398</v>
+      </c>
+      <c r="F104" s="2" t="s">
+        <v>399</v>
+      </c>
+      <c r="G104" s="3"/>
+      <c r="H104" s="27" t="s">
+        <v>391</v>
+      </c>
+      <c r="I104" s="2" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9" ht="50.25" customHeight="1">
+      <c r="A105" s="155">
         <v>86</v>
       </c>
-      <c r="B104" s="8" t="s">
-        <v>398</v>
-      </c>
-      <c r="C104" s="2"/>
-      <c r="D104" s="2"/>
-      <c r="E104" s="2"/>
-      <c r="F104" s="2"/>
-      <c r="G104" s="2"/>
-      <c r="H104" s="2" t="s">
-        <v>398</v>
-      </c>
-      <c r="I104" s="2" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="105" spans="1:9" ht="50.25" customHeight="1">
-      <c r="A105" s="156">
+      <c r="B105" s="8" t="s">
+        <v>401</v>
+      </c>
+      <c r="C105" s="2"/>
+      <c r="D105" s="2"/>
+      <c r="E105" s="2"/>
+      <c r="F105" s="2"/>
+      <c r="G105" s="2"/>
+      <c r="H105" s="2" t="s">
+        <v>401</v>
+      </c>
+      <c r="I105" s="2" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9" ht="50.25" customHeight="1">
+      <c r="A106" s="154">
         <v>96</v>
       </c>
-      <c r="B105" s="91" t="s">
-        <v>400</v>
-      </c>
-      <c r="C105" s="3" t="s">
-        <v>401</v>
-      </c>
-      <c r="D105" s="16" t="s">
-        <v>400</v>
-      </c>
-      <c r="E105" s="38" t="s">
-        <v>402</v>
-      </c>
-      <c r="F105" s="2" t="s">
+      <c r="B106" s="89" t="s">
         <v>403</v>
       </c>
-      <c r="G105" s="2" t="s">
+      <c r="C106" s="3" t="s">
+        <v>404</v>
+      </c>
+      <c r="D106" s="16" t="s">
+        <v>403</v>
+      </c>
+      <c r="E106" s="38" t="s">
+        <v>405</v>
+      </c>
+      <c r="F106" s="2" t="s">
+        <v>406</v>
+      </c>
+      <c r="G106" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="H105" s="2" t="s">
-        <v>400</v>
-      </c>
-      <c r="I105" s="2" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="106" spans="1:9" ht="50.25" customHeight="1">
-      <c r="A106" s="156">
+      <c r="H106" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="I106" s="2" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9" ht="50.25" customHeight="1">
+      <c r="A107" s="154">
         <v>97</v>
       </c>
-      <c r="B106" s="91" t="s">
-        <v>405</v>
-      </c>
-      <c r="C106" s="3" t="s">
-        <v>406</v>
-      </c>
-      <c r="D106" s="2" t="s">
-        <v>407</v>
-      </c>
-      <c r="E106" s="38" t="s">
+      <c r="B107" s="89" t="s">
         <v>408</v>
       </c>
-      <c r="F106" s="2"/>
-      <c r="G106" s="2"/>
-      <c r="H106" s="2"/>
-      <c r="I106" s="2" t="s">
+      <c r="C107" s="3" t="s">
         <v>409</v>
       </c>
-    </row>
-    <row r="107" spans="1:9" ht="99">
-      <c r="A107" s="156">
+      <c r="D107" s="2" t="s">
+        <v>410</v>
+      </c>
+      <c r="E107" s="38" t="s">
+        <v>411</v>
+      </c>
+      <c r="F107" s="2"/>
+      <c r="G107" s="2"/>
+      <c r="H107" s="2"/>
+      <c r="I107" s="2" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9" ht="99">
+      <c r="A108" s="154">
         <v>98</v>
       </c>
-      <c r="B107" s="93" t="s">
-        <v>410</v>
-      </c>
-      <c r="C107" s="3" t="s">
+      <c r="B108" s="91" t="s">
+        <v>413</v>
+      </c>
+      <c r="C108" s="3" t="s">
+        <v>414</v>
+      </c>
+      <c r="D108" s="2" t="s">
+        <v>415</v>
+      </c>
+      <c r="E108" s="38" t="s">
         <v>411</v>
       </c>
-      <c r="D107" s="2" t="s">
-        <v>412</v>
-      </c>
-      <c r="E107" s="38" t="s">
-        <v>408</v>
-      </c>
-      <c r="F107" s="2" t="s">
-        <v>413</v>
-      </c>
-      <c r="G107" s="2"/>
-      <c r="H107" s="25" t="s">
-        <v>414</v>
-      </c>
-      <c r="I107" s="2" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="108" spans="1:9" ht="50.25" customHeight="1">
-      <c r="A108" s="158">
+      <c r="F108" s="2" t="s">
+        <v>416</v>
+      </c>
+      <c r="G108" s="2"/>
+      <c r="H108" s="25" t="s">
+        <v>417</v>
+      </c>
+      <c r="I108" s="2" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9" ht="50.25" customHeight="1">
+      <c r="A109" s="156">
         <v>99</v>
       </c>
-      <c r="B108" s="7" t="s">
-        <v>416</v>
-      </c>
-      <c r="C108" s="2" t="s">
-        <v>389</v>
-      </c>
-      <c r="D108" s="16" t="s">
-        <v>416</v>
-      </c>
-      <c r="E108" s="3" t="s">
-        <v>417</v>
-      </c>
-      <c r="F108" s="2" t="s">
-        <v>418</v>
-      </c>
-      <c r="G108" s="2" t="s">
+      <c r="B109" s="7" t="s">
+        <v>419</v>
+      </c>
+      <c r="C109" s="2" t="s">
+        <v>392</v>
+      </c>
+      <c r="D109" s="16" t="s">
+        <v>419</v>
+      </c>
+      <c r="E109" s="3" t="s">
+        <v>420</v>
+      </c>
+      <c r="F109" s="2" t="s">
+        <v>421</v>
+      </c>
+      <c r="G109" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="H108" s="2" t="s">
-        <v>416</v>
-      </c>
-      <c r="I108" s="2" t="s">
+      <c r="H109" s="2" t="s">
         <v>419</v>
       </c>
-    </row>
-    <row r="109" spans="1:9" ht="66">
-      <c r="A109" s="159">
+      <c r="I109" s="2" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9" ht="66">
+      <c r="A110" s="157">
         <v>100</v>
       </c>
-      <c r="B109" s="7" t="s">
-        <v>420</v>
-      </c>
-      <c r="C109" s="2" t="s">
-        <v>389</v>
-      </c>
-      <c r="D109" s="16" t="s">
-        <v>420</v>
-      </c>
-      <c r="E109" s="39" t="s">
-        <v>421</v>
-      </c>
-      <c r="F109" s="3" t="s">
-        <v>422</v>
-      </c>
-      <c r="G109" s="2" t="s">
+      <c r="B110" s="7" t="s">
         <v>423</v>
       </c>
-      <c r="H109" s="2" t="s">
-        <v>420</v>
-      </c>
-      <c r="I109" s="89" t="s">
+      <c r="C110" s="2" t="s">
+        <v>392</v>
+      </c>
+      <c r="D110" s="16" t="s">
+        <v>423</v>
+      </c>
+      <c r="E110" s="39" t="s">
         <v>424</v>
       </c>
-    </row>
-    <row r="110" spans="1:9" ht="50.25" customHeight="1">
-      <c r="A110" s="159">
+      <c r="F110" s="3" t="s">
+        <v>425</v>
+      </c>
+      <c r="G110" s="2" t="s">
+        <v>426</v>
+      </c>
+      <c r="H110" s="2" t="s">
+        <v>423</v>
+      </c>
+      <c r="I110" s="88" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9" ht="50.25" customHeight="1">
+      <c r="A111" s="157">
         <v>101</v>
       </c>
-      <c r="B110" s="91" t="s">
-        <v>425</v>
-      </c>
-      <c r="C110" s="2" t="s">
-        <v>389</v>
-      </c>
-      <c r="D110" s="16" t="s">
-        <v>426</v>
-      </c>
-      <c r="E110" s="40" t="s">
-        <v>427</v>
-      </c>
-      <c r="F110" s="3" t="s">
+      <c r="B111" s="89" t="s">
         <v>428</v>
       </c>
-      <c r="G110" s="2"/>
-      <c r="H110" s="2" t="s">
-        <v>426</v>
-      </c>
-      <c r="I110" s="89" t="s">
+      <c r="C111" s="2" t="s">
+        <v>392</v>
+      </c>
+      <c r="D111" s="16" t="s">
         <v>429</v>
       </c>
-    </row>
-    <row r="111" spans="1:9" ht="50.25" customHeight="1">
-      <c r="A111" s="159">
+      <c r="E111" s="40" t="s">
+        <v>430</v>
+      </c>
+      <c r="F111" s="3" t="s">
+        <v>431</v>
+      </c>
+      <c r="G111" s="2"/>
+      <c r="H111" s="2" t="s">
+        <v>429</v>
+      </c>
+      <c r="I111" s="88" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9" ht="50.25" customHeight="1">
+      <c r="A112" s="157">
         <v>102</v>
       </c>
-      <c r="B111" s="7" t="s">
-        <v>430</v>
-      </c>
-      <c r="C111" s="3" t="s">
-        <v>431</v>
-      </c>
-      <c r="D111" s="33" t="s">
-        <v>430</v>
-      </c>
-      <c r="E111" s="41" t="s">
-        <v>432</v>
-      </c>
-      <c r="F111" s="3" t="s">
+      <c r="B112" s="7" t="s">
         <v>433</v>
       </c>
-      <c r="G111" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="H111" s="2" t="s">
-        <v>430</v>
-      </c>
-      <c r="I111" s="56" t="s">
+      <c r="C112" s="3" t="s">
         <v>434</v>
       </c>
-    </row>
-    <row r="112" spans="1:9" ht="50.25" customHeight="1">
-      <c r="A112" s="159">
-        <v>103</v>
-      </c>
-      <c r="B112" s="91" t="s">
+      <c r="D112" s="33" t="s">
+        <v>433</v>
+      </c>
+      <c r="E112" s="41" t="s">
         <v>435</v>
       </c>
-      <c r="C112" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="D112" s="33" t="s">
+      <c r="F112" s="3" t="s">
         <v>436</v>
-      </c>
-      <c r="E112" s="42" t="s">
-        <v>437</v>
-      </c>
-      <c r="F112" s="3" t="s">
-        <v>438</v>
       </c>
       <c r="G112" s="2" t="s">
         <v>55</v>
       </c>
       <c r="H112" s="2" t="s">
-        <v>436</v>
-      </c>
-      <c r="I112" s="89" t="s">
-        <v>439</v>
+        <v>433</v>
+      </c>
+      <c r="I112" s="56" t="s">
+        <v>437</v>
       </c>
     </row>
     <row r="113" spans="1:9" ht="50.25" customHeight="1">
-      <c r="A113" s="159">
-        <v>104</v>
-      </c>
-      <c r="B113" s="7" t="s">
-        <v>440</v>
+      <c r="A113" s="157">
+        <v>103</v>
+      </c>
+      <c r="B113" s="89" t="s">
+        <v>438</v>
       </c>
       <c r="C113" s="2" t="s">
         <v>190</v>
       </c>
       <c r="D113" s="33" t="s">
+        <v>439</v>
+      </c>
+      <c r="E113" s="42" t="s">
         <v>440</v>
       </c>
-      <c r="E113" s="42"/>
       <c r="F113" s="3" t="s">
         <v>441</v>
       </c>
       <c r="G113" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="H113" s="2" t="s">
+        <v>439</v>
+      </c>
+      <c r="I113" s="88" t="s">
         <v>442</v>
       </c>
-      <c r="H113" s="2" t="s">
-        <v>440</v>
-      </c>
-      <c r="I113" s="89" t="s">
+    </row>
+    <row r="114" spans="1:9" ht="50.25" customHeight="1">
+      <c r="A114" s="157">
+        <v>104</v>
+      </c>
+      <c r="B114" s="7" t="s">
         <v>443</v>
-      </c>
-    </row>
-    <row r="114" spans="1:9" ht="50.25" customHeight="1">
-      <c r="A114" s="159">
-        <v>105</v>
-      </c>
-      <c r="B114" s="7" t="s">
-        <v>444</v>
       </c>
       <c r="C114" s="2" t="s">
         <v>190</v>
       </c>
       <c r="D114" s="33" t="s">
+        <v>443</v>
+      </c>
+      <c r="E114" s="42"/>
+      <c r="F114" s="3" t="s">
         <v>444</v>
       </c>
-      <c r="E114" s="42" t="s">
+      <c r="G114" s="2" t="s">
         <v>445</v>
       </c>
-      <c r="F114" s="3" t="s">
+      <c r="H114" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="I114" s="88" t="s">
         <v>446</v>
       </c>
-      <c r="G114" s="2" t="s">
+    </row>
+    <row r="115" spans="1:9" ht="50.25" customHeight="1">
+      <c r="A115" s="157">
+        <v>105</v>
+      </c>
+      <c r="B115" s="7" t="s">
+        <v>447</v>
+      </c>
+      <c r="C115" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="D115" s="33" t="s">
+        <v>447</v>
+      </c>
+      <c r="E115" s="42" t="s">
+        <v>448</v>
+      </c>
+      <c r="F115" s="3" t="s">
+        <v>449</v>
+      </c>
+      <c r="G115" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="H114" s="2" t="s">
-        <v>444</v>
-      </c>
-      <c r="I114" s="89" t="s">
+      <c r="H115" s="2" t="s">
         <v>447</v>
       </c>
-    </row>
-    <row r="115" spans="1:9" ht="50.25" customHeight="1">
-      <c r="A115" s="159">
+      <c r="I115" s="88" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9" ht="50.25" customHeight="1">
+      <c r="A116" s="157">
         <v>106</v>
       </c>
-      <c r="B115" s="7" t="s">
-        <v>448</v>
-      </c>
-      <c r="C115" s="2" t="s">
-        <v>449</v>
-      </c>
-      <c r="D115" s="16" t="s">
-        <v>448</v>
-      </c>
-      <c r="E115" s="42" t="s">
-        <v>450</v>
-      </c>
-      <c r="F115" s="3" t="s">
+      <c r="B116" s="7" t="s">
         <v>451</v>
       </c>
-      <c r="G115" s="2"/>
-      <c r="H115" s="25" t="s">
+      <c r="C116" s="2" t="s">
         <v>452</v>
       </c>
-      <c r="I115" s="89" t="s">
+      <c r="D116" s="16" t="s">
+        <v>451</v>
+      </c>
+      <c r="E116" s="42" t="s">
         <v>453</v>
       </c>
-    </row>
-    <row r="116" spans="1:9" ht="50.25" customHeight="1">
-      <c r="A116" s="159">
+      <c r="F116" s="3" t="s">
+        <v>454</v>
+      </c>
+      <c r="G116" s="2"/>
+      <c r="H116" s="25" t="s">
+        <v>455</v>
+      </c>
+      <c r="I116" s="88" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9" ht="50.25" customHeight="1">
+      <c r="A117" s="157">
         <v>107</v>
       </c>
-      <c r="B116" s="91" t="s">
-        <v>454</v>
-      </c>
-      <c r="C116" s="3" t="s">
-        <v>455</v>
-      </c>
-      <c r="D116" s="16" t="s">
-        <v>454</v>
-      </c>
-      <c r="E116" s="42" t="s">
-        <v>456</v>
-      </c>
-      <c r="F116" s="3" t="s">
+      <c r="B117" s="89" t="s">
         <v>457</v>
       </c>
-      <c r="G116" s="2"/>
-      <c r="H116" s="27" t="s">
-        <v>426</v>
-      </c>
-      <c r="I116" s="89" t="s">
+      <c r="C117" s="3" t="s">
         <v>458</v>
       </c>
-    </row>
-    <row r="117" spans="1:9" ht="50.25" customHeight="1">
-      <c r="A117" s="159">
-        <v>108</v>
-      </c>
-      <c r="B117" s="7" t="s">
+      <c r="D117" s="16" t="s">
+        <v>457</v>
+      </c>
+      <c r="E117" s="42" t="s">
         <v>459</v>
       </c>
-      <c r="C117" s="2" t="s">
+      <c r="F117" s="3" t="s">
         <v>460</v>
-      </c>
-      <c r="D117" s="16" t="s">
-        <v>459</v>
-      </c>
-      <c r="E117" s="42" t="s">
-        <v>456</v>
-      </c>
-      <c r="F117" s="3" t="s">
-        <v>461</v>
       </c>
       <c r="G117" s="2"/>
       <c r="H117" s="27" t="s">
-        <v>440</v>
-      </c>
-      <c r="I117" s="89" t="s">
+        <v>429</v>
+      </c>
+      <c r="I117" s="88" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9" ht="50.25" customHeight="1">
+      <c r="A118" s="157">
+        <v>108</v>
+      </c>
+      <c r="B118" s="7" t="s">
         <v>462</v>
       </c>
-    </row>
-    <row r="118" spans="1:9" ht="50.25" customHeight="1">
-      <c r="A118" s="160">
-        <v>109</v>
-      </c>
-      <c r="B118" s="121" t="s">
+      <c r="C118" s="2" t="s">
         <v>463</v>
       </c>
-      <c r="C118" s="2" t="s">
-        <v>129</v>
-      </c>
       <c r="D118" s="16" t="s">
-        <v>463</v>
-      </c>
-      <c r="E118" s="43" t="s">
-        <v>417</v>
+        <v>462</v>
+      </c>
+      <c r="E118" s="42" t="s">
+        <v>459</v>
       </c>
       <c r="F118" s="3" t="s">
         <v>464</v>
       </c>
-      <c r="G118" s="2" t="s">
-        <v>423</v>
-      </c>
-      <c r="H118" s="2" t="s">
-        <v>463</v>
-      </c>
-      <c r="I118" s="89" t="s">
+      <c r="G118" s="2"/>
+      <c r="H118" s="27" t="s">
+        <v>443</v>
+      </c>
+      <c r="I118" s="88" t="s">
         <v>465</v>
       </c>
     </row>
     <row r="119" spans="1:9" ht="50.25" customHeight="1">
-      <c r="A119" s="160">
-        <v>110</v>
-      </c>
-      <c r="B119" s="122" t="s">
+      <c r="A119" s="158">
+        <v>109</v>
+      </c>
+      <c r="B119" s="119" t="s">
         <v>466</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="D119" s="110" t="s">
+        <v>129</v>
+      </c>
+      <c r="D119" s="16" t="s">
         <v>466</v>
       </c>
-      <c r="E119" s="2"/>
-      <c r="F119" s="2" t="s">
+      <c r="E119" s="43" t="s">
+        <v>420</v>
+      </c>
+      <c r="F119" s="3" t="s">
         <v>467</v>
       </c>
       <c r="G119" s="2" t="s">
-        <v>55</v>
+        <v>426</v>
       </c>
       <c r="H119" s="2" t="s">
         <v>466</v>
       </c>
-      <c r="I119" s="89" t="s">
+      <c r="I119" s="88" t="s">
         <v>468</v>
       </c>
     </row>
     <row r="120" spans="1:9" ht="50.25" customHeight="1">
-      <c r="A120" s="160">
-        <v>111</v>
-      </c>
-      <c r="B120" s="122" t="s">
+      <c r="A120" s="158">
+        <v>110</v>
+      </c>
+      <c r="B120" s="120" t="s">
         <v>469</v>
       </c>
       <c r="C120" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="D120" s="110" t="s">
+      <c r="D120" s="108" t="s">
+        <v>469</v>
+      </c>
+      <c r="E120" s="2"/>
+      <c r="F120" s="2" t="s">
         <v>470</v>
       </c>
-      <c r="E120" s="2"/>
-      <c r="F120" s="2"/>
-      <c r="G120" s="2"/>
+      <c r="G120" s="2" t="s">
+        <v>55</v>
+      </c>
       <c r="H120" s="2" t="s">
         <v>469</v>
       </c>
-      <c r="I120" s="89" t="s">
+      <c r="I120" s="88" t="s">
         <v>471</v>
       </c>
     </row>
     <row r="121" spans="1:9" ht="50.25" customHeight="1">
-      <c r="A121" s="160">
+      <c r="A121" s="158">
+        <v>111</v>
+      </c>
+      <c r="B121" s="120" t="s">
+        <v>472</v>
+      </c>
+      <c r="C121" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="D121" s="108" t="s">
+        <v>473</v>
+      </c>
+      <c r="E121" s="2"/>
+      <c r="F121" s="2"/>
+      <c r="G121" s="2"/>
+      <c r="H121" s="2" t="s">
+        <v>472</v>
+      </c>
+      <c r="I121" s="88" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9" ht="50.25" customHeight="1">
+      <c r="A122" s="158">
         <v>112</v>
       </c>
-      <c r="B121" s="122" t="s">
-        <v>472</v>
-      </c>
-      <c r="C121" s="3" t="s">
-        <v>473</v>
-      </c>
-      <c r="D121" s="2" t="s">
-        <v>474</v>
-      </c>
-      <c r="E121" s="3" t="s">
+      <c r="B122" s="120" t="s">
         <v>475</v>
       </c>
-      <c r="F121" s="3" t="s">
+      <c r="C122" s="3" t="s">
         <v>476</v>
       </c>
-      <c r="G121" s="2"/>
-      <c r="H121" s="56" t="s">
+      <c r="D122" s="2" t="s">
         <v>477</v>
       </c>
-      <c r="I121" s="89" t="s">
+      <c r="E122" s="3" t="s">
         <v>478</v>
       </c>
-    </row>
-    <row r="122" spans="1:9" ht="50.25" customHeight="1">
-      <c r="A122" s="160">
+      <c r="F122" s="3" t="s">
+        <v>479</v>
+      </c>
+      <c r="G122" s="2"/>
+      <c r="H122" s="56" t="s">
+        <v>480</v>
+      </c>
+      <c r="I122" s="88" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9" ht="50.25" customHeight="1">
+      <c r="A123" s="158">
         <v>113</v>
       </c>
-      <c r="B122" s="122" t="s">
-        <v>479</v>
-      </c>
-      <c r="C122" s="2" t="s">
-        <v>480</v>
-      </c>
-      <c r="D122" s="2" t="s">
-        <v>481</v>
-      </c>
-      <c r="E122" s="3" t="s">
+      <c r="B123" s="120" t="s">
+        <v>482</v>
+      </c>
+      <c r="C123" s="2" t="s">
+        <v>483</v>
+      </c>
+      <c r="D123" s="2" t="s">
+        <v>484</v>
+      </c>
+      <c r="E123" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="F122" s="3" t="s">
-        <v>482</v>
-      </c>
-      <c r="G122" s="2"/>
-      <c r="H122" s="106" t="s">
-        <v>463</v>
-      </c>
-      <c r="I122" s="89" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="123" spans="1:9" ht="50.25" customHeight="1">
-      <c r="A123" s="160">
+      <c r="F123" s="3" t="s">
+        <v>485</v>
+      </c>
+      <c r="G123" s="2"/>
+      <c r="H123" s="104" t="s">
+        <v>466</v>
+      </c>
+      <c r="I123" s="88" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9" ht="50.25" customHeight="1">
+      <c r="A124" s="158">
         <v>114</v>
       </c>
-      <c r="B123" s="122" t="s">
-        <v>484</v>
-      </c>
-      <c r="C123" s="3" t="s">
-        <v>485</v>
-      </c>
-      <c r="D123" s="2" t="s">
-        <v>486</v>
-      </c>
-      <c r="E123" s="3"/>
-      <c r="F123" s="3" t="s">
+      <c r="B124" s="120" t="s">
         <v>487</v>
       </c>
-      <c r="G123" s="2"/>
-      <c r="H123" s="106" t="s">
-        <v>466</v>
-      </c>
-      <c r="I123" s="89" t="s">
+      <c r="C124" s="3" t="s">
         <v>488</v>
       </c>
-    </row>
-    <row r="124" spans="1:9" ht="50.25" customHeight="1">
-      <c r="A124" s="160">
+      <c r="D124" s="2" t="s">
+        <v>489</v>
+      </c>
+      <c r="E124" s="3"/>
+      <c r="F124" s="3" t="s">
+        <v>490</v>
+      </c>
+      <c r="G124" s="2"/>
+      <c r="H124" s="104" t="s">
+        <v>469</v>
+      </c>
+      <c r="I124" s="88" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9" ht="50.25" customHeight="1">
+      <c r="A125" s="158">
         <v>115</v>
       </c>
-      <c r="B124" s="122" t="s">
-        <v>489</v>
-      </c>
-      <c r="C124" s="2" t="s">
-        <v>490</v>
-      </c>
-      <c r="D124" s="2" t="s">
-        <v>491</v>
-      </c>
-      <c r="E124" s="2"/>
-      <c r="F124" s="2" t="s">
+      <c r="B125" s="120" t="s">
         <v>492</v>
       </c>
-      <c r="G124" s="2"/>
-      <c r="H124" s="106" t="s">
-        <v>466</v>
-      </c>
-      <c r="I124" s="89" t="s">
+      <c r="C125" s="2" t="s">
         <v>493</v>
       </c>
-    </row>
-    <row r="125" spans="1:9" ht="50.25" customHeight="1">
-      <c r="A125" s="160">
+      <c r="D125" s="2" t="s">
+        <v>494</v>
+      </c>
+      <c r="E125" s="2"/>
+      <c r="F125" s="2" t="s">
+        <v>495</v>
+      </c>
+      <c r="G125" s="2"/>
+      <c r="H125" s="104" t="s">
+        <v>469</v>
+      </c>
+      <c r="I125" s="88" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9" ht="50.25" customHeight="1">
+      <c r="A126" s="158">
         <v>116</v>
       </c>
-      <c r="B125" s="122" t="s">
-        <v>494</v>
-      </c>
-      <c r="C125" s="3" t="s">
-        <v>495</v>
-      </c>
-      <c r="D125" s="2" t="s">
-        <v>496</v>
-      </c>
-      <c r="E125" s="3" t="s">
+      <c r="B126" s="120" t="s">
         <v>497</v>
       </c>
-      <c r="F125" s="2" t="s">
+      <c r="C126" s="3" t="s">
         <v>498</v>
       </c>
-      <c r="G125" s="2" t="s">
+      <c r="D126" s="2" t="s">
+        <v>499</v>
+      </c>
+      <c r="E126" s="3" t="s">
+        <v>500</v>
+      </c>
+      <c r="F126" s="2" t="s">
+        <v>501</v>
+      </c>
+      <c r="G126" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="H125" s="2" t="s">
-        <v>496</v>
-      </c>
-      <c r="I125" s="89" t="s">
+      <c r="H126" s="2" t="s">
         <v>499</v>
       </c>
-    </row>
-    <row r="126" spans="1:9" ht="50.25" customHeight="1">
-      <c r="A126" s="160">
+      <c r="I126" s="88" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9" ht="50.25" customHeight="1">
+      <c r="A127" s="158">
         <v>117</v>
       </c>
-      <c r="B126" s="122" t="s">
-        <v>500</v>
-      </c>
-      <c r="C126" s="3" t="s">
-        <v>501</v>
-      </c>
-      <c r="D126" s="136" t="s">
-        <v>502</v>
-      </c>
-      <c r="E126" s="3" t="s">
+      <c r="B127" s="120" t="s">
         <v>503</v>
       </c>
-      <c r="F126" s="2" t="s">
+      <c r="C127" s="3" t="s">
         <v>504</v>
       </c>
-      <c r="G126" s="2" t="s">
+      <c r="D127" s="134" t="s">
+        <v>505</v>
+      </c>
+      <c r="E127" s="3" t="s">
+        <v>506</v>
+      </c>
+      <c r="F127" s="2" t="s">
+        <v>507</v>
+      </c>
+      <c r="G127" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="H126" s="2" t="s">
-        <v>502</v>
-      </c>
-      <c r="I126" s="89" t="s">
+      <c r="H127" s="2" t="s">
         <v>505</v>
       </c>
-    </row>
-    <row r="127" spans="1:9" ht="50.25" customHeight="1">
-      <c r="A127" s="160">
+      <c r="I127" s="88" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9" ht="50.25" customHeight="1">
+      <c r="A128" s="158">
         <v>118</v>
       </c>
-      <c r="B127" s="122" t="s">
-        <v>506</v>
-      </c>
-      <c r="C127" s="3" t="s">
-        <v>507</v>
-      </c>
-      <c r="D127" s="136" t="s">
-        <v>506</v>
-      </c>
-      <c r="E127" s="3"/>
-      <c r="F127" s="2"/>
-      <c r="G127" s="2"/>
-      <c r="H127" s="2" t="s">
-        <v>506</v>
-      </c>
-      <c r="I127" s="89" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="128" spans="1:9" ht="50.25" customHeight="1">
-      <c r="A128" s="160">
-        <v>119</v>
-      </c>
-      <c r="B128" s="122" t="s">
+      <c r="B128" s="120" t="s">
         <v>509</v>
       </c>
       <c r="C128" s="3" t="s">
         <v>510</v>
       </c>
-      <c r="D128" s="2" t="s">
+      <c r="D128" s="134" t="s">
+        <v>509</v>
+      </c>
+      <c r="E128" s="3"/>
+      <c r="F128" s="2"/>
+      <c r="G128" s="2"/>
+      <c r="H128" s="2" t="s">
+        <v>509</v>
+      </c>
+      <c r="I128" s="88" t="s">
         <v>511</v>
       </c>
-      <c r="E128" s="3" t="s">
-        <v>475</v>
-      </c>
-      <c r="F128" s="2" t="s">
-        <v>476</v>
-      </c>
-      <c r="G128" s="2"/>
-      <c r="H128" s="106" t="s">
+    </row>
+    <row r="129" spans="1:9" ht="50.25" customHeight="1">
+      <c r="A129" s="158">
+        <v>119</v>
+      </c>
+      <c r="B129" s="120" t="s">
+        <v>512</v>
+      </c>
+      <c r="C129" s="3" t="s">
+        <v>513</v>
+      </c>
+      <c r="D129" s="2" t="s">
+        <v>514</v>
+      </c>
+      <c r="E129" s="3" t="s">
+        <v>478</v>
+      </c>
+      <c r="F129" s="2" t="s">
+        <v>479</v>
+      </c>
+      <c r="G129" s="2"/>
+      <c r="H129" s="104" t="s">
+        <v>509</v>
+      </c>
+      <c r="I129" s="88" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9" ht="50.25" customHeight="1">
+      <c r="A130" s="158">
+        <v>120</v>
+      </c>
+      <c r="B130" s="130" t="s">
+        <v>516</v>
+      </c>
+      <c r="C130" s="3" t="s">
+        <v>510</v>
+      </c>
+      <c r="D130" s="2" t="s">
+        <v>516</v>
+      </c>
+      <c r="E130" s="3" t="s">
+        <v>510</v>
+      </c>
+      <c r="F130" s="2" t="s">
+        <v>517</v>
+      </c>
+      <c r="G130" s="2"/>
+      <c r="H130" s="104" t="s">
+        <v>499</v>
+      </c>
+      <c r="I130" s="88" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9" ht="50.25" customHeight="1">
+      <c r="A131" s="158">
+        <v>121</v>
+      </c>
+      <c r="B131" s="120" t="s">
+        <v>519</v>
+      </c>
+      <c r="C131" s="3" t="s">
+        <v>520</v>
+      </c>
+      <c r="D131" s="2" t="s">
+        <v>521</v>
+      </c>
+      <c r="E131" s="3" t="s">
+        <v>522</v>
+      </c>
+      <c r="F131" s="2" t="s">
+        <v>501</v>
+      </c>
+      <c r="G131" s="2" t="s">
+        <v>523</v>
+      </c>
+      <c r="H131" s="2" t="s">
+        <v>521</v>
+      </c>
+      <c r="I131" s="88" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9" ht="50.25" customHeight="1">
+      <c r="A132" s="158">
+        <v>122</v>
+      </c>
+      <c r="B132" s="120" t="s">
+        <v>525</v>
+      </c>
+      <c r="C132" s="3" t="s">
+        <v>504</v>
+      </c>
+      <c r="D132" s="134" t="s">
+        <v>526</v>
+      </c>
+      <c r="E132" s="3" t="s">
         <v>506</v>
       </c>
-      <c r="I128" s="89" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="129" spans="1:9" ht="50.25" customHeight="1">
-      <c r="A129" s="160">
-        <v>120</v>
-      </c>
-      <c r="B129" s="132" t="s">
+      <c r="F132" s="2" t="s">
+        <v>507</v>
+      </c>
+      <c r="G132" s="2" t="s">
+        <v>426</v>
+      </c>
+      <c r="H132" s="56" t="s">
+        <v>526</v>
+      </c>
+      <c r="I132" s="88" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9" ht="50.25" customHeight="1">
+      <c r="A133" s="158">
+        <v>123</v>
+      </c>
+      <c r="B133" s="131" t="s">
+        <v>528</v>
+      </c>
+      <c r="C133" s="39" t="s">
+        <v>510</v>
+      </c>
+      <c r="D133" s="135" t="s">
+        <v>528</v>
+      </c>
+      <c r="E133" s="39"/>
+      <c r="F133" s="46"/>
+      <c r="G133" s="46"/>
+      <c r="H133" s="58" t="s">
+        <v>528</v>
+      </c>
+      <c r="I133" s="129" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9" ht="50.25" customHeight="1">
+      <c r="A134" s="158">
+        <v>124</v>
+      </c>
+      <c r="B134" s="132" t="s">
+        <v>530</v>
+      </c>
+      <c r="C134" s="45" t="s">
         <v>513</v>
-      </c>
-      <c r="C129" s="3" t="s">
-        <v>507</v>
-      </c>
-      <c r="D129" s="2" t="s">
-        <v>513</v>
-      </c>
-      <c r="E129" s="3" t="s">
-        <v>507</v>
-      </c>
-      <c r="F129" s="2" t="s">
-        <v>514</v>
-      </c>
-      <c r="G129" s="2"/>
-      <c r="H129" s="106" t="s">
-        <v>496</v>
-      </c>
-      <c r="I129" s="89" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="130" spans="1:9" ht="50.25" customHeight="1">
-      <c r="A130" s="160">
-        <v>121</v>
-      </c>
-      <c r="B130" s="122" t="s">
-        <v>516</v>
-      </c>
-      <c r="C130" s="3" t="s">
-        <v>517</v>
-      </c>
-      <c r="D130" s="2" t="s">
-        <v>518</v>
-      </c>
-      <c r="E130" s="3" t="s">
-        <v>519</v>
-      </c>
-      <c r="F130" s="2" t="s">
-        <v>498</v>
-      </c>
-      <c r="G130" s="2" t="s">
-        <v>520</v>
-      </c>
-      <c r="H130" s="2" t="s">
-        <v>518</v>
-      </c>
-      <c r="I130" s="89" t="s">
-        <v>521</v>
-      </c>
-    </row>
-    <row r="131" spans="1:9" ht="50.25" customHeight="1">
-      <c r="A131" s="160">
-        <v>122</v>
-      </c>
-      <c r="B131" s="122" t="s">
-        <v>522</v>
-      </c>
-      <c r="C131" s="3" t="s">
-        <v>501</v>
-      </c>
-      <c r="D131" s="136" t="s">
-        <v>523</v>
-      </c>
-      <c r="E131" s="3" t="s">
-        <v>503</v>
-      </c>
-      <c r="F131" s="2" t="s">
-        <v>504</v>
-      </c>
-      <c r="G131" s="2" t="s">
-        <v>423</v>
-      </c>
-      <c r="H131" s="56" t="s">
-        <v>523</v>
-      </c>
-      <c r="I131" s="89" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="132" spans="1:9" ht="50.25" customHeight="1">
-      <c r="A132" s="160">
-        <v>123</v>
-      </c>
-      <c r="B132" s="133" t="s">
-        <v>525</v>
-      </c>
-      <c r="C132" s="39" t="s">
-        <v>507</v>
-      </c>
-      <c r="D132" s="137" t="s">
-        <v>525</v>
-      </c>
-      <c r="E132" s="39"/>
-      <c r="F132" s="46"/>
-      <c r="G132" s="46"/>
-      <c r="H132" s="58" t="s">
-        <v>525</v>
-      </c>
-      <c r="I132" s="131" t="s">
-        <v>526</v>
-      </c>
-    </row>
-    <row r="133" spans="1:9" ht="50.25" customHeight="1">
-      <c r="A133" s="160">
-        <v>124</v>
-      </c>
-      <c r="B133" s="134" t="s">
-        <v>527</v>
-      </c>
-      <c r="C133" s="45" t="s">
-        <v>510</v>
-      </c>
-      <c r="D133" s="44" t="s">
-        <v>527</v>
-      </c>
-      <c r="E133" s="45" t="s">
-        <v>475</v>
-      </c>
-      <c r="F133" s="44" t="s">
-        <v>476</v>
-      </c>
-      <c r="G133" s="44"/>
-      <c r="H133" s="135" t="s">
-        <v>525</v>
-      </c>
-      <c r="I133" s="100" t="s">
-        <v>528</v>
-      </c>
-    </row>
-    <row r="134" spans="1:9" ht="50.25" customHeight="1">
-      <c r="A134" s="160">
-        <v>125</v>
-      </c>
-      <c r="B134" s="134" t="s">
-        <v>529</v>
-      </c>
-      <c r="C134" s="45" t="s">
-        <v>507</v>
       </c>
       <c r="D134" s="44" t="s">
         <v>530</v>
       </c>
       <c r="E134" s="45" t="s">
+        <v>478</v>
+      </c>
+      <c r="F134" s="44" t="s">
+        <v>479</v>
+      </c>
+      <c r="G134" s="44"/>
+      <c r="H134" s="133" t="s">
+        <v>528</v>
+      </c>
+      <c r="I134" s="98" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9" ht="50.25" customHeight="1">
+      <c r="A135" s="158">
+        <v>125</v>
+      </c>
+      <c r="B135" s="132" t="s">
+        <v>532</v>
+      </c>
+      <c r="C135" s="45" t="s">
+        <v>510</v>
+      </c>
+      <c r="D135" s="44" t="s">
+        <v>533</v>
+      </c>
+      <c r="E135" s="45" t="s">
         <v>136</v>
       </c>
-      <c r="F134" s="44" t="s">
-        <v>531</v>
-      </c>
-      <c r="G134" s="44"/>
-      <c r="H134" s="135" t="s">
-        <v>516</v>
-      </c>
-      <c r="I134" s="100" t="s">
-        <v>532</v>
-      </c>
-    </row>
-    <row r="135" spans="1:9" ht="50.25" customHeight="1">
-      <c r="A135" s="161" t="s">
-        <v>533</v>
-      </c>
-      <c r="B135" s="113" t="s">
+      <c r="F135" s="44" t="s">
         <v>534</v>
       </c>
-      <c r="C135" s="43" t="s">
+      <c r="G135" s="44"/>
+      <c r="H135" s="133" t="s">
+        <v>519</v>
+      </c>
+      <c r="I135" s="98" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9" ht="50.25" customHeight="1">
+      <c r="A136" s="159" t="s">
+        <v>536</v>
+      </c>
+      <c r="B136" s="111" t="s">
+        <v>537</v>
+      </c>
+      <c r="C136" s="43" t="s">
         <v>129</v>
       </c>
-      <c r="D135" s="4" t="s">
-        <v>534</v>
-      </c>
-      <c r="E135" s="43" t="s">
-        <v>535</v>
-      </c>
-      <c r="F135" s="4" t="s">
-        <v>536</v>
-      </c>
-      <c r="G135" s="4" t="s">
+      <c r="D136" s="4" t="s">
         <v>537</v>
       </c>
-      <c r="H135" s="4" t="s">
-        <v>534</v>
-      </c>
-      <c r="I135" s="4" t="s">
+      <c r="E136" s="43" t="s">
         <v>538</v>
       </c>
-    </row>
-    <row r="136" spans="1:9" ht="50.25" customHeight="1">
-      <c r="A136" s="162">
-        <v>127</v>
-      </c>
-      <c r="B136" s="113" t="s">
+      <c r="F136" s="4" t="s">
         <v>539</v>
       </c>
-      <c r="C136" s="43"/>
-      <c r="D136" s="61" t="s">
+      <c r="G136" s="4" t="s">
         <v>540</v>
       </c>
-      <c r="E136" s="43"/>
-      <c r="F136" s="4"/>
-      <c r="G136" s="4"/>
       <c r="H136" s="4" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="I136" s="4" t="s">
         <v>541</v>
       </c>
     </row>
-    <row r="137" spans="1:9" ht="33">
-      <c r="A137" s="162">
+    <row r="137" spans="1:9" ht="50.25" customHeight="1">
+      <c r="A137" s="160">
+        <v>127</v>
+      </c>
+      <c r="B137" s="111" t="s">
+        <v>542</v>
+      </c>
+      <c r="C137" s="43"/>
+      <c r="D137" s="61" t="s">
+        <v>543</v>
+      </c>
+      <c r="E137" s="43"/>
+      <c r="F137" s="4"/>
+      <c r="G137" s="4"/>
+      <c r="H137" s="4" t="s">
+        <v>542</v>
+      </c>
+      <c r="I137" s="4" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9" ht="33">
+      <c r="A138" s="160">
         <v>128</v>
       </c>
-      <c r="B137" s="113" t="s">
-        <v>542</v>
-      </c>
-      <c r="C137" s="43" t="s">
-        <v>543</v>
-      </c>
-      <c r="D137" s="4" t="s">
-        <v>544</v>
-      </c>
-      <c r="E137" s="43" t="s">
+      <c r="B138" s="111" t="s">
         <v>545</v>
       </c>
-      <c r="F137" s="4" t="s">
+      <c r="C138" s="43" t="s">
         <v>546</v>
       </c>
-      <c r="G137" s="4"/>
-      <c r="H137" s="60" t="s">
-        <v>534</v>
-      </c>
-      <c r="I137" s="4" t="s">
+      <c r="D138" s="4" t="s">
         <v>547</v>
       </c>
-    </row>
-    <row r="138" spans="1:9" ht="50.25" customHeight="1">
-      <c r="A138" s="162">
+      <c r="E138" s="43" t="s">
+        <v>548</v>
+      </c>
+      <c r="F138" s="4" t="s">
+        <v>549</v>
+      </c>
+      <c r="G138" s="4"/>
+      <c r="H138" s="60" t="s">
+        <v>537</v>
+      </c>
+      <c r="I138" s="4" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9" ht="50.25" customHeight="1">
+      <c r="A139" s="160">
         <v>129</v>
       </c>
-      <c r="B138" s="93" t="s">
-        <v>548</v>
-      </c>
-      <c r="C138" s="3" t="s">
-        <v>549</v>
-      </c>
-      <c r="D138" s="32" t="s">
-        <v>550</v>
-      </c>
-      <c r="E138" s="3" t="s">
+      <c r="B139" s="91" t="s">
         <v>551</v>
       </c>
-      <c r="F138" s="2" t="s">
+      <c r="C139" s="3" t="s">
         <v>552</v>
       </c>
-      <c r="G138" s="2" t="s">
+      <c r="D139" s="32" t="s">
         <v>553</v>
       </c>
-      <c r="H138" s="2" t="s">
-        <v>548</v>
-      </c>
-      <c r="I138" s="2" t="s">
+      <c r="E139" s="3" t="s">
         <v>554</v>
       </c>
-    </row>
-    <row r="139" spans="1:9" ht="66">
-      <c r="A139" s="162">
-        <v>130</v>
-      </c>
-      <c r="B139" s="118" t="s">
+      <c r="F139" s="2" t="s">
         <v>555</v>
       </c>
-      <c r="C139" s="39" t="s">
+      <c r="G139" s="2" t="s">
         <v>556</v>
       </c>
-      <c r="D139" s="58" t="s">
-        <v>555</v>
-      </c>
-      <c r="E139" s="39"/>
-      <c r="F139" s="46"/>
-      <c r="G139" s="46"/>
       <c r="H139" s="2" t="s">
-        <v>555</v>
+        <v>551</v>
       </c>
       <c r="I139" s="2" t="s">
         <v>557</v>
       </c>
     </row>
-    <row r="140" spans="1:9" ht="50.25" customHeight="1">
-      <c r="A140" s="162">
+    <row r="140" spans="1:9" ht="66">
+      <c r="A140" s="160">
+        <v>130</v>
+      </c>
+      <c r="B140" s="116" t="s">
+        <v>558</v>
+      </c>
+      <c r="C140" s="39" t="s">
+        <v>559</v>
+      </c>
+      <c r="D140" s="58" t="s">
+        <v>558</v>
+      </c>
+      <c r="E140" s="39"/>
+      <c r="F140" s="46"/>
+      <c r="G140" s="46"/>
+      <c r="H140" s="2" t="s">
+        <v>558</v>
+      </c>
+      <c r="I140" s="2" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="141" spans="1:9" ht="50.25" customHeight="1">
+      <c r="A141" s="160">
         <v>131</v>
       </c>
-      <c r="B140" s="120" t="s">
-        <v>558</v>
-      </c>
-      <c r="C140" s="51" t="s">
-        <v>549</v>
-      </c>
-      <c r="D140" s="48" t="s">
-        <v>559</v>
-      </c>
-      <c r="E140" s="51" t="s">
-        <v>560</v>
-      </c>
-      <c r="F140" s="48" t="s">
+      <c r="B141" s="118" t="s">
         <v>561</v>
       </c>
-      <c r="G140" s="48"/>
-      <c r="H140" s="65" t="s">
-        <v>548</v>
-      </c>
-      <c r="I140" s="2" t="s">
+      <c r="C141" s="51" t="s">
+        <v>552</v>
+      </c>
+      <c r="D141" s="48" t="s">
         <v>562</v>
       </c>
-    </row>
-    <row r="141" spans="1:9" ht="50.25" customHeight="1">
-      <c r="A141" s="162">
+      <c r="E141" s="51" t="s">
+        <v>563</v>
+      </c>
+      <c r="F141" s="48" t="s">
+        <v>564</v>
+      </c>
+      <c r="G141" s="48"/>
+      <c r="H141" s="65" t="s">
+        <v>551</v>
+      </c>
+      <c r="I141" s="2" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="142" spans="1:9" ht="50.25" customHeight="1">
+      <c r="A142" s="160">
         <v>132</v>
       </c>
-      <c r="B141" s="120" t="s">
-        <v>563</v>
-      </c>
-      <c r="C141" s="51"/>
-      <c r="D141" s="62" t="s">
-        <v>564</v>
-      </c>
-      <c r="E141" s="51"/>
-      <c r="F141" s="48"/>
-      <c r="G141" s="48"/>
-      <c r="H141" s="66" t="s">
-        <v>564</v>
-      </c>
-      <c r="I141" s="46" t="s">
-        <v>565</v>
-      </c>
-    </row>
-    <row r="142" spans="1:9" ht="50.25" customHeight="1">
-      <c r="A142" s="162">
+      <c r="B142" s="118" t="s">
+        <v>566</v>
+      </c>
+      <c r="C142" s="51"/>
+      <c r="D142" s="62" t="s">
+        <v>567</v>
+      </c>
+      <c r="E142" s="51"/>
+      <c r="F142" s="48"/>
+      <c r="G142" s="48"/>
+      <c r="H142" s="66" t="s">
+        <v>567</v>
+      </c>
+      <c r="I142" s="46" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="143" spans="1:9" ht="50.25" customHeight="1">
+      <c r="A143" s="160">
         <v>133</v>
       </c>
-      <c r="B142" s="23" t="s">
-        <v>566</v>
-      </c>
-      <c r="C142" s="23" t="s">
-        <v>567</v>
-      </c>
-      <c r="D142" s="23" t="s">
-        <v>568</v>
-      </c>
-      <c r="E142" s="12" t="s">
-        <v>551</v>
-      </c>
-      <c r="F142" s="23" t="s">
+      <c r="B143" s="168" t="s">
         <v>569</v>
       </c>
-      <c r="G142" s="72"/>
-      <c r="H142" s="59" t="s">
-        <v>534</v>
-      </c>
-      <c r="I142" s="46" t="s">
+      <c r="C143" s="23" t="s">
         <v>570</v>
       </c>
-    </row>
-    <row r="143" spans="1:9" ht="50.25" customHeight="1">
-      <c r="A143" s="162">
+      <c r="D143" s="23" t="s">
+        <v>571</v>
+      </c>
+      <c r="E143" s="12" t="s">
+        <v>554</v>
+      </c>
+      <c r="F143" s="23" t="s">
+        <v>572</v>
+      </c>
+      <c r="G143" s="72"/>
+      <c r="H143" s="59" t="s">
+        <v>537</v>
+      </c>
+      <c r="I143" s="46" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="144" spans="1:9" ht="50.25" customHeight="1">
+      <c r="A144" s="160">
         <v>134</v>
       </c>
-      <c r="B143" s="48" t="s">
-        <v>571</v>
-      </c>
-      <c r="C143" s="63" t="s">
-        <v>572</v>
-      </c>
-      <c r="D143" s="48" t="s">
-        <v>573</v>
-      </c>
-      <c r="E143" s="69"/>
-      <c r="F143" s="49" t="s">
+      <c r="B144" s="118" t="s">
         <v>574</v>
       </c>
-      <c r="G143" s="73"/>
-      <c r="H143" s="64"/>
-      <c r="I143" s="2" t="s">
+      <c r="C144" s="63" t="s">
         <v>575</v>
       </c>
-    </row>
-    <row r="144" spans="1:9" ht="50.25" customHeight="1">
-      <c r="A144" s="156">
+      <c r="D144" s="48" t="s">
+        <v>576</v>
+      </c>
+      <c r="E144" s="69"/>
+      <c r="F144" s="49" t="s">
+        <v>577</v>
+      </c>
+      <c r="G144" s="73"/>
+      <c r="H144" s="64"/>
+      <c r="I144" s="2" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="145" spans="1:9" ht="50.25" customHeight="1">
+      <c r="A145" s="154">
         <v>135</v>
       </c>
-      <c r="B144" s="123" t="s">
-        <v>576</v>
-      </c>
-      <c r="C144" s="48"/>
-      <c r="D144" s="68" t="s">
-        <v>576</v>
-      </c>
-      <c r="E144" s="43"/>
-      <c r="F144" s="48" t="s">
-        <v>577</v>
-      </c>
-      <c r="G144" s="47" t="s">
-        <v>578</v>
-      </c>
-      <c r="H144" s="47" t="s">
-        <v>576</v>
-      </c>
-      <c r="I144" s="50" t="s">
+      <c r="B145" s="121" t="s">
         <v>579</v>
       </c>
-    </row>
-    <row r="145" spans="1:9" ht="50.25" customHeight="1">
-      <c r="A145" s="156">
+      <c r="C145" s="48"/>
+      <c r="D145" s="68" t="s">
+        <v>579</v>
+      </c>
+      <c r="E145" s="43"/>
+      <c r="F145" s="48" t="s">
+        <v>580</v>
+      </c>
+      <c r="G145" s="47" t="s">
+        <v>581</v>
+      </c>
+      <c r="H145" s="47" t="s">
+        <v>579</v>
+      </c>
+      <c r="I145" s="50" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="146" spans="1:9" ht="50.25" customHeight="1">
+      <c r="A146" s="154">
         <v>136</v>
       </c>
-      <c r="B145" s="123" t="s">
-        <v>580</v>
-      </c>
-      <c r="C145" s="70" t="s">
-        <v>581</v>
-      </c>
-      <c r="D145" s="68" t="s">
-        <v>580</v>
-      </c>
-      <c r="E145" s="70" t="s">
-        <v>581</v>
-      </c>
-      <c r="F145" s="48" t="s">
-        <v>582</v>
-      </c>
-      <c r="G145" s="47" t="s">
+      <c r="B146" s="121" t="s">
+        <v>583</v>
+      </c>
+      <c r="C146" s="70" t="s">
+        <v>584</v>
+      </c>
+      <c r="D146" s="68" t="s">
+        <v>583</v>
+      </c>
+      <c r="E146" s="70" t="s">
+        <v>584</v>
+      </c>
+      <c r="F146" s="48" t="s">
+        <v>585</v>
+      </c>
+      <c r="G146" s="47" t="s">
         <v>55</v>
       </c>
-      <c r="H145" s="47" t="s">
-        <v>580</v>
-      </c>
-      <c r="I145" s="47" t="s">
+      <c r="H146" s="47" t="s">
         <v>583</v>
-      </c>
-    </row>
-    <row r="146" spans="1:9" ht="50.25" customHeight="1">
-      <c r="A146" s="156">
-        <v>137</v>
-      </c>
-      <c r="B146" s="138" t="s">
-        <v>584</v>
-      </c>
-      <c r="C146" s="70"/>
-      <c r="D146" s="50" t="s">
-        <v>584</v>
-      </c>
-      <c r="E146" s="71"/>
-      <c r="F146" s="48"/>
-      <c r="G146" s="47"/>
-      <c r="H146" s="50" t="s">
-        <v>585</v>
       </c>
       <c r="I146" s="47" t="s">
         <v>586</v>
       </c>
     </row>
-    <row r="147" spans="1:9" ht="66">
-      <c r="A147" s="156">
+    <row r="147" spans="1:9" ht="50.25" customHeight="1">
+      <c r="A147" s="154">
+        <v>137</v>
+      </c>
+      <c r="B147" s="136" t="s">
+        <v>587</v>
+      </c>
+      <c r="C147" s="70"/>
+      <c r="D147" s="50" t="s">
+        <v>587</v>
+      </c>
+      <c r="E147" s="71"/>
+      <c r="F147" s="48"/>
+      <c r="G147" s="47"/>
+      <c r="H147" s="50" t="s">
+        <v>588</v>
+      </c>
+      <c r="I147" s="47" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="148" spans="1:9" ht="66">
+      <c r="A148" s="154">
         <v>138</v>
       </c>
-      <c r="B147" s="120" t="s">
-        <v>587</v>
-      </c>
-      <c r="C147" s="41" t="s">
-        <v>588</v>
-      </c>
-      <c r="D147" s="48" t="s">
-        <v>589</v>
-      </c>
-      <c r="E147" s="48" t="s">
-        <v>581</v>
-      </c>
-      <c r="F147" s="48" t="s">
+      <c r="B148" s="118" t="s">
         <v>590</v>
       </c>
-      <c r="G147" s="48"/>
-      <c r="H147" s="48" t="s">
+      <c r="C148" s="41" t="s">
         <v>591</v>
       </c>
-      <c r="I147" s="48" t="s">
+      <c r="D148" s="48" t="s">
         <v>592</v>
       </c>
-    </row>
-    <row r="148" spans="1:9" ht="50.25" customHeight="1">
-      <c r="A148" s="162">
-        <v>139</v>
-      </c>
-      <c r="B148" s="120" t="s">
+      <c r="E148" s="48" t="s">
+        <v>584</v>
+      </c>
+      <c r="F148" s="48" t="s">
         <v>593</v>
       </c>
-      <c r="C148" s="48"/>
-      <c r="D148" s="48"/>
-      <c r="E148" s="48"/>
-      <c r="F148" s="48" t="s">
+      <c r="G148" s="48"/>
+      <c r="H148" s="48" t="s">
         <v>594</v>
-      </c>
-      <c r="G148" s="48" t="s">
-        <v>423</v>
-      </c>
-      <c r="H148" s="48" t="s">
-        <v>593</v>
       </c>
       <c r="I148" s="48" t="s">
         <v>595</v>
       </c>
     </row>
     <row r="149" spans="1:9" ht="50.25" customHeight="1">
-      <c r="A149" s="162">
-        <v>140</v>
-      </c>
-      <c r="B149" s="120" t="s">
+      <c r="A149" s="160">
+        <v>139</v>
+      </c>
+      <c r="B149" s="118" t="s">
         <v>596</v>
       </c>
-      <c r="C149" s="48" t="s">
+      <c r="C149" s="48"/>
+      <c r="D149" s="48"/>
+      <c r="E149" s="48"/>
+      <c r="F149" s="48" t="s">
         <v>597</v>
       </c>
-      <c r="D149" s="62" t="s">
-        <v>598</v>
-      </c>
-      <c r="E149" s="48" t="s">
-        <v>599</v>
-      </c>
-      <c r="F149" s="48" t="s">
-        <v>600</v>
-      </c>
       <c r="G149" s="48" t="s">
-        <v>601</v>
+        <v>426</v>
       </c>
       <c r="H149" s="48" t="s">
         <v>596</v>
       </c>
       <c r="I149" s="48" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="150" spans="1:9" ht="50.25" customHeight="1">
+      <c r="A150" s="160">
+        <v>140</v>
+      </c>
+      <c r="B150" s="118" t="s">
+        <v>599</v>
+      </c>
+      <c r="C150" s="48" t="s">
+        <v>600</v>
+      </c>
+      <c r="D150" s="62" t="s">
+        <v>601</v>
+      </c>
+      <c r="E150" s="48" t="s">
         <v>602</v>
       </c>
-    </row>
-    <row r="150" spans="1:9" ht="50.25" customHeight="1">
-      <c r="A150" s="162">
-        <v>141</v>
-      </c>
-      <c r="B150" s="48" t="s">
+      <c r="F150" s="48" t="s">
         <v>603</v>
       </c>
-      <c r="C150" s="48" t="s">
-        <v>597</v>
-      </c>
-      <c r="D150" s="62" t="s">
+      <c r="G150" s="48" t="s">
         <v>604</v>
       </c>
-      <c r="E150" s="48"/>
-      <c r="F150" s="48"/>
-      <c r="G150" s="48"/>
       <c r="H150" s="48" t="s">
-        <v>603</v>
+        <v>599</v>
       </c>
       <c r="I150" s="48" t="s">
         <v>605</v>
       </c>
     </row>
     <row r="151" spans="1:9" ht="50.25" customHeight="1">
-      <c r="A151" s="162">
+      <c r="A151" s="160">
+        <v>141</v>
+      </c>
+      <c r="B151" s="118" t="s">
+        <v>606</v>
+      </c>
+      <c r="C151" s="48" t="s">
+        <v>600</v>
+      </c>
+      <c r="D151" s="62" t="s">
+        <v>607</v>
+      </c>
+      <c r="E151" s="48"/>
+      <c r="F151" s="48"/>
+      <c r="G151" s="48"/>
+      <c r="H151" s="48" t="s">
+        <v>606</v>
+      </c>
+      <c r="I151" s="48" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="152" spans="1:9" ht="50.25" customHeight="1">
+      <c r="A152" s="160">
         <v>142</v>
       </c>
-      <c r="B151" s="48" t="s">
-        <v>606</v>
-      </c>
-      <c r="C151" s="51" t="s">
-        <v>607</v>
-      </c>
-      <c r="D151" s="48" t="s">
-        <v>608</v>
-      </c>
-      <c r="E151" s="48" t="s">
+      <c r="B152" s="48" t="s">
         <v>609</v>
       </c>
-      <c r="F151" s="48" t="s">
+      <c r="C152" s="51" t="s">
         <v>610</v>
       </c>
-      <c r="G151" s="48"/>
-      <c r="H151" s="55" t="s">
-        <v>596</v>
-      </c>
-      <c r="I151" s="48" t="s">
+      <c r="D152" s="48" t="s">
         <v>611</v>
       </c>
-    </row>
-    <row r="152" spans="1:9" ht="50.25" customHeight="1">
-      <c r="A152" s="162">
-        <v>143</v>
-      </c>
-      <c r="B152" s="48" t="s">
+      <c r="E152" s="48" t="s">
         <v>612</v>
       </c>
-      <c r="C152" s="51"/>
-      <c r="D152" s="48" t="s">
+      <c r="F152" s="48" t="s">
         <v>613</v>
       </c>
-      <c r="E152" s="48"/>
-      <c r="F152" s="48"/>
       <c r="G152" s="48"/>
       <c r="H152" s="55" t="s">
+        <v>599</v>
+      </c>
+      <c r="I152" s="48" t="s">
         <v>614</v>
       </c>
-      <c r="I152" s="48" t="s">
+    </row>
+    <row r="153" spans="1:9" ht="50.25" customHeight="1">
+      <c r="A153" s="160">
+        <v>143</v>
+      </c>
+      <c r="B153" s="48" t="s">
         <v>615</v>
       </c>
-    </row>
-    <row r="153" spans="1:9" ht="50.25" customHeight="1">
-      <c r="A153" s="162">
+      <c r="C153" s="51"/>
+      <c r="D153" s="48" t="s">
+        <v>616</v>
+      </c>
+      <c r="E153" s="48"/>
+      <c r="F153" s="48"/>
+      <c r="G153" s="48"/>
+      <c r="H153" s="55" t="s">
+        <v>617</v>
+      </c>
+      <c r="I153" s="48" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="154" spans="1:9" ht="50.25" customHeight="1">
+      <c r="A154" s="160">
         <v>144</v>
       </c>
-      <c r="B153" s="48" t="s">
-        <v>616</v>
-      </c>
-      <c r="C153" s="51" t="s">
-        <v>572</v>
-      </c>
-      <c r="D153" s="48" t="s">
-        <v>617</v>
-      </c>
-      <c r="E153" s="48" t="s">
-        <v>408</v>
-      </c>
-      <c r="F153" s="48" t="s">
-        <v>618</v>
-      </c>
-      <c r="G153" s="48"/>
-      <c r="H153" s="55"/>
-      <c r="I153" s="48" t="s">
+      <c r="B154" s="48" t="s">
         <v>619</v>
       </c>
-    </row>
-    <row r="154" spans="1:9" ht="50.25" customHeight="1">
-      <c r="A154" s="162">
-        <v>145</v>
-      </c>
-      <c r="B154" s="48" t="s">
-        <v>620</v>
-      </c>
-      <c r="C154" s="48" t="s">
-        <v>597</v>
+      <c r="C154" s="51" t="s">
+        <v>575</v>
       </c>
       <c r="D154" s="48" t="s">
         <v>620</v>
       </c>
       <c r="E154" s="48" t="s">
-        <v>599</v>
+        <v>411</v>
       </c>
       <c r="F154" s="48" t="s">
-        <v>618</v>
+        <v>621</v>
       </c>
       <c r="G154" s="48"/>
-      <c r="H154" s="55" t="s">
-        <v>593</v>
-      </c>
+      <c r="H154" s="55"/>
       <c r="I154" s="48" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="155" spans="1:9" ht="50.25" customHeight="1">
+      <c r="A155" s="160">
+        <v>145</v>
+      </c>
+      <c r="B155" s="48" t="s">
+        <v>623</v>
+      </c>
+      <c r="C155" s="48" t="s">
+        <v>600</v>
+      </c>
+      <c r="D155" s="48" t="s">
+        <v>623</v>
+      </c>
+      <c r="E155" s="48" t="s">
+        <v>602</v>
+      </c>
+      <c r="F155" s="48" t="s">
         <v>621</v>
       </c>
-    </row>
-    <row r="155" spans="1:9" ht="50.25" customHeight="1">
-      <c r="A155" s="159">
+      <c r="G155" s="48"/>
+      <c r="H155" s="55" t="s">
+        <v>596</v>
+      </c>
+      <c r="I155" s="48" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="156" spans="1:9" ht="50.25" customHeight="1">
+      <c r="A156" s="157">
         <v>146</v>
       </c>
-      <c r="B155" s="120" t="s">
-        <v>622</v>
-      </c>
-      <c r="C155" s="48"/>
-      <c r="D155" s="48"/>
-      <c r="E155" s="48"/>
-      <c r="F155" s="48" t="s">
-        <v>623</v>
-      </c>
-      <c r="G155" s="48" t="s">
-        <v>624</v>
-      </c>
-      <c r="H155" s="48" t="s">
-        <v>622</v>
-      </c>
-      <c r="I155" s="48" t="s">
+      <c r="B156" s="118" t="s">
         <v>625</v>
       </c>
-    </row>
-    <row r="156" spans="1:9" ht="50.25" customHeight="1">
-      <c r="A156" s="163">
+      <c r="C156" s="48"/>
+      <c r="D156" s="48"/>
+      <c r="E156" s="48"/>
+      <c r="F156" s="48" t="s">
+        <v>626</v>
+      </c>
+      <c r="G156" s="48" t="s">
+        <v>627</v>
+      </c>
+      <c r="H156" s="48" t="s">
+        <v>625</v>
+      </c>
+      <c r="I156" s="48" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="157" spans="1:9" ht="50.25" customHeight="1">
+      <c r="A157" s="161">
         <v>147</v>
       </c>
-      <c r="B156" s="120" t="s">
-        <v>626</v>
-      </c>
-      <c r="C156" s="48" t="s">
-        <v>627</v>
-      </c>
-      <c r="D156" s="62" t="s">
-        <v>626</v>
-      </c>
-      <c r="E156" s="51" t="s">
-        <v>628</v>
-      </c>
-      <c r="F156" s="48" t="s">
+      <c r="B157" s="118" t="s">
         <v>629</v>
       </c>
-      <c r="G156" s="48" t="s">
-        <v>55</v>
-      </c>
-      <c r="H156" s="48" t="s">
-        <v>626</v>
-      </c>
-      <c r="I156" s="48" t="s">
+      <c r="C157" s="48" t="s">
         <v>630</v>
       </c>
-    </row>
-    <row r="157" spans="1:9" ht="50.25" customHeight="1">
-      <c r="A157" s="163">
-        <v>148</v>
-      </c>
-      <c r="B157" s="120" t="s">
+      <c r="D157" s="62" t="s">
+        <v>629</v>
+      </c>
+      <c r="E157" s="51" t="s">
         <v>631</v>
       </c>
-      <c r="C157" s="48" t="s">
-        <v>627</v>
-      </c>
-      <c r="D157" s="130" t="s">
-        <v>631</v>
-      </c>
-      <c r="E157" s="51"/>
       <c r="F157" s="48" t="s">
         <v>632</v>
       </c>
-      <c r="G157" s="48"/>
-      <c r="H157" s="48"/>
+      <c r="G157" s="48" t="s">
+        <v>55</v>
+      </c>
+      <c r="H157" s="48" t="s">
+        <v>629</v>
+      </c>
       <c r="I157" s="48" t="s">
         <v>633</v>
       </c>
     </row>
     <row r="158" spans="1:9" ht="50.25" customHeight="1">
-      <c r="A158" s="163">
+      <c r="A158" s="161">
+        <v>148</v>
+      </c>
+      <c r="B158" s="118" t="s">
+        <v>634</v>
+      </c>
+      <c r="C158" s="48" t="s">
+        <v>630</v>
+      </c>
+      <c r="D158" s="128" t="s">
+        <v>634</v>
+      </c>
+      <c r="E158" s="51"/>
+      <c r="F158" s="48" t="s">
+        <v>635</v>
+      </c>
+      <c r="G158" s="48"/>
+      <c r="H158" s="48"/>
+      <c r="I158" s="48" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="159" spans="1:9" ht="50.25" customHeight="1">
+      <c r="A159" s="161">
         <v>149</v>
       </c>
-      <c r="B158" s="120" t="s">
-        <v>634</v>
-      </c>
-      <c r="C158" s="48" t="s">
-        <v>627</v>
-      </c>
-      <c r="D158" s="129"/>
-      <c r="E158" s="51" t="s">
-        <v>635</v>
-      </c>
-      <c r="F158" s="48" t="s">
-        <v>636</v>
-      </c>
-      <c r="G158" s="48"/>
-      <c r="H158" s="55" t="s">
-        <v>626</v>
-      </c>
-      <c r="I158" s="48" t="s">
+      <c r="B159" s="118" t="s">
         <v>637</v>
       </c>
-    </row>
-    <row r="159" spans="1:9" ht="50.25" customHeight="1">
-      <c r="A159" s="163">
-        <v>150</v>
-      </c>
-      <c r="B159" s="120" t="s">
+      <c r="C159" s="48" t="s">
+        <v>630</v>
+      </c>
+      <c r="D159" s="127"/>
+      <c r="E159" s="51" t="s">
         <v>638</v>
       </c>
-      <c r="C159" s="51" t="s">
+      <c r="F159" s="48" t="s">
         <v>639</v>
-      </c>
-      <c r="D159" s="48" t="s">
-        <v>640</v>
-      </c>
-      <c r="E159" s="51" t="s">
-        <v>641</v>
-      </c>
-      <c r="F159" s="48" t="s">
-        <v>642</v>
       </c>
       <c r="G159" s="48"/>
       <c r="H159" s="55" t="s">
-        <v>622</v>
+        <v>629</v>
       </c>
       <c r="I159" s="48" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="160" spans="1:9" ht="50.25" customHeight="1">
+      <c r="A160" s="161">
+        <v>150</v>
+      </c>
+      <c r="B160" s="118" t="s">
+        <v>641</v>
+      </c>
+      <c r="C160" s="51" t="s">
+        <v>642</v>
+      </c>
+      <c r="D160" s="48" t="s">
         <v>643</v>
       </c>
-    </row>
-    <row r="160" spans="1:9" ht="50.25" customHeight="1">
-      <c r="A160" s="162">
-        <v>151</v>
-      </c>
-      <c r="B160" s="120" t="s">
+      <c r="E160" s="51" t="s">
         <v>644</v>
       </c>
-      <c r="C160" s="48" t="s">
-        <v>129</v>
-      </c>
-      <c r="D160" s="48"/>
-      <c r="E160" s="48"/>
       <c r="F160" s="48" t="s">
         <v>645</v>
       </c>
-      <c r="G160" s="48" t="s">
-        <v>520</v>
-      </c>
-      <c r="H160" s="48" t="s">
-        <v>644</v>
+      <c r="G160" s="48"/>
+      <c r="H160" s="55" t="s">
+        <v>625</v>
       </c>
       <c r="I160" s="48" t="s">
         <v>646</v>
       </c>
     </row>
     <row r="161" spans="1:9" ht="50.25" customHeight="1">
-      <c r="A161" s="162">
-        <v>152</v>
-      </c>
-      <c r="B161" s="120" t="s">
+      <c r="A161" s="160">
+        <v>151</v>
+      </c>
+      <c r="B161" s="118" t="s">
         <v>647</v>
       </c>
-      <c r="C161" s="51"/>
-      <c r="D161" s="62" t="s">
+      <c r="C161" s="48" t="s">
+        <v>129</v>
+      </c>
+      <c r="D161" s="48"/>
+      <c r="E161" s="48"/>
+      <c r="F161" s="48" t="s">
         <v>648</v>
       </c>
-      <c r="E161" s="51"/>
-      <c r="F161" s="48"/>
-      <c r="G161" s="48"/>
+      <c r="G161" s="48" t="s">
+        <v>523</v>
+      </c>
       <c r="H161" s="48" t="s">
         <v>647</v>
       </c>
@@ -7923,190 +7931,211 @@
         <v>649</v>
       </c>
     </row>
-    <row r="162" spans="1:9" ht="72.75" customHeight="1">
-      <c r="A162" s="162">
+    <row r="162" spans="1:9" ht="50.25" customHeight="1">
+      <c r="A162" s="160">
+        <v>152</v>
+      </c>
+      <c r="B162" s="118" t="s">
+        <v>650</v>
+      </c>
+      <c r="C162" s="51"/>
+      <c r="D162" s="62" t="s">
+        <v>651</v>
+      </c>
+      <c r="E162" s="51"/>
+      <c r="F162" s="48"/>
+      <c r="G162" s="48"/>
+      <c r="H162" s="48" t="s">
+        <v>650</v>
+      </c>
+      <c r="I162" s="48" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="163" spans="1:9" ht="72.75" customHeight="1">
+      <c r="A163" s="160">
         <v>153</v>
       </c>
-      <c r="B162" s="120" t="s">
-        <v>650</v>
-      </c>
-      <c r="C162" s="51" t="s">
-        <v>651</v>
-      </c>
-      <c r="D162" s="62" t="s">
-        <v>652</v>
-      </c>
-      <c r="E162" s="51" t="s">
+      <c r="B163" s="118" t="s">
         <v>653</v>
       </c>
-      <c r="F162" s="48" t="s">
+      <c r="C163" s="51" t="s">
         <v>654</v>
       </c>
-      <c r="G162" s="48"/>
-      <c r="H162" s="55" t="s">
-        <v>644</v>
-      </c>
-      <c r="I162" s="48" t="s">
+      <c r="D163" s="62" t="s">
         <v>655</v>
       </c>
-    </row>
-    <row r="163" spans="1:9" ht="50.25" customHeight="1">
-      <c r="A163" s="162">
+      <c r="E163" s="51" t="s">
+        <v>656</v>
+      </c>
+      <c r="F163" s="48" t="s">
+        <v>657</v>
+      </c>
+      <c r="G163" s="48"/>
+      <c r="H163" s="55" t="s">
+        <v>647</v>
+      </c>
+      <c r="I163" s="48" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="164" spans="1:9" ht="50.25" customHeight="1">
+      <c r="A164" s="160">
         <v>154</v>
       </c>
-      <c r="B163" s="120" t="s">
-        <v>656</v>
-      </c>
-      <c r="C163" s="48" t="s">
-        <v>657</v>
-      </c>
-      <c r="D163" s="62" t="s">
-        <v>658</v>
-      </c>
-      <c r="E163" s="48" t="s">
+      <c r="B164" s="118" t="s">
+        <v>659</v>
+      </c>
+      <c r="C164" s="48" t="s">
+        <v>660</v>
+      </c>
+      <c r="D164" s="62" t="s">
+        <v>661</v>
+      </c>
+      <c r="E164" s="48" t="s">
         <v>241</v>
       </c>
-      <c r="F163" s="48" t="s">
-        <v>645</v>
-      </c>
-      <c r="G163" s="48" t="s">
-        <v>553</v>
-      </c>
-      <c r="H163" s="48" t="s">
-        <v>656</v>
-      </c>
-      <c r="I163" s="48" t="s">
+      <c r="F164" s="48" t="s">
+        <v>648</v>
+      </c>
+      <c r="G164" s="48" t="s">
+        <v>556</v>
+      </c>
+      <c r="H164" s="48" t="s">
         <v>659</v>
       </c>
-    </row>
-    <row r="164" spans="1:9" ht="50.25" customHeight="1">
-      <c r="A164" s="162">
+      <c r="I164" s="48" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="165" spans="1:9" ht="50.25" customHeight="1">
+      <c r="A165" s="160">
         <v>155</v>
       </c>
-      <c r="B164" s="120" t="s">
-        <v>660</v>
-      </c>
-      <c r="C164" s="48"/>
-      <c r="D164" s="48" t="s">
-        <v>661</v>
-      </c>
-      <c r="E164" s="48"/>
-      <c r="F164" s="48"/>
-      <c r="G164" s="48"/>
-      <c r="H164" s="48" t="s">
-        <v>660</v>
-      </c>
-      <c r="I164" t="s">
-        <v>662</v>
-      </c>
-    </row>
-    <row r="165" spans="1:9" ht="50.25" customHeight="1">
-      <c r="A165" s="162">
-        <v>156</v>
-      </c>
-      <c r="B165" s="120" t="s">
+      <c r="B165" s="118" t="s">
         <v>663</v>
       </c>
-      <c r="C165" s="47" t="s">
-        <v>657</v>
-      </c>
+      <c r="C165" s="48"/>
       <c r="D165" s="48" t="s">
         <v>664</v>
       </c>
-      <c r="E165" s="47" t="s">
+      <c r="E165" s="48"/>
+      <c r="F165" s="48"/>
+      <c r="G165" s="48"/>
+      <c r="H165" s="48" t="s">
+        <v>663</v>
+      </c>
+      <c r="I165" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="166" spans="1:9" ht="50.25" customHeight="1">
+      <c r="A166" s="160">
+        <v>156</v>
+      </c>
+      <c r="B166" s="118" t="s">
+        <v>666</v>
+      </c>
+      <c r="C166" s="47" t="s">
+        <v>660</v>
+      </c>
+      <c r="D166" s="48" t="s">
+        <v>667</v>
+      </c>
+      <c r="E166" s="47" t="s">
         <v>241</v>
       </c>
-      <c r="F165" s="47" t="s">
-        <v>665</v>
-      </c>
-      <c r="G165" s="47"/>
-      <c r="H165" s="55" t="s">
-        <v>656</v>
-      </c>
-      <c r="I165" t="s">
-        <v>666</v>
-      </c>
-    </row>
-    <row r="166" spans="1:9" ht="50.25" customHeight="1">
-      <c r="A166" s="162">
-        <v>157</v>
-      </c>
-      <c r="B166" s="67" t="s">
-        <v>667</v>
-      </c>
-      <c r="C166" s="47"/>
-      <c r="D166" s="13" t="s">
+      <c r="F166" s="47" t="s">
         <v>668</v>
       </c>
-      <c r="E166" s="53"/>
-      <c r="F166" s="53"/>
-      <c r="G166" s="48"/>
-      <c r="H166" s="74" t="s">
-        <v>667</v>
+      <c r="G166" s="47"/>
+      <c r="H166" s="55" t="s">
+        <v>659</v>
       </c>
       <c r="I166" t="s">
         <v>669</v>
       </c>
     </row>
     <row r="167" spans="1:9" ht="50.25" customHeight="1">
-      <c r="A167" s="162">
-        <v>158</v>
+      <c r="A167" s="160">
+        <v>157</v>
       </c>
       <c r="B167" s="67" t="s">
         <v>670</v>
       </c>
-      <c r="C167" s="53" t="s">
-        <v>657</v>
-      </c>
-      <c r="D167" s="53" t="s">
+      <c r="C167" s="47"/>
+      <c r="D167" s="13" t="s">
         <v>671</v>
       </c>
-      <c r="E167" s="67" t="s">
+      <c r="E167" s="53"/>
+      <c r="F167" s="53"/>
+      <c r="G167" s="48"/>
+      <c r="H167" s="74" t="s">
+        <v>670</v>
+      </c>
+      <c r="I167" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="168" spans="1:9" ht="50.25" customHeight="1">
+      <c r="A168" s="160">
+        <v>158</v>
+      </c>
+      <c r="B168" s="67" t="s">
+        <v>673</v>
+      </c>
+      <c r="C168" s="53" t="s">
+        <v>660</v>
+      </c>
+      <c r="D168" s="53" t="s">
+        <v>674</v>
+      </c>
+      <c r="E168" s="67" t="s">
         <v>241</v>
       </c>
-      <c r="F167" s="68" t="s">
-        <v>672</v>
-      </c>
-      <c r="G167" s="52"/>
-      <c r="H167" s="57" t="s">
-        <v>644</v>
-      </c>
-      <c r="I167" s="48" t="s">
-        <v>673</v>
-      </c>
-    </row>
-    <row r="168" spans="1:9" ht="16.5">
-      <c r="A168" s="162">
+      <c r="F168" s="68" t="s">
+        <v>675</v>
+      </c>
+      <c r="G168" s="52"/>
+      <c r="H168" s="57" t="s">
+        <v>647</v>
+      </c>
+      <c r="I168" s="48" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="169" spans="1:9" ht="16.5">
+      <c r="A169" s="160">
         <v>159</v>
       </c>
-      <c r="B168" s="120" t="s">
-        <v>674</v>
-      </c>
-      <c r="C168" s="48" t="s">
-        <v>657</v>
-      </c>
-      <c r="D168" s="48" t="s">
-        <v>675</v>
-      </c>
-      <c r="E168" s="48" t="s">
+      <c r="B169" s="118" t="s">
+        <v>677</v>
+      </c>
+      <c r="C169" s="48" t="s">
+        <v>660</v>
+      </c>
+      <c r="D169" s="48" t="s">
+        <v>678</v>
+      </c>
+      <c r="E169" s="48" t="s">
         <v>241</v>
       </c>
-      <c r="F168" s="48" t="s">
-        <v>676</v>
-      </c>
-      <c r="G168" s="164"/>
-      <c r="H168" s="55" t="s">
-        <v>644</v>
-      </c>
-      <c r="I168" s="164" t="s">
-        <v>677</v>
-      </c>
-    </row>
-    <row r="169" spans="1:9" ht="16.5"/>
+      <c r="F169" s="48" t="s">
+        <v>679</v>
+      </c>
+      <c r="G169" s="162"/>
+      <c r="H169" s="55" t="s">
+        <v>647</v>
+      </c>
+      <c r="I169" s="162" t="s">
+        <v>680</v>
+      </c>
+    </row>
     <row r="170" spans="1:9" ht="16.5"/>
     <row r="171" spans="1:9" ht="16.5"/>
     <row r="172" spans="1:9" ht="16.5"/>
     <row r="173" spans="1:9" ht="16.5"/>
+    <row r="174" spans="1:9" ht="16.5"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Semi_F_GDCC/src/main/webapp/WEB-INF/F팀 인터페이스설계서.xlsx
+++ b/Semi_F_GDCC/src/main/webapp/WEB-INF/F팀 인터페이스설계서.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/5677259fca2c5981/문서/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EEC98B69-3789-42DE-AA6C-B41155E7B092}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{917EB82F-A1A3-4150-AB5A-510C7EDC846D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1054" uniqueCount="681">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1082" uniqueCount="698">
   <si>
     <t>인터페이스 설계서</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -266,21 +266,35 @@
     <t>비번 찾기 폼(고객 아이디,이름,전번 입력)</t>
   </si>
   <si>
-    <t>/customer/action/findPwAction.jsp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mail
+    <t>/customer/customerCheckAction.jsp</t>
+  </si>
+  <si>
+    <t>mail
 name
-contact
-</t>
+contact</t>
+  </si>
+  <si>
+    <t>String cusMail
+String cusName
+String cusContact</t>
+  </si>
+  <si>
+    <t>CustomerDAO.selectFindPw</t>
+  </si>
+  <si>
+    <t>/customer/action/customerResetPwAction.jsp</t>
+  </si>
+  <si>
+    <t>mail
+newPw</t>
   </si>
   <si>
     <t>String mail
-String name
-String contact</t>
-  </si>
-  <si>
-    <t>customerDAO#selectFindPw</t>
+String newPw</t>
+  </si>
+  <si>
+    <t>CustomerDAO.updatePw()
+CustomerDAO.update2Pw()</t>
   </si>
   <si>
     <t>/customer/findPwInfo.jsp</t>
@@ -536,6 +550,9 @@
     <t>/customer/hotelReviewOne.jsp</t>
   </si>
   <si>
+    <t>int rsvNo</t>
+  </si>
+  <si>
     <t>int reviewNo</t>
   </si>
   <si>
@@ -702,12 +719,30 @@
     <t>/customer/noticeList.jsp</t>
   </si>
   <si>
-    <t>noticeDAO#selectNotices</t>
+    <t>noticeDAO#selectNotice</t>
   </si>
   <si>
     <t>공지리스트</t>
   </si>
   <si>
+    <t>/customer/noticeOne,.jsp</t>
+  </si>
+  <si>
+    <t>int noticeNO</t>
+  </si>
+  <si>
+    <t>/customer/noticeOne.jsp</t>
+  </si>
+  <si>
+    <t>int noticeNo</t>
+  </si>
+  <si>
+    <t>noticeDAO#selectNoticeOne</t>
+  </si>
+  <si>
+    <t>공지상세보기</t>
+  </si>
+  <si>
     <t>/customer/roadMap</t>
   </si>
   <si>
@@ -739,9 +774,6 @@
   </si>
   <si>
     <t>/customer/golf/rsvGolfOne.jsp</t>
-  </si>
-  <si>
-    <t>int rsvNo</t>
   </si>
   <si>
     <t>rsvGolfDAO#selectRsvOne</t>
@@ -954,7 +986,7 @@
     <t>호텔 룸 상세정보 보기</t>
   </si>
   <si>
-    <t>60(나연주,반지현)</t>
+    <t>62(나연주,반지현)</t>
   </si>
   <si>
     <t>/customer/hotel/insertNewRsvForm.jsp</t>
@@ -1050,6 +1082,9 @@
     <t>/customer/hotel/rsvCancelAction.jsp</t>
   </si>
   <si>
+    <t>rsvHotelDAO#CancelcusRsv</t>
+  </si>
+  <si>
     <t>예약 취소 액션</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1069,10 +1104,6 @@
   </si>
   <si>
     <t>호텔 부가시설 설명 페이지(호텔 부가시설 이용방법)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/customer/hotelComplex/insertRsvForm.jsp</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1143,6 +1174,9 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>/customer/hotelComplex/cancelRsvForm.jsp</t>
+  </si>
+  <si>
     <t>/customer/hotelComplex/rsvCancelForm.jsp</t>
   </si>
   <si>
@@ -1150,7 +1184,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>/customer/hotelComplex/action/rsvCancelAction.jsp</t>
+    <t>/customer/hotelComplex/action/cancelRsvAction.jsp</t>
   </si>
   <si>
     <t>/customer/hotelComplex/rsvCancelAction.jsp</t>
@@ -1163,6 +1197,25 @@
   <si>
     <t>호텔 부가시설 취소  액션</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/customer/hotelComplex/checkRsvNo.jsp</t>
+  </si>
+  <si>
+    <t>예약하기 폼에서 예약번호 넘기기</t>
+  </si>
+  <si>
+    <t>/customer/hotelComplex/updateRsvDateCheck.jsp</t>
+  </si>
+  <si>
+    <t>/customer/hotelComplex/checkPlaceDate.jsp</t>
+  </si>
+  <si>
+    <t>int rsvPlace
+String rsvDate</t>
+  </si>
+  <si>
+    <t>가능한 시간대 찾기위해 날짜/장소 넘겨주기</t>
   </si>
   <si>
     <t>/customer/hotelComplex/action/rsvCancelCkPw.jsp</t>
@@ -1332,7 +1385,8 @@
     <t>/customer/hotelBf/action/updateRsvAction.jsp</t>
   </si>
   <si>
-    <t>int rsvNo
+    <t>int rsvBfno
+int rsvNo
 String rsvDate
 String rsvTime
 int rsvMember</t>
@@ -1557,7 +1611,7 @@
     <t>int adminNo</t>
   </si>
   <si>
-    <t>adminDAO#selectMyPage()</t>
+    <t>AdminDAO#selectMyPage()</t>
   </si>
   <si>
     <t>관리자 마이페이지</t>
@@ -1576,6 +1630,25 @@
   </si>
   <si>
     <t>관리자 마이페에지 수정폼</t>
+  </si>
+  <si>
+    <t>/admin/updatePwForm.jsp</t>
+  </si>
+  <si>
+    <t>String adminMail</t>
+  </si>
+  <si>
+    <t xml:space="preserve">관리자 비번 변경 폼 </t>
+  </si>
+  <si>
+    <t>/admin/action/updatePwAction.jsp</t>
+  </si>
+  <si>
+    <t>AdminDAO#insertNewPwHistory
+AdminDAO#updateResetPw</t>
+  </si>
+  <si>
+    <t xml:space="preserve">관리자 비번 전체 이력과 비교후 비번 변경 </t>
   </si>
   <si>
     <t>/admin/action/updateMyPageAction.jsp</t>
@@ -1618,15 +1691,17 @@
     <t>/admin/rsvHotelList.jsp</t>
   </si>
   <si>
-    <t>String category
+    <t>table</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
 String startRow 
 String rowPerPage</t>
   </si>
   <si>
-    <t xml:space="preserve">rsvHotelDAO#selectRsvHotel(),
-rsvComDAO#selectRsvCom()
-rsvHotelDAO#selectRsvBf()
-</t>
+    <t>RsvHotelDAO.rsvList()
+RsvComplexDAO.rsvList()
+RsvBfDAO.rsvList()</t>
   </si>
   <si>
     <t>ArrayList&lt;HashMap&lt;String,Obejct&gt;&gt;</t>
@@ -1641,7 +1716,7 @@
     <t>/admin/rsvGolfList.jsp</t>
   </si>
   <si>
-    <t>String category
+    <t xml:space="preserve">
 String startRow
 String rowPerPage</t>
   </si>
@@ -1718,15 +1793,16 @@
     <t>/admin/action/rsvHotelStateAction.jsp</t>
   </si>
   <si>
-    <t>String rsvState</t>
-  </si>
-  <si>
-    <t>rsvComno
+    <t>String rsvState
+int rsvNo</t>
+  </si>
+  <si>
+    <t>rsvNo
 rsvState</t>
   </si>
   <si>
     <t>rsvHotelDAO#
-updateRsvHotelOne()</t>
+updateRsvState()</t>
   </si>
   <si>
     <t xml:space="preserve">
@@ -1739,14 +1815,6 @@
     <t>/admin/action/rsvGolfStateAction.jsp</t>
   </si>
   <si>
-    <t>String rsvState
-int rsvNo</t>
-  </si>
-  <si>
-    <t>rsvNo
-rsvState</t>
-  </si>
-  <si>
     <t>rsvGofDAO#
 updateRsvGolfState()</t>
   </si>
@@ -1761,7 +1829,7 @@
   </si>
   <si>
     <t>rsvComDAO#
-updateRsvComOne()</t>
+updateRsvState()</t>
   </si>
   <si>
     <t>부대시설과, 조식 상태변경</t>
@@ -1886,18 +1954,13 @@
     <t>/admin/hotelReviewOne.jsp</t>
   </si>
   <si>
-    <t xml:space="preserve">reviewNo
-rsvNo
+    <t xml:space="preserve">rsvNo
 </t>
   </si>
   <si>
     <t>/admin/reviewHotelOne.jsp</t>
   </si>
   <si>
-    <t>int reviewNo
-int rsvNo</t>
-  </si>
-  <si>
     <t>reviewDAO#selectReviewOne()</t>
   </si>
   <si>
@@ -1907,7 +1970,7 @@
     <t>/admin/deleteHotelReviewForm.jsp</t>
   </si>
   <si>
-    <t>reviewNo</t>
+    <t>rsvNo</t>
   </si>
   <si>
     <t>호텔후기 삭제 폼</t>
@@ -1916,7 +1979,7 @@
     <t>/admin/action/deleteCkHotelReviewAction.jsp</t>
   </si>
   <si>
-    <t xml:space="preserve">reviewNo
+    <t xml:space="preserve">rsvNo
 adminMail, adminPw
 </t>
   </si>
@@ -1946,8 +2009,7 @@
     <t>/admin/reviewGolfList.jsp</t>
   </si>
   <si>
-    <t>int reviewNo
-int rsvNo
+    <t>int rsvNo
 String courseName</t>
   </si>
   <si>
@@ -1988,10 +2050,6 @@
   </si>
   <si>
     <t>골프후기 삭제 액션</t>
-  </si>
-  <si>
-    <t xml:space="preserve">126
-</t>
   </si>
   <si>
     <t>/admin/noticeList.jsp</t>
@@ -2049,9 +2107,6 @@
   </si>
   <si>
     <t>noticeOneForm.jsp</t>
-  </si>
-  <si>
-    <t>int noticeNo</t>
   </si>
   <si>
     <t>noticeDAO#selectNoticeOne()</t>
@@ -2241,6 +2296,21 @@
     <t>부대시설 수정액션</t>
   </si>
   <si>
+    <t>/admin/action/updateComplexStateAction.jsp</t>
+  </si>
+  <si>
+    <t>/admin/upadte/ComplexList.jsp</t>
+  </si>
+  <si>
+    <t>int comNo,  String complexState</t>
+  </si>
+  <si>
+    <t>complexDAO#updateComplexState()</t>
+  </si>
+  <si>
+    <t>부대시설 상태 수정 액션</t>
+  </si>
+  <si>
     <t>/admin/deleteComplexForm.jsp</t>
   </si>
   <si>
@@ -2409,27 +2479,6 @@
   </si>
   <si>
     <t>룸 수정 액션</t>
-  </si>
-  <si>
-    <t>/admin/action/deleteCkRoomForm.jsp</t>
-  </si>
-  <si>
-    <t>deleteCkRoomForm.jsp</t>
-  </si>
-  <si>
-    <t>룸 삭제 관리자확인폼</t>
-  </si>
-  <si>
-    <t>/admin/action/deleteCkRoomAction.jsp</t>
-  </si>
-  <si>
-    <t>deleteCkRoomAction.jsp</t>
-  </si>
-  <si>
-    <t>roomDAO#deleteRoom()</t>
-  </si>
-  <si>
-    <t>룸 삭제 액션</t>
   </si>
   <si>
     <t>/admin/action/updateStatection.jsp</t>
@@ -2448,7 +2497,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="28">
+  <fonts count="29">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2636,8 +2685,14 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="맑은 고딕"/>
+      <charset val="1"/>
+    </font>
   </fonts>
-  <fills count="14">
+  <fills count="16">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2716,8 +2771,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="28">
+  <borders count="26">
     <border>
       <left/>
       <right/>
@@ -2988,17 +3055,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right style="thin">
         <color rgb="FF000000"/>
@@ -3033,24 +3089,13 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="169">
+  <cellXfs count="168">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3207,12 +3252,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
@@ -3222,9 +3261,6 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -3252,13 +3288,10 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="18" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1">
@@ -3267,19 +3300,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
@@ -3498,9 +3525,6 @@
     <xf numFmtId="0" fontId="26" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="26" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3534,29 +3558,47 @@
     <xf numFmtId="0" fontId="26" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="3" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="2" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="5" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="3" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="2" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="5" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3844,13 +3886,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I174"/>
+  <dimension ref="A1:I175"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A163" zoomScale="72" zoomScaleNormal="72" workbookViewId="0">
-      <selection activeCell="B155" sqref="B155"/>
+    <sheetView tabSelected="1" topLeftCell="A168" zoomScale="72" zoomScaleNormal="72" workbookViewId="0">
+      <selection activeCell="A169" sqref="A169:A175"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="17.100000000000001"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="15.625" customWidth="1"/>
     <col min="2" max="2" width="45.125" customWidth="1"/>
@@ -3863,35 +3905,35 @@
     <col min="9" max="9" width="43.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" ht="17.100000000000001">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="90" t="s">
+      <c r="D1" s="84" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="83" t="s">
+      <c r="E1" s="77" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="84" t="s">
+      <c r="F1" s="78" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="85" t="s">
+      <c r="G1" s="79" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="86" t="s">
+      <c r="H1" s="80" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" ht="17.100000000000001">
       <c r="C2" s="24" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:9" ht="17.100000000000001">
       <c r="A3" s="1" t="s">
         <v>8</v>
       </c>
@@ -3921,10 +3963,10 @@
       </c>
     </row>
     <row r="4" spans="1:9" ht="50.25" customHeight="1">
-      <c r="A4" s="143">
+      <c r="A4" s="137">
         <v>1</v>
       </c>
-      <c r="B4" s="91" t="s">
+      <c r="B4" s="85" t="s">
         <v>17</v>
       </c>
       <c r="C4" s="3" t="s">
@@ -3944,10 +3986,10 @@
       </c>
     </row>
     <row r="5" spans="1:9" ht="50.25" customHeight="1">
-      <c r="A5" s="143">
+      <c r="A5" s="137">
         <v>2</v>
       </c>
-      <c r="B5" s="91" t="s">
+      <c r="B5" s="85" t="s">
         <v>20</v>
       </c>
       <c r="C5" s="39" t="s">
@@ -3973,14 +4015,14 @@
       </c>
     </row>
     <row r="6" spans="1:9" ht="50.25" customHeight="1">
-      <c r="A6" s="143">
+      <c r="A6" s="137">
         <v>3</v>
       </c>
-      <c r="B6" s="92" t="s">
+      <c r="B6" s="86" t="s">
         <v>28</v>
       </c>
       <c r="C6" s="3"/>
-      <c r="D6" s="93" t="s">
+      <c r="D6" s="87" t="s">
         <v>29</v>
       </c>
       <c r="E6" s="3"/>
@@ -3998,10 +4040,10 @@
       </c>
     </row>
     <row r="7" spans="1:9" ht="50.25" customHeight="1">
-      <c r="A7" s="143">
+      <c r="A7" s="137">
         <v>4</v>
       </c>
-      <c r="B7" s="91" t="s">
+      <c r="B7" s="85" t="s">
         <v>34</v>
       </c>
       <c r="D7" s="2" t="s">
@@ -4024,10 +4066,10 @@
       </c>
     </row>
     <row r="8" spans="1:9" ht="50.25" customHeight="1">
-      <c r="A8" s="143">
+      <c r="A8" s="137">
         <v>5</v>
       </c>
-      <c r="B8" s="91" t="s">
+      <c r="B8" s="85" t="s">
         <v>40</v>
       </c>
       <c r="C8" s="3"/>
@@ -4043,10 +4085,10 @@
       </c>
     </row>
     <row r="9" spans="1:9" ht="165">
-      <c r="A9" s="143">
+      <c r="A9" s="137">
         <v>6</v>
       </c>
-      <c r="B9" s="91" t="s">
+      <c r="B9" s="85" t="s">
         <v>42</v>
       </c>
       <c r="C9" s="3" t="s">
@@ -4070,10 +4112,10 @@
       </c>
     </row>
     <row r="10" spans="1:9" ht="50.25" customHeight="1">
-      <c r="A10" s="143">
+      <c r="A10" s="137">
         <v>7</v>
       </c>
-      <c r="B10" s="91" t="s">
+      <c r="B10" s="85" t="s">
         <v>48</v>
       </c>
       <c r="C10" s="3"/>
@@ -4089,10 +4131,10 @@
       </c>
     </row>
     <row r="11" spans="1:9" ht="50.25" customHeight="1">
-      <c r="A11" s="143">
+      <c r="A11" s="137">
         <v>8</v>
       </c>
-      <c r="B11" s="91" t="s">
+      <c r="B11" s="85" t="s">
         <v>50</v>
       </c>
       <c r="C11" s="3" t="s">
@@ -4118,10 +4160,10 @@
       </c>
     </row>
     <row r="12" spans="1:9" ht="50.25" customHeight="1">
-      <c r="A12" s="143">
+      <c r="A12" s="137">
         <v>9</v>
       </c>
-      <c r="B12" s="91" t="s">
+      <c r="B12" s="85" t="s">
         <v>58</v>
       </c>
       <c r="C12" s="3"/>
@@ -4137,17 +4179,17 @@
       </c>
     </row>
     <row r="13" spans="1:9" ht="50.25" customHeight="1">
-      <c r="A13" s="143">
+      <c r="A13" s="137">
         <v>10</v>
       </c>
-      <c r="B13" s="91" t="s">
+      <c r="B13" s="85" t="s">
         <v>60</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="D13" s="2" t="s">
-        <v>52</v>
+      <c r="D13" s="54" t="s">
+        <v>60</v>
       </c>
       <c r="E13" s="3" t="s">
         <v>62</v>
@@ -4155,65 +4197,59 @@
       <c r="F13" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="G13" s="2" t="s">
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
+    </row>
+    <row r="14" spans="1:9" ht="50.25" customHeight="1">
+      <c r="A14" s="137">
+        <v>11</v>
+      </c>
+      <c r="B14" s="85" t="s">
+        <v>64</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="G14" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="H13" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="I13" s="2"/>
-    </row>
-    <row r="14" spans="1:9" ht="50.25" customHeight="1">
-      <c r="A14" s="144">
-        <v>11</v>
-      </c>
-      <c r="B14" s="103" t="s">
-        <v>65</v>
-      </c>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
-      <c r="H14" s="2"/>
-      <c r="I14" s="2" t="s">
-        <v>66</v>
-      </c>
+      <c r="H14" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="I14" s="2"/>
     </row>
     <row r="15" spans="1:9" ht="50.25" customHeight="1">
-      <c r="A15" s="145">
+      <c r="A15" s="138">
         <v>12</v>
       </c>
-      <c r="B15" s="95" t="s">
-        <v>67</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="D15" s="14" t="s">
-        <v>67</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="F15" s="3" t="s">
+      <c r="B15" s="97" t="s">
         <v>69</v>
       </c>
-      <c r="G15" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="H15" s="2" t="s">
-        <v>67</v>
-      </c>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
       <c r="I15" s="2" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="50.25" customHeight="1">
-      <c r="A16" s="145">
+      <c r="A16" s="139">
         <v>13</v>
       </c>
-      <c r="B16" s="95" t="s">
+      <c r="B16" s="89" t="s">
         <v>71</v>
       </c>
       <c r="C16" s="3" t="s">
@@ -4226,481 +4262,481 @@
         <v>35</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="G16" s="19" t="s">
+        <v>73</v>
+      </c>
+      <c r="G16" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="H16" s="15" t="s">
+      <c r="H16" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="I16" s="2"/>
-    </row>
-    <row r="17" spans="1:9" ht="66">
-      <c r="A17" s="145">
+      <c r="I16" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="50.25" customHeight="1">
+      <c r="A17" s="139">
         <v>14</v>
       </c>
-      <c r="B17" s="95" t="s">
+      <c r="B17" s="89" t="s">
+        <v>75</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="D17" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F17" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="C17" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="D17" s="19" t="s">
-        <v>73</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="F17" s="3" t="s">
+      <c r="G17" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="H17" s="15" t="s">
         <v>75</v>
       </c>
-      <c r="G17" s="2"/>
-      <c r="H17" s="26" t="s">
-        <v>76</v>
-      </c>
       <c r="I17" s="2"/>
     </row>
-    <row r="18" spans="1:9" ht="50.25" customHeight="1">
-      <c r="A18" s="145">
+    <row r="18" spans="1:9" ht="66">
+      <c r="A18" s="139">
         <v>15</v>
       </c>
-      <c r="B18" s="95" t="s">
+      <c r="B18" s="89" t="s">
         <v>77</v>
       </c>
-      <c r="C18" s="3"/>
-      <c r="D18" s="14" t="s">
+      <c r="C18" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="D18" s="19" t="s">
         <v>77</v>
       </c>
-      <c r="E18" s="2"/>
-      <c r="F18" s="3"/>
+      <c r="E18" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>79</v>
+      </c>
       <c r="G18" s="2"/>
-      <c r="H18" s="15" t="s">
-        <v>77</v>
+      <c r="H18" s="26" t="s">
+        <v>80</v>
       </c>
       <c r="I18" s="2"/>
     </row>
     <row r="19" spans="1:9" ht="50.25" customHeight="1">
-      <c r="A19" s="145">
+      <c r="A19" s="139">
         <v>16</v>
       </c>
-      <c r="B19" s="95" t="s">
-        <v>78</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="D19" s="15" t="s">
-        <v>80</v>
-      </c>
-      <c r="E19" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="F19" s="3" t="s">
+      <c r="B19" s="89" t="s">
         <v>81</v>
       </c>
+      <c r="C19" s="3"/>
+      <c r="D19" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="E19" s="2"/>
+      <c r="F19" s="3"/>
       <c r="G19" s="2"/>
-      <c r="H19" s="2" t="s">
-        <v>67</v>
+      <c r="H19" s="15" t="s">
+        <v>81</v>
       </c>
       <c r="I19" s="2"/>
     </row>
     <row r="20" spans="1:9" ht="50.25" customHeight="1">
-      <c r="A20" s="145">
+      <c r="A20" s="139">
         <v>17</v>
       </c>
-      <c r="B20" s="95" t="s">
+      <c r="B20" s="89" t="s">
         <v>82</v>
       </c>
-      <c r="C20" s="3"/>
-      <c r="D20" s="14"/>
-      <c r="E20" s="2"/>
-      <c r="F20" s="3"/>
+      <c r="C20" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="D20" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>85</v>
+      </c>
       <c r="G20" s="2"/>
-      <c r="H20" s="19" t="s">
-        <v>82</v>
-      </c>
-      <c r="I20" s="2" t="s">
-        <v>83</v>
-      </c>
+      <c r="H20" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="I20" s="2"/>
     </row>
     <row r="21" spans="1:9" ht="50.25" customHeight="1">
-      <c r="A21" s="145">
+      <c r="A21" s="139">
         <v>18</v>
       </c>
-      <c r="B21" s="95" t="s">
-        <v>84</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="D21" s="16" t="s">
+      <c r="B21" s="89" t="s">
         <v>86</v>
       </c>
-      <c r="E21" s="2" t="s">
+      <c r="C21" s="3"/>
+      <c r="D21" s="14"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="2"/>
+      <c r="H21" s="19" t="s">
+        <v>86</v>
+      </c>
+      <c r="I21" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="F21" s="3" t="s">
+    </row>
+    <row r="22" spans="1:9" ht="50.25" customHeight="1">
+      <c r="A22" s="139">
+        <v>19</v>
+      </c>
+      <c r="B22" s="89" t="s">
         <v>88</v>
       </c>
-      <c r="G21" s="2" t="s">
+      <c r="C22" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="H21" s="15" t="s">
-        <v>65</v>
-      </c>
-      <c r="I21" s="2" t="s">
+      <c r="D22" s="16" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="22" spans="1:9" ht="50.25" customHeight="1">
-      <c r="A22" s="146">
-        <v>19</v>
-      </c>
-      <c r="B22" s="95" t="s">
+      <c r="E22" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="C22" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="D22" s="108" t="s">
-        <v>91</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="F22" s="81" t="s">
+      <c r="F22" s="3" t="s">
         <v>92</v>
       </c>
       <c r="G22" s="2" t="s">
         <v>93</v>
       </c>
       <c r="H22" s="15" t="s">
-        <v>91</v>
-      </c>
-      <c r="I22" s="99" t="s">
+        <v>69</v>
+      </c>
+      <c r="I22" s="2" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="50.25" customHeight="1">
-      <c r="A23" s="146">
+      <c r="A23" s="140">
         <v>20</v>
       </c>
-      <c r="B23" s="96" t="s">
+      <c r="B23" s="89" t="s">
         <v>95</v>
       </c>
-      <c r="C23" s="2" t="s">
+      <c r="C23" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="D23" s="109" t="s">
+      <c r="D23" s="102" t="s">
         <v>95</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="F23" s="2" t="s">
+      <c r="F23" s="75" t="s">
         <v>96</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="H23" s="20" t="s">
+        <v>97</v>
+      </c>
+      <c r="H23" s="15" t="s">
         <v>95</v>
       </c>
-      <c r="I23" s="100" t="s">
+      <c r="I23" s="93" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="50.25" customHeight="1">
+      <c r="A24" s="140">
+        <v>21</v>
+      </c>
+      <c r="B24" s="90" t="s">
+        <v>99</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D24" s="103" t="s">
+        <v>99</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="G24" s="2" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="24" spans="1:9" ht="50.25" customHeight="1">
-      <c r="A24" s="146">
-        <v>21</v>
-      </c>
-      <c r="B24" s="97" t="s">
-        <v>98</v>
-      </c>
-      <c r="C24" s="2" t="s">
+      <c r="H24" s="20" t="s">
         <v>99</v>
       </c>
-      <c r="D24" s="80" t="s">
-        <v>98</v>
-      </c>
-      <c r="E24" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="F24" s="2" t="s">
+      <c r="I24" s="94" t="s">
         <v>101</v>
       </c>
-      <c r="G24" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="H24" s="2" t="s">
+    </row>
+    <row r="25" spans="1:9" ht="50.25" customHeight="1">
+      <c r="A25" s="140">
+        <v>22</v>
+      </c>
+      <c r="B25" s="91" t="s">
         <v>102</v>
       </c>
-      <c r="I24" s="99" t="s">
+      <c r="C25" s="2" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="25" spans="1:9" ht="50.25" customHeight="1">
-      <c r="A25" s="146">
-        <v>22</v>
-      </c>
-      <c r="B25" s="97" t="s">
+      <c r="D25" s="74" t="s">
+        <v>102</v>
+      </c>
+      <c r="E25" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="C25" s="3"/>
-      <c r="D25" s="109" t="s">
-        <v>104</v>
-      </c>
-      <c r="E25" s="6"/>
-      <c r="F25" s="2"/>
-      <c r="G25" s="2"/>
-      <c r="H25" s="20" t="s">
-        <v>104</v>
-      </c>
-      <c r="I25" s="99" t="s">
+      <c r="F25" s="2" t="s">
         <v>105</v>
       </c>
+      <c r="G25" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="H25" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="I25" s="93" t="s">
+        <v>107</v>
+      </c>
     </row>
     <row r="26" spans="1:9" ht="50.25" customHeight="1">
-      <c r="A26" s="146">
+      <c r="A26" s="140">
         <v>23</v>
       </c>
-      <c r="B26" s="97" t="s">
+      <c r="B26" s="91" t="s">
+        <v>108</v>
+      </c>
+      <c r="C26" s="3"/>
+      <c r="D26" s="103" t="s">
+        <v>108</v>
+      </c>
+      <c r="E26" s="6"/>
+      <c r="F26" s="2"/>
+      <c r="G26" s="2"/>
+      <c r="H26" s="20" t="s">
+        <v>108</v>
+      </c>
+      <c r="I26" s="93" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" ht="50.25" customHeight="1">
+      <c r="A27" s="140">
+        <v>24</v>
+      </c>
+      <c r="B27" s="91" t="s">
+        <v>110</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="E27" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="G27" s="2"/>
+      <c r="H27" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="C26" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="D26" s="2" t="s">
+      <c r="I27" s="93" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" ht="50.25" customHeight="1">
+      <c r="A28" s="140">
+        <v>25</v>
+      </c>
+      <c r="B28" s="91" t="s">
+        <v>115</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="D28" s="20" t="s">
+        <v>115</v>
+      </c>
+      <c r="E28" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="H28" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="I28" s="93" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" ht="50.25" customHeight="1">
+      <c r="A29" s="141">
+        <v>26</v>
+      </c>
+      <c r="B29" s="91" t="s">
+        <v>120</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="E29" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="G29" s="2"/>
+      <c r="H29" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="E26" s="6" t="s">
-        <v>108</v>
-      </c>
-      <c r="F26" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="G26" s="2"/>
-      <c r="H26" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="I26" s="99" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" ht="50.25" customHeight="1">
-      <c r="A27" s="146">
-        <v>24</v>
-      </c>
-      <c r="B27" s="97" t="s">
-        <v>111</v>
-      </c>
-      <c r="C27" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="D27" s="20" t="s">
-        <v>111</v>
-      </c>
-      <c r="E27" s="6" t="s">
-        <v>113</v>
-      </c>
-      <c r="F27" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="G27" s="2" t="s">
+      <c r="I29" s="95" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" ht="50.25" customHeight="1">
+      <c r="A30" s="141">
+        <v>27</v>
+      </c>
+      <c r="B30" s="91" t="s">
+        <v>124</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D30" s="102" t="s">
+        <v>124</v>
+      </c>
+      <c r="E30" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="F30" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="G30" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="H27" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="I27" s="99" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" ht="50.25" customHeight="1">
-      <c r="A28" s="147">
-        <v>25</v>
-      </c>
-      <c r="B28" s="97" t="s">
-        <v>116</v>
-      </c>
-      <c r="C28" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="E28" s="6" t="s">
-        <v>113</v>
-      </c>
-      <c r="F28" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="G28" s="2"/>
-      <c r="H28" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="I28" s="101" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" ht="50.25" customHeight="1">
-      <c r="A29" s="147">
-        <v>26</v>
-      </c>
-      <c r="B29" s="97" t="s">
-        <v>120</v>
-      </c>
-      <c r="C29" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="D29" s="108" t="s">
-        <v>120</v>
-      </c>
-      <c r="E29" s="6" t="s">
-        <v>113</v>
-      </c>
-      <c r="F29" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="G29" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="H29" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="I29" s="99" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" ht="50.25" customHeight="1">
-      <c r="A30" s="147">
-        <v>27</v>
-      </c>
-      <c r="B30" s="97" t="s">
-        <v>124</v>
-      </c>
-      <c r="C30" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="E30" s="6" t="s">
-        <v>125</v>
-      </c>
-      <c r="F30" s="2" t="s">
+      <c r="H30" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="G30" s="79"/>
-      <c r="H30" s="104" t="s">
-        <v>111</v>
-      </c>
-      <c r="I30" s="99" t="s">
+      <c r="I30" s="93" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="50.25" customHeight="1">
-      <c r="A31" s="147">
+      <c r="A31" s="141">
         <v>28</v>
       </c>
-      <c r="B31" s="96" t="s">
+      <c r="B31" s="91" t="s">
         <v>128</v>
       </c>
-      <c r="C31" s="2" t="s">
+      <c r="C31" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="D31" s="78" t="s">
+      <c r="D31" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="E31" s="2"/>
+      <c r="E31" s="6" t="s">
+        <v>129</v>
+      </c>
       <c r="F31" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="G31" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="H31" s="20" t="s">
-        <v>128</v>
-      </c>
-      <c r="I31" s="102" t="s">
+      <c r="G31" s="73"/>
+      <c r="H31" s="98" t="s">
+        <v>115</v>
+      </c>
+      <c r="I31" s="93" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="50.25" customHeight="1">
-      <c r="A32" s="147">
+      <c r="A32" s="141">
         <v>29</v>
       </c>
-      <c r="B32" s="96" t="s">
+      <c r="B32" s="90" t="s">
         <v>132</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="D32" s="78" t="s">
+        <v>133</v>
+      </c>
+      <c r="D32" s="72" t="s">
         <v>132</v>
       </c>
       <c r="E32" s="2"/>
       <c r="F32" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="H32" s="20" t="s">
         <v>132</v>
       </c>
-      <c r="I32" s="102" t="s">
-        <v>134</v>
+      <c r="I32" s="96" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="50.25" customHeight="1">
-      <c r="A33" s="147">
+      <c r="A33" s="141">
         <v>30</v>
       </c>
-      <c r="B33" s="96" t="s">
-        <v>135</v>
-      </c>
-      <c r="C33" s="18" t="s">
+      <c r="B33" s="90" t="s">
         <v>136</v>
       </c>
-      <c r="D33" s="22" t="s">
-        <v>135</v>
-      </c>
-      <c r="E33" s="21" t="s">
+      <c r="C33" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="D33" s="72" t="s">
         <v>136</v>
       </c>
+      <c r="E33" s="2"/>
       <c r="F33" s="2" t="s">
         <v>137</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="H33" s="22" t="s">
-        <v>135</v>
-      </c>
-      <c r="I33" s="102" t="s">
+        <v>97</v>
+      </c>
+      <c r="H33" s="20" t="s">
+        <v>136</v>
+      </c>
+      <c r="I33" s="96" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="50.25" customHeight="1">
-      <c r="A34" s="147">
+      <c r="A34" s="141">
         <v>31</v>
       </c>
-      <c r="B34" s="96" t="s">
+      <c r="B34" s="90" t="s">
         <v>139</v>
       </c>
       <c r="C34" s="18" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="D34" s="22" t="s">
         <v>139</v>
       </c>
       <c r="E34" s="21" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="G34" s="2" t="s">
         <v>55</v>
@@ -4708,3434 +4744,3570 @@
       <c r="H34" s="22" t="s">
         <v>139</v>
       </c>
-      <c r="I34" s="102" t="s">
+      <c r="I34" s="96" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" ht="50.25" customHeight="1">
+      <c r="A35" s="141">
+        <v>32</v>
+      </c>
+      <c r="B35" s="90" t="s">
+        <v>144</v>
+      </c>
+      <c r="C35" s="18" t="s">
+        <v>140</v>
+      </c>
+      <c r="D35" s="22" t="s">
+        <v>144</v>
+      </c>
+      <c r="E35" s="21" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="35" spans="1:9" ht="60" customHeight="1">
-      <c r="A35" s="147">
-        <v>32</v>
-      </c>
-      <c r="B35" s="97" t="s">
-        <v>142</v>
-      </c>
-      <c r="C35" s="18"/>
-      <c r="D35" s="110" t="s">
-        <v>142</v>
-      </c>
-      <c r="E35" s="21"/>
-      <c r="F35" s="2"/>
-      <c r="G35" s="2"/>
-      <c r="H35" s="81" t="s">
-        <v>142</v>
-      </c>
-      <c r="I35" s="101" t="s">
-        <v>143</v>
+      <c r="F35" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="H35" s="22" t="s">
+        <v>144</v>
+      </c>
+      <c r="I35" s="96" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="36" spans="1:9" ht="60" customHeight="1">
-      <c r="A36" s="147">
+      <c r="A36" s="141">
         <v>33</v>
       </c>
-      <c r="B36" s="97" t="s">
-        <v>144</v>
+      <c r="B36" s="91" t="s">
+        <v>147</v>
       </c>
       <c r="C36" s="18"/>
-      <c r="D36" s="110" t="s">
-        <v>144</v>
+      <c r="D36" s="104" t="s">
+        <v>147</v>
       </c>
       <c r="E36" s="21"/>
       <c r="F36" s="2"/>
       <c r="G36" s="2"/>
-      <c r="H36" s="81" t="s">
-        <v>144</v>
-      </c>
-      <c r="I36" s="101" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" ht="66">
-      <c r="A37" s="147">
+      <c r="H36" s="75" t="s">
+        <v>147</v>
+      </c>
+      <c r="I36" s="95" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" ht="60" customHeight="1">
+      <c r="A37" s="141">
         <v>34</v>
       </c>
-      <c r="B37" s="97" t="s">
-        <v>146</v>
-      </c>
-      <c r="C37" s="12" t="s">
-        <v>147</v>
-      </c>
-      <c r="D37" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="E37" s="3" t="s">
-        <v>147</v>
-      </c>
-      <c r="F37" s="2" t="s">
-        <v>148</v>
-      </c>
+      <c r="B37" s="91" t="s">
+        <v>149</v>
+      </c>
+      <c r="C37" s="18"/>
+      <c r="D37" s="104" t="s">
+        <v>149</v>
+      </c>
+      <c r="E37" s="21"/>
+      <c r="F37" s="2"/>
       <c r="G37" s="2"/>
-      <c r="H37" s="104" t="s">
-        <v>95</v>
-      </c>
-      <c r="I37" s="101" t="s">
+      <c r="H37" s="75" t="s">
         <v>149</v>
       </c>
+      <c r="I37" s="95" t="s">
+        <v>150</v>
+      </c>
     </row>
     <row r="38" spans="1:9" ht="66">
-      <c r="A38" s="147">
+      <c r="A38" s="141">
         <v>35</v>
       </c>
-      <c r="B38" s="97" t="s">
-        <v>150</v>
+      <c r="B38" s="91" t="s">
+        <v>151</v>
       </c>
       <c r="C38" s="12" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="G38" s="2"/>
-      <c r="H38" s="104" t="s">
-        <v>95</v>
-      </c>
-      <c r="I38" s="101" t="s">
+      <c r="H38" s="98" t="s">
+        <v>99</v>
+      </c>
+      <c r="I38" s="95" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" ht="66">
+      <c r="A39" s="141">
+        <v>36</v>
+      </c>
+      <c r="B39" s="91" t="s">
+        <v>155</v>
+      </c>
+      <c r="C39" s="12" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="39" spans="1:9" ht="50.25" customHeight="1">
-      <c r="A39" s="147">
-        <v>36</v>
-      </c>
-      <c r="B39" s="96" t="s">
-        <v>153</v>
-      </c>
-      <c r="C39" s="18" t="s">
-        <v>136</v>
-      </c>
-      <c r="D39" s="20" t="s">
-        <v>153</v>
-      </c>
-      <c r="E39" s="2" t="s">
-        <v>136</v>
+      <c r="D39" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="E39" s="3" t="s">
+        <v>152</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="G39" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="H39" s="81" t="s">
-        <v>153</v>
-      </c>
-      <c r="I39" s="87" t="s">
-        <v>154</v>
+        <v>156</v>
+      </c>
+      <c r="G39" s="2"/>
+      <c r="H39" s="98" t="s">
+        <v>99</v>
+      </c>
+      <c r="I39" s="95" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="40" spans="1:9" ht="50.25" customHeight="1">
-      <c r="A40" s="147">
+      <c r="A40" s="141">
         <v>37</v>
       </c>
-      <c r="B40" s="96" t="s">
-        <v>155</v>
+      <c r="B40" s="90" t="s">
+        <v>158</v>
       </c>
       <c r="C40" s="18" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="D40" s="20" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="G40" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="H40" s="81" t="s">
-        <v>155</v>
-      </c>
-      <c r="I40" s="87" t="s">
-        <v>156</v>
+      <c r="H40" s="75" t="s">
+        <v>158</v>
+      </c>
+      <c r="I40" s="81" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="41" spans="1:9" ht="50.25" customHeight="1">
-      <c r="A41" s="147">
+      <c r="A41" s="141">
         <v>38</v>
       </c>
-      <c r="B41" s="113" t="s">
-        <v>157</v>
-      </c>
-      <c r="C41" s="3" t="s">
-        <v>158</v>
+      <c r="B41" s="90" t="s">
+        <v>160</v>
+      </c>
+      <c r="C41" s="18" t="s">
+        <v>140</v>
       </c>
       <c r="D41" s="20" t="s">
-        <v>159</v>
-      </c>
-      <c r="E41" s="3" t="s">
-        <v>158</v>
+        <v>160</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>140</v>
       </c>
       <c r="F41" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="G41" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="H41" s="75" t="s">
         <v>160</v>
       </c>
-      <c r="G41" s="2"/>
-      <c r="H41" s="104" t="s">
-        <v>95</v>
-      </c>
-      <c r="I41" s="87" t="s">
+      <c r="I41" s="81" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="42" spans="1:9" ht="50.25" customHeight="1">
-      <c r="A42" s="147">
+      <c r="A42" s="141">
         <v>39</v>
       </c>
-      <c r="B42" s="113" t="s">
+      <c r="B42" s="107" t="s">
         <v>162</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="D42" s="20" t="s">
+        <v>164</v>
+      </c>
+      <c r="E42" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="E42" s="3" t="s">
-        <v>158</v>
-      </c>
       <c r="F42" s="2" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="G42" s="2"/>
-      <c r="H42" s="104" t="s">
-        <v>95</v>
-      </c>
-      <c r="I42" s="87" t="s">
-        <v>165</v>
+      <c r="H42" s="98" t="s">
+        <v>99</v>
+      </c>
+      <c r="I42" s="81" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="43" spans="1:9" ht="50.25" customHeight="1">
-      <c r="A43" s="147">
+      <c r="A43" s="141">
         <v>40</v>
       </c>
-      <c r="B43" s="113" t="s">
-        <v>166</v>
-      </c>
-      <c r="C43" s="2" t="s">
-        <v>136</v>
+      <c r="B43" s="107" t="s">
+        <v>167</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>163</v>
       </c>
       <c r="D43" s="20" t="s">
-        <v>167</v>
-      </c>
-      <c r="E43" s="2" t="s">
-        <v>136</v>
+        <v>168</v>
+      </c>
+      <c r="E43" s="3" t="s">
+        <v>163</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="G43" s="2"/>
-      <c r="H43" s="114" t="s">
-        <v>169</v>
-      </c>
-      <c r="I43" s="87" t="s">
+      <c r="H43" s="98" t="s">
+        <v>99</v>
+      </c>
+      <c r="I43" s="81" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="44" spans="1:9" ht="50.25" customHeight="1">
-      <c r="A44" s="147">
+      <c r="A44" s="141">
         <v>41</v>
       </c>
-      <c r="B44" s="113" t="s">
+      <c r="B44" s="107" t="s">
         <v>171</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="D44" s="20" t="s">
         <v>172</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>173</v>
       </c>
       <c r="G44" s="2"/>
-      <c r="H44" s="114" t="s">
+      <c r="H44" s="108" t="s">
         <v>174</v>
       </c>
-      <c r="I44" s="87" t="s">
+      <c r="I44" s="81" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="45" spans="1:9" ht="50.25" customHeight="1">
-      <c r="A45" s="148">
+      <c r="A45" s="141">
         <v>42</v>
       </c>
-      <c r="B45" s="10" t="s">
+      <c r="B45" s="107" t="s">
         <v>176</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="D45" s="11" t="s">
-        <v>176</v>
-      </c>
-      <c r="E45" s="3" t="s">
-        <v>100</v>
+        <v>140</v>
+      </c>
+      <c r="D45" s="20" t="s">
+        <v>177</v>
+      </c>
+      <c r="E45" s="2" t="s">
+        <v>140</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="G45" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="H45" s="11" t="s">
-        <v>176</v>
-      </c>
-      <c r="I45" s="2" t="s">
         <v>178</v>
       </c>
+      <c r="G45" s="2"/>
+      <c r="H45" s="108" t="s">
+        <v>179</v>
+      </c>
+      <c r="I45" s="81" t="s">
+        <v>180</v>
+      </c>
     </row>
     <row r="46" spans="1:9" ht="50.25" customHeight="1">
-      <c r="A46" s="144">
+      <c r="A46" s="142">
         <v>43</v>
       </c>
-      <c r="B46" s="10" t="s">
-        <v>179</v>
-      </c>
-      <c r="C46" s="2"/>
-      <c r="D46" s="11"/>
-      <c r="E46" s="3"/>
-      <c r="F46" s="2"/>
-      <c r="G46" s="2"/>
-      <c r="H46" s="2" t="s">
-        <v>179</v>
+      <c r="B46" s="99" t="s">
+        <v>181</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="D46" s="11" t="s">
+        <v>181</v>
+      </c>
+      <c r="E46" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="F46" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="G46" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="H46" s="11" t="s">
+        <v>181</v>
       </c>
       <c r="I46" s="2" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
     </row>
     <row r="47" spans="1:9" ht="50.25" customHeight="1">
-      <c r="A47" s="145">
+      <c r="A47" s="142">
         <v>44</v>
       </c>
-      <c r="B47" s="105" t="s">
-        <v>181</v>
+      <c r="B47" s="99" t="s">
+        <v>184</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="D47" s="36" t="s">
-        <v>181</v>
+        <v>185</v>
+      </c>
+      <c r="D47" s="11" t="s">
+        <v>186</v>
       </c>
       <c r="E47" s="3" t="s">
-        <v>100</v>
+        <v>187</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>93</v>
+        <v>55</v>
       </c>
       <c r="H47" s="11" t="s">
         <v>181</v>
       </c>
       <c r="I47" s="2" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
     </row>
     <row r="48" spans="1:9" ht="50.25" customHeight="1">
-      <c r="A48" s="149">
+      <c r="A48" s="142">
         <v>45</v>
       </c>
-      <c r="B48" s="11" t="s">
-        <v>185</v>
-      </c>
-      <c r="C48" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="D48" s="36" t="s">
-        <v>185</v>
-      </c>
-      <c r="E48" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="F48" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="G48" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="H48" s="11" t="s">
-        <v>185</v>
+      <c r="B48" s="99" t="s">
+        <v>190</v>
+      </c>
+      <c r="C48" s="2"/>
+      <c r="D48" s="11"/>
+      <c r="E48" s="3"/>
+      <c r="F48" s="2"/>
+      <c r="G48" s="2"/>
+      <c r="H48" s="2" t="s">
+        <v>190</v>
       </c>
       <c r="I48" s="2" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
     </row>
     <row r="49" spans="1:9" ht="50.25" customHeight="1">
-      <c r="A49" s="145">
+      <c r="A49" s="139">
         <v>46</v>
       </c>
-      <c r="B49" s="106" t="s">
-        <v>189</v>
+      <c r="B49" s="99" t="s">
+        <v>192</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="D49" s="36" t="s">
-        <v>189</v>
-      </c>
-      <c r="E49" s="2" t="s">
-        <v>190</v>
+        <v>192</v>
+      </c>
+      <c r="E49" s="3" t="s">
+        <v>104</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="G49" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="H49" s="11" t="s">
+        <v>192</v>
+      </c>
+      <c r="I49" s="2" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" ht="50.25" customHeight="1">
+      <c r="A50" s="142">
+        <v>47</v>
+      </c>
+      <c r="B50" s="100" t="s">
+        <v>196</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="D50" s="36" t="s">
+        <v>196</v>
+      </c>
+      <c r="E50" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="F50" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="G50" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="H50" s="11" t="s">
+        <v>196</v>
+      </c>
+      <c r="I50" s="2" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" ht="50.25" customHeight="1">
+      <c r="A51" s="139">
+        <v>48</v>
+      </c>
+      <c r="B51" s="100" t="s">
+        <v>200</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="D51" s="36" t="s">
+        <v>200</v>
+      </c>
+      <c r="E51" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="F51" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="G51" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="H49" s="11" t="s">
-        <v>189</v>
-      </c>
-      <c r="I49" s="2" t="s">
+      <c r="H51" s="11" t="s">
+        <v>200</v>
+      </c>
+      <c r="I51" s="2" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" ht="50.25" customHeight="1">
+      <c r="A52" s="142">
+        <v>49</v>
+      </c>
+      <c r="B52" s="100" t="s">
+        <v>203</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="D52" s="36" t="s">
+        <v>203</v>
+      </c>
+      <c r="E52" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="F52" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="G52" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="H52" s="11" t="s">
+        <v>203</v>
+      </c>
+      <c r="I52" s="2"/>
+    </row>
+    <row r="53" spans="1:9" ht="50.25" customHeight="1">
+      <c r="A53" s="139">
+        <v>50</v>
+      </c>
+      <c r="B53" s="101" t="s">
+        <v>205</v>
+      </c>
+      <c r="C53" s="9"/>
+      <c r="D53" s="2"/>
+      <c r="E53" s="3"/>
+      <c r="F53" s="2"/>
+      <c r="G53" s="2"/>
+      <c r="H53" s="10" t="s">
+        <v>205</v>
+      </c>
+      <c r="I53" s="3" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" ht="50.25" customHeight="1">
+      <c r="A54" s="139">
+        <v>51</v>
+      </c>
+      <c r="B54" s="111" t="s">
+        <v>207</v>
+      </c>
+      <c r="C54" s="9"/>
+      <c r="D54" s="35" t="s">
+        <v>208</v>
+      </c>
+      <c r="E54" s="3"/>
+      <c r="F54" s="2"/>
+      <c r="G54" s="2"/>
+      <c r="H54" s="11" t="s">
+        <v>208</v>
+      </c>
+      <c r="I54" s="3" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" ht="50.25" customHeight="1">
+      <c r="A55" s="139">
+        <v>52</v>
+      </c>
+      <c r="B55" s="111" t="s">
+        <v>210</v>
+      </c>
+      <c r="C55" s="9" t="s">
+        <v>211</v>
+      </c>
+      <c r="D55" s="101" t="s">
+        <v>210</v>
+      </c>
+      <c r="E55" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="F55" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="G55" s="2"/>
+      <c r="H55" s="30" t="s">
+        <v>208</v>
+      </c>
+      <c r="I55" s="3" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" ht="99">
+      <c r="A56" s="139">
+        <v>53</v>
+      </c>
+      <c r="B56" s="106" t="s">
+        <v>215</v>
+      </c>
+      <c r="C56" s="17" t="s">
+        <v>216</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="E56" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="F56" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="G56" s="2"/>
+      <c r="H56" s="27" t="s">
+        <v>220</v>
+      </c>
+      <c r="I56" s="2" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" ht="50.25" customHeight="1">
+      <c r="A57" s="139">
+        <v>54</v>
+      </c>
+      <c r="B57" s="106" t="s">
+        <v>222</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="D57" s="36" t="s">
+        <v>222</v>
+      </c>
+      <c r="E57" s="2"/>
+      <c r="F57" s="2"/>
+      <c r="G57" s="2"/>
+      <c r="H57" s="2"/>
+      <c r="I57" s="2" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" ht="50.25" customHeight="1">
+      <c r="A58" s="139">
+        <v>55</v>
+      </c>
+      <c r="B58" s="106" t="s">
+        <v>224</v>
+      </c>
+      <c r="C58" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="D58" s="116"/>
+      <c r="E58" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="F58" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="G58" s="2"/>
+      <c r="H58" s="117" t="s">
+        <v>226</v>
+      </c>
+      <c r="I58" s="2"/>
+    </row>
+    <row r="59" spans="1:9" ht="82.5">
+      <c r="A59" s="139">
+        <v>56</v>
+      </c>
+      <c r="B59" s="106" t="s">
+        <v>227</v>
+      </c>
+      <c r="C59" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="E59" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="F59" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="G59" s="2"/>
+      <c r="H59" s="28" t="s">
+        <v>231</v>
+      </c>
+      <c r="I59" s="2" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" ht="50.25" customHeight="1">
+      <c r="A60" s="139">
+        <v>57</v>
+      </c>
+      <c r="B60" s="106" t="s">
+        <v>233</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="D60" s="36" t="s">
+        <v>233</v>
+      </c>
+      <c r="E60" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="F60" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="G60" s="2"/>
+      <c r="H60" s="2"/>
+      <c r="I60" s="2" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" ht="50.25" customHeight="1">
+      <c r="A61" s="139">
+        <v>58</v>
+      </c>
+      <c r="B61" s="120" t="s">
+        <v>235</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="D61" s="11" t="s">
+        <v>235</v>
+      </c>
+      <c r="E61" s="118" t="s">
+        <v>236</v>
+      </c>
+      <c r="F61" s="119" t="s">
+        <v>237</v>
+      </c>
+      <c r="G61" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="H61" s="2"/>
+      <c r="I61" s="2" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" ht="50.25" customHeight="1">
+      <c r="A62" s="139">
+        <v>59</v>
+      </c>
+      <c r="B62" s="106" t="s">
+        <v>240</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="D62" s="11" t="s">
+        <v>242</v>
+      </c>
+      <c r="E62" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="F62" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="G62" s="2"/>
+      <c r="H62" s="29" t="s">
         <v>192</v>
       </c>
-    </row>
-    <row r="50" spans="1:9" ht="50.25" customHeight="1">
-      <c r="A50" s="149">
-        <v>47</v>
-      </c>
-      <c r="B50" s="11" t="s">
-        <v>193</v>
-      </c>
-      <c r="C50" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="D50" s="36" t="s">
-        <v>193</v>
-      </c>
-      <c r="E50" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="F50" s="2" t="s">
-        <v>194</v>
-      </c>
-      <c r="G50" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="H50" s="11" t="s">
-        <v>193</v>
-      </c>
-      <c r="I50" s="2"/>
-    </row>
-    <row r="51" spans="1:9" ht="50.25" customHeight="1">
-      <c r="A51" s="145">
-        <v>48</v>
-      </c>
-      <c r="B51" s="107" t="s">
-        <v>195</v>
-      </c>
-      <c r="C51" s="9"/>
-      <c r="D51" s="2"/>
-      <c r="E51" s="3"/>
-      <c r="F51" s="2"/>
-      <c r="G51" s="2"/>
-      <c r="H51" s="10" t="s">
-        <v>195</v>
-      </c>
-      <c r="I51" s="3" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9" ht="50.25" customHeight="1">
-      <c r="A52" s="145">
-        <v>49</v>
-      </c>
-      <c r="B52" s="117" t="s">
-        <v>197</v>
-      </c>
-      <c r="C52" s="9"/>
-      <c r="D52" s="35" t="s">
-        <v>198</v>
-      </c>
-      <c r="E52" s="3"/>
-      <c r="F52" s="2"/>
-      <c r="G52" s="2"/>
-      <c r="H52" s="11" t="s">
-        <v>198</v>
-      </c>
-      <c r="I52" s="3" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9" ht="50.25" customHeight="1">
-      <c r="A53" s="145">
-        <v>50</v>
-      </c>
-      <c r="B53" s="117" t="s">
-        <v>200</v>
-      </c>
-      <c r="C53" s="9" t="s">
-        <v>201</v>
-      </c>
-      <c r="D53" s="107" t="s">
-        <v>200</v>
-      </c>
-      <c r="E53" s="3" t="s">
-        <v>202</v>
-      </c>
-      <c r="F53" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="G53" s="2"/>
-      <c r="H53" s="30" t="s">
-        <v>198</v>
-      </c>
-      <c r="I53" s="3" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9" ht="99">
-      <c r="A54" s="145">
-        <v>51</v>
-      </c>
-      <c r="B54" s="112" t="s">
-        <v>205</v>
-      </c>
-      <c r="C54" s="17" t="s">
-        <v>206</v>
-      </c>
-      <c r="D54" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="E54" s="3" t="s">
-        <v>208</v>
-      </c>
-      <c r="F54" s="2" t="s">
-        <v>209</v>
-      </c>
-      <c r="G54" s="2"/>
-      <c r="H54" s="27" t="s">
-        <v>210</v>
-      </c>
-      <c r="I54" s="2" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9" ht="50.25" customHeight="1">
-      <c r="A55" s="145">
-        <v>52</v>
-      </c>
-      <c r="B55" s="112" t="s">
-        <v>212</v>
-      </c>
-      <c r="C55" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="D55" s="36" t="s">
-        <v>212</v>
-      </c>
-      <c r="E55" s="2"/>
-      <c r="F55" s="2"/>
-      <c r="G55" s="2"/>
-      <c r="H55" s="2"/>
-      <c r="I55" s="2" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9" ht="50.25" customHeight="1">
-      <c r="A56" s="145">
-        <v>53</v>
-      </c>
-      <c r="B56" s="112" t="s">
-        <v>214</v>
-      </c>
-      <c r="C56" s="3" t="s">
-        <v>215</v>
-      </c>
-      <c r="D56" s="122"/>
-      <c r="E56" s="3" t="s">
-        <v>201</v>
-      </c>
-      <c r="F56" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="G56" s="2"/>
-      <c r="H56" s="123" t="s">
-        <v>216</v>
-      </c>
-      <c r="I56" s="2"/>
-    </row>
-    <row r="57" spans="1:9" ht="82.5">
-      <c r="A57" s="145">
-        <v>54</v>
-      </c>
-      <c r="B57" s="112" t="s">
-        <v>217</v>
-      </c>
-      <c r="C57" s="3" t="s">
-        <v>218</v>
-      </c>
-      <c r="D57" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="E57" s="3" t="s">
-        <v>218</v>
-      </c>
-      <c r="F57" s="2" t="s">
-        <v>220</v>
-      </c>
-      <c r="G57" s="2"/>
-      <c r="H57" s="28" t="s">
-        <v>221</v>
-      </c>
-      <c r="I57" s="2" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9" ht="50.25" customHeight="1">
-      <c r="A58" s="145">
-        <v>55</v>
-      </c>
-      <c r="B58" s="112" t="s">
-        <v>223</v>
-      </c>
-      <c r="C58" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="D58" s="36" t="s">
-        <v>223</v>
-      </c>
-      <c r="E58" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="F58" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="G58" s="2"/>
-      <c r="H58" s="2"/>
-      <c r="I58" s="2" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9" ht="50.25" customHeight="1">
-      <c r="A59" s="145">
-        <v>56</v>
-      </c>
-      <c r="B59" s="126" t="s">
-        <v>225</v>
-      </c>
-      <c r="C59" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="D59" s="11" t="s">
-        <v>225</v>
-      </c>
-      <c r="E59" s="124" t="s">
-        <v>226</v>
-      </c>
-      <c r="F59" s="125" t="s">
-        <v>227</v>
-      </c>
-      <c r="G59" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="H59" s="2"/>
-      <c r="I59" s="2" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9" ht="50.25" customHeight="1">
-      <c r="A60" s="145">
-        <v>57</v>
-      </c>
-      <c r="B60" s="112" t="s">
-        <v>230</v>
-      </c>
-      <c r="C60" s="2" t="s">
-        <v>231</v>
-      </c>
-      <c r="D60" s="11" t="s">
-        <v>232</v>
-      </c>
-      <c r="E60" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="F60" s="2" t="s">
-        <v>233</v>
-      </c>
-      <c r="G60" s="2"/>
-      <c r="H60" s="29" t="s">
-        <v>181</v>
-      </c>
-      <c r="I60" s="2"/>
-    </row>
-    <row r="61" spans="1:9" ht="50.25" customHeight="1">
-      <c r="A61" s="144"/>
-      <c r="B61" s="10" t="s">
-        <v>234</v>
-      </c>
-      <c r="C61" s="2"/>
-      <c r="D61" s="11"/>
-      <c r="E61" s="2"/>
-      <c r="F61" s="2"/>
-      <c r="G61" s="2"/>
-      <c r="H61" s="2"/>
-      <c r="I61" s="2"/>
-    </row>
-    <row r="62" spans="1:9" ht="50.25" customHeight="1">
-      <c r="A62" s="150">
-        <v>58</v>
-      </c>
-      <c r="B62" s="10" t="s">
-        <v>235</v>
-      </c>
-      <c r="C62" s="2" t="s">
-        <v>236</v>
-      </c>
-      <c r="D62" s="11" t="s">
-        <v>235</v>
-      </c>
-      <c r="E62" s="3" t="s">
-        <v>237</v>
-      </c>
-      <c r="F62" s="2" t="s">
-        <v>238</v>
-      </c>
-      <c r="G62" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="H62" s="11" t="s">
-        <v>235</v>
-      </c>
-      <c r="I62" s="2" t="s">
-        <v>239</v>
-      </c>
+      <c r="I62" s="2"/>
     </row>
     <row r="63" spans="1:9" ht="50.25" customHeight="1">
-      <c r="A63" s="148">
-        <v>59</v>
-      </c>
+      <c r="A63" s="138"/>
       <c r="B63" s="10" t="s">
-        <v>240</v>
-      </c>
-      <c r="C63" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="D63" s="2" t="s">
-        <v>240</v>
-      </c>
-      <c r="E63" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="F63" s="2" t="s">
-        <v>242</v>
-      </c>
-      <c r="G63" s="2" t="s">
-        <v>243</v>
-      </c>
-      <c r="H63" s="11" t="s">
-        <v>240</v>
-      </c>
-      <c r="I63" s="2" t="s">
         <v>244</v>
       </c>
+      <c r="C63" s="2"/>
+      <c r="D63" s="11"/>
+      <c r="E63" s="2"/>
+      <c r="F63" s="2"/>
+      <c r="G63" s="2"/>
+      <c r="H63" s="2"/>
+      <c r="I63" s="2"/>
     </row>
     <row r="64" spans="1:9" ht="50.25" customHeight="1">
-      <c r="A64" s="153" t="s">
+      <c r="A64" s="143">
+        <v>60</v>
+      </c>
+      <c r="B64" s="99" t="s">
         <v>245</v>
       </c>
-      <c r="B64" s="11" t="s">
+      <c r="C64" s="2" t="s">
         <v>246</v>
       </c>
-      <c r="C64" s="17"/>
-      <c r="D64" s="36" t="s">
-        <v>246</v>
-      </c>
-      <c r="E64" s="3"/>
-      <c r="F64" s="2"/>
-      <c r="G64" s="2"/>
-      <c r="H64" s="2"/>
-      <c r="I64" s="3" t="s">
+      <c r="D64" s="11" t="s">
+        <v>245</v>
+      </c>
+      <c r="E64" s="3" t="s">
         <v>247</v>
       </c>
-    </row>
-    <row r="65" spans="1:9" ht="99">
-      <c r="A65" s="153">
+      <c r="F64" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="G64" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="H64" s="11" t="s">
+        <v>245</v>
+      </c>
+      <c r="I64" s="2" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" ht="50.25" customHeight="1">
+      <c r="A65" s="142">
         <v>61</v>
       </c>
-      <c r="B65" s="11" t="s">
-        <v>248</v>
-      </c>
-      <c r="C65" s="17" t="s">
-        <v>249</v>
+      <c r="B65" s="99" t="s">
+        <v>250</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>251</v>
       </c>
       <c r="D65" s="2" t="s">
         <v>250</v>
       </c>
-      <c r="E65" s="3" t="s">
+      <c r="E65" s="2" t="s">
         <v>251</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>252</v>
       </c>
-      <c r="G65" s="2"/>
-      <c r="H65" s="27" t="s">
+      <c r="G65" s="2" t="s">
         <v>253</v>
       </c>
+      <c r="H65" s="11" t="s">
+        <v>250</v>
+      </c>
       <c r="I65" s="2" t="s">
-        <v>211</v>
+        <v>254</v>
       </c>
     </row>
     <row r="66" spans="1:9" ht="50.25" customHeight="1">
-      <c r="A66" s="153">
-        <v>62</v>
-      </c>
-      <c r="B66" s="11" t="s">
-        <v>254</v>
-      </c>
-      <c r="C66" s="3" t="s">
-        <v>241</v>
-      </c>
+      <c r="A66" s="146" t="s">
+        <v>255</v>
+      </c>
+      <c r="B66" s="100" t="s">
+        <v>256</v>
+      </c>
+      <c r="C66" s="17"/>
       <c r="D66" s="36" t="s">
-        <v>254</v>
-      </c>
-      <c r="E66" s="2"/>
+        <v>256</v>
+      </c>
+      <c r="E66" s="3"/>
       <c r="F66" s="2"/>
       <c r="G66" s="2"/>
       <c r="H66" s="2"/>
-      <c r="I66" s="2" t="s">
-        <v>213</v>
+      <c r="I66" s="3" t="s">
+        <v>257</v>
       </c>
     </row>
     <row r="67" spans="1:9" ht="99">
-      <c r="A67" s="153">
+      <c r="A67" s="146">
         <v>63</v>
       </c>
-      <c r="B67" s="11" t="s">
-        <v>255</v>
-      </c>
-      <c r="C67" s="3" t="s">
-        <v>256</v>
+      <c r="B67" s="100" t="s">
+        <v>258</v>
+      </c>
+      <c r="C67" s="17" t="s">
+        <v>259</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="E67" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="F67" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="G67" s="2"/>
+      <c r="H67" s="27" t="s">
+        <v>263</v>
+      </c>
+      <c r="I67" s="2" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" ht="50.25" customHeight="1">
+      <c r="A68" s="146">
+        <v>64</v>
+      </c>
+      <c r="B68" s="100" t="s">
+        <v>264</v>
+      </c>
+      <c r="C68" s="3" t="s">
         <v>251</v>
       </c>
-      <c r="F67" s="23" t="s">
-        <v>258</v>
-      </c>
-      <c r="G67" s="2"/>
-      <c r="H67" s="30" t="s">
-        <v>193</v>
-      </c>
-      <c r="I67" s="2" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9" ht="50.25" customHeight="1">
-      <c r="A68" s="153">
-        <v>64</v>
-      </c>
-      <c r="B68" s="11" t="s">
-        <v>259</v>
-      </c>
-      <c r="C68" s="2" t="s">
-        <v>190</v>
-      </c>
       <c r="D68" s="36" t="s">
-        <v>260</v>
-      </c>
-      <c r="E68" s="2" t="s">
-        <v>231</v>
-      </c>
-      <c r="F68" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="E68" s="2"/>
+      <c r="F68" s="2"/>
+      <c r="G68" s="2"/>
+      <c r="H68" s="2"/>
+      <c r="I68" s="2" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" ht="99">
+      <c r="A69" s="146">
+        <v>65</v>
+      </c>
+      <c r="B69" s="100" t="s">
+        <v>265</v>
+      </c>
+      <c r="C69" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="D69" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="E69" s="3" t="s">
         <v>261</v>
       </c>
-      <c r="G68" s="2"/>
-      <c r="H68" s="11" t="s">
-        <v>260</v>
-      </c>
-      <c r="I68" s="2" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9" ht="50.25" customHeight="1">
-      <c r="A69" s="153">
-        <v>65</v>
-      </c>
-      <c r="B69" s="11" t="s">
-        <v>262</v>
-      </c>
-      <c r="C69" s="2" t="s">
-        <v>263</v>
-      </c>
-      <c r="D69" s="11" t="s">
-        <v>264</v>
-      </c>
-      <c r="E69" s="2" t="s">
-        <v>263</v>
-      </c>
-      <c r="F69" s="2" t="s">
-        <v>265</v>
-      </c>
-      <c r="G69" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="H69" s="2"/>
+      <c r="F69" s="23" t="s">
+        <v>268</v>
+      </c>
+      <c r="G69" s="2"/>
+      <c r="H69" s="30" t="s">
+        <v>203</v>
+      </c>
       <c r="I69" s="2" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
     </row>
     <row r="70" spans="1:9" ht="50.25" customHeight="1">
-      <c r="A70" s="153">
+      <c r="A70" s="146">
         <v>66</v>
       </c>
-      <c r="B70" s="11" t="s">
-        <v>266</v>
-      </c>
-      <c r="C70" s="3" t="s">
-        <v>231</v>
-      </c>
-      <c r="D70" s="11" t="s">
-        <v>267</v>
+      <c r="B70" s="100" t="s">
+        <v>269</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="D70" s="36" t="s">
+        <v>270</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>231</v>
+        <v>241</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>265</v>
-      </c>
-      <c r="H70" s="30" t="s">
-        <v>185</v>
+        <v>271</v>
+      </c>
+      <c r="G70" s="2"/>
+      <c r="H70" s="11" t="s">
+        <v>270</v>
       </c>
       <c r="I70" s="2" t="s">
-        <v>268</v>
+        <v>234</v>
       </c>
     </row>
     <row r="71" spans="1:9" ht="50.25" customHeight="1">
-      <c r="A71" s="144"/>
-      <c r="B71" s="10" t="s">
-        <v>269</v>
+      <c r="A71" s="146">
+        <v>67</v>
+      </c>
+      <c r="B71" s="100" t="s">
+        <v>272</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>273</v>
       </c>
       <c r="D71" s="11" t="s">
-        <v>270</v>
-      </c>
-      <c r="E71" s="2"/>
-      <c r="G71" s="2"/>
+        <v>274</v>
+      </c>
+      <c r="E71" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="F71" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="G71" s="2" t="s">
+        <v>238</v>
+      </c>
       <c r="H71" s="2"/>
-      <c r="I71" s="2"/>
+      <c r="I71" s="2" t="s">
+        <v>239</v>
+      </c>
     </row>
     <row r="72" spans="1:9" ht="50.25" customHeight="1">
-      <c r="A72" s="151">
-        <v>67</v>
-      </c>
-      <c r="B72" s="142" t="s">
-        <v>271</v>
-      </c>
-      <c r="C72" s="2"/>
-      <c r="D72" s="20" t="s">
-        <v>272</v>
-      </c>
-      <c r="E72" s="2"/>
-      <c r="F72" s="2"/>
-      <c r="G72" s="2"/>
-      <c r="H72" s="2"/>
-      <c r="I72" s="56" t="s">
-        <v>273</v>
+      <c r="A72" s="146">
+        <v>68</v>
+      </c>
+      <c r="B72" s="100" t="s">
+        <v>276</v>
+      </c>
+      <c r="C72" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="D72" s="11" t="s">
+        <v>277</v>
+      </c>
+      <c r="E72" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="F72" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="H72" s="30" t="s">
+        <v>196</v>
+      </c>
+      <c r="I72" s="2" t="s">
+        <v>279</v>
       </c>
     </row>
     <row r="73" spans="1:9" ht="50.25" customHeight="1">
-      <c r="A73" s="151">
-        <v>68</v>
-      </c>
-      <c r="B73" s="142" t="s">
-        <v>274</v>
-      </c>
-      <c r="C73" s="2"/>
-      <c r="D73" s="34" t="s">
-        <v>275</v>
+      <c r="A73" s="138"/>
+      <c r="B73" s="10" t="s">
+        <v>280</v>
+      </c>
+      <c r="D73" s="11" t="s">
+        <v>281</v>
       </c>
       <c r="E73" s="2"/>
-      <c r="F73" s="2" t="s">
-        <v>276</v>
-      </c>
       <c r="G73" s="2"/>
       <c r="H73" s="2"/>
-      <c r="I73" s="56" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9" ht="69.75" customHeight="1">
-      <c r="A74" s="151">
+      <c r="I73" s="2"/>
+    </row>
+    <row r="74" spans="1:9" ht="50.25" customHeight="1">
+      <c r="A74" s="144">
         <v>69</v>
       </c>
-      <c r="B74" s="167" t="s">
-        <v>278</v>
-      </c>
-      <c r="C74" s="3" t="s">
-        <v>279</v>
-      </c>
+      <c r="B74" s="136" t="s">
+        <v>282</v>
+      </c>
+      <c r="C74" s="2"/>
       <c r="D74" s="20" t="s">
-        <v>278</v>
-      </c>
-      <c r="E74" s="3" t="s">
-        <v>280</v>
-      </c>
-      <c r="F74" s="2" t="s">
-        <v>276</v>
-      </c>
+        <v>283</v>
+      </c>
+      <c r="E74" s="2"/>
+      <c r="F74" s="2"/>
       <c r="G74" s="2"/>
-      <c r="H74" s="27" t="s">
-        <v>281</v>
-      </c>
-      <c r="I74" s="56" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9" ht="49.5" customHeight="1">
-      <c r="A75" s="151"/>
-      <c r="B75" s="167" t="s">
-        <v>283</v>
-      </c>
-      <c r="C75" s="3" t="s">
+      <c r="H74" s="2"/>
+      <c r="I74" s="54" t="s">
         <v>284</v>
       </c>
-      <c r="D75" s="20"/>
-      <c r="E75" s="3"/>
-      <c r="F75" s="2"/>
+    </row>
+    <row r="75" spans="1:9" ht="50.25" customHeight="1">
+      <c r="A75" s="144">
+        <v>70</v>
+      </c>
+      <c r="B75" s="136" t="s">
+        <v>285</v>
+      </c>
+      <c r="C75" s="2"/>
+      <c r="D75" s="34" t="s">
+        <v>285</v>
+      </c>
+      <c r="E75" s="2"/>
+      <c r="F75" s="2" t="s">
+        <v>286</v>
+      </c>
       <c r="G75" s="2"/>
-      <c r="H75" s="77" t="s">
-        <v>283</v>
-      </c>
-      <c r="I75" s="56" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9" ht="50.25" customHeight="1">
-      <c r="A76" s="151">
-        <v>70</v>
-      </c>
-      <c r="B76" s="163" t="s">
+      <c r="H75" s="2"/>
+      <c r="I75" s="54" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" ht="69.75" customHeight="1">
+      <c r="A76" s="144">
+        <v>71</v>
+      </c>
+      <c r="B76" s="159" t="s">
+        <v>288</v>
+      </c>
+      <c r="C76" s="3" t="s">
+        <v>289</v>
+      </c>
+      <c r="D76" s="20" t="s">
+        <v>288</v>
+      </c>
+      <c r="E76" s="3" t="s">
+        <v>290</v>
+      </c>
+      <c r="F76" s="2" t="s">
         <v>286</v>
       </c>
-      <c r="C76" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="D76" s="34" t="s">
-        <v>287</v>
-      </c>
-      <c r="E76" s="2" t="s">
-        <v>231</v>
-      </c>
-      <c r="F76" s="2" t="s">
-        <v>288</v>
-      </c>
-      <c r="G76" s="2" t="s">
-        <v>289</v>
-      </c>
-      <c r="H76" s="2"/>
-      <c r="I76" s="56" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="77" spans="1:9" ht="50.25" customHeight="1">
-      <c r="A77" s="151">
-        <v>71</v>
-      </c>
-      <c r="B77" s="22" t="s">
+      <c r="G76" s="2"/>
+      <c r="H76" s="27" t="s">
         <v>291</v>
       </c>
-      <c r="C77" s="2"/>
-      <c r="D77" s="34" t="s">
-        <v>291</v>
-      </c>
-      <c r="E77" s="2"/>
+      <c r="I76" s="54" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" ht="49.5" customHeight="1">
+      <c r="A77" s="144">
+        <v>72</v>
+      </c>
+      <c r="B77" s="136" t="s">
+        <v>293</v>
+      </c>
+      <c r="C77" s="3" t="s">
+        <v>294</v>
+      </c>
+      <c r="D77" s="20"/>
+      <c r="E77" s="3"/>
       <c r="F77" s="2"/>
       <c r="G77" s="2"/>
-      <c r="H77" s="2"/>
-      <c r="I77" s="56" t="s">
-        <v>292</v>
+      <c r="H77" s="71" t="s">
+        <v>293</v>
+      </c>
+      <c r="I77" s="54" t="s">
+        <v>295</v>
       </c>
     </row>
     <row r="78" spans="1:9" ht="50.25" customHeight="1">
-      <c r="A78" s="151">
-        <v>72</v>
-      </c>
-      <c r="B78" s="76" t="s">
-        <v>293</v>
+      <c r="A78" s="144">
+        <v>73</v>
+      </c>
+      <c r="B78" s="136" t="s">
+        <v>296</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>231</v>
-      </c>
-      <c r="D78" s="20" t="s">
-        <v>294</v>
+        <v>140</v>
+      </c>
+      <c r="D78" s="34" t="s">
+        <v>297</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>231</v>
+        <v>241</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>295</v>
-      </c>
-      <c r="G78" s="2"/>
-      <c r="H78" s="27" t="s">
-        <v>281</v>
-      </c>
-      <c r="I78" s="56" t="s">
-        <v>296</v>
+        <v>298</v>
+      </c>
+      <c r="G78" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="H78" s="2"/>
+      <c r="I78" s="54" t="s">
+        <v>300</v>
       </c>
     </row>
     <row r="79" spans="1:9" ht="50.25" customHeight="1">
-      <c r="A79" s="151">
-        <v>73</v>
-      </c>
-      <c r="B79" s="76" t="s">
-        <v>297</v>
-      </c>
-      <c r="C79" s="2" t="s">
-        <v>298</v>
-      </c>
-      <c r="D79" s="20" t="s">
-        <v>299</v>
-      </c>
-      <c r="E79" s="2" t="s">
-        <v>298</v>
-      </c>
-      <c r="G79" s="2" t="s">
-        <v>228</v>
-      </c>
+      <c r="A79" s="144">
+        <v>74</v>
+      </c>
+      <c r="B79" s="107" t="s">
+        <v>301</v>
+      </c>
+      <c r="C79" s="2"/>
+      <c r="D79" s="34" t="s">
+        <v>302</v>
+      </c>
+      <c r="E79" s="2"/>
+      <c r="F79" s="2"/>
+      <c r="G79" s="2"/>
       <c r="H79" s="2"/>
-      <c r="I79" s="56" t="s">
-        <v>300</v>
+      <c r="I79" s="54" t="s">
+        <v>303</v>
       </c>
     </row>
     <row r="80" spans="1:9" ht="50.25" customHeight="1">
-      <c r="A80" s="151">
-        <v>74</v>
-      </c>
-      <c r="B80" s="76" t="s">
-        <v>301</v>
+      <c r="A80" s="144">
+        <v>75</v>
+      </c>
+      <c r="B80" s="155" t="s">
+        <v>304</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="D80" s="34" t="s">
-        <v>302</v>
-      </c>
-      <c r="E80" s="2"/>
+        <v>241</v>
+      </c>
+      <c r="D80" s="20" t="s">
+        <v>305</v>
+      </c>
+      <c r="E80" s="2" t="s">
+        <v>241</v>
+      </c>
       <c r="F80" s="2" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="G80" s="2"/>
-      <c r="H80" s="2"/>
-      <c r="I80" s="56" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="81" spans="1:9" ht="99">
-      <c r="A81" s="151">
-        <v>75</v>
-      </c>
-      <c r="B81" s="75" t="s">
-        <v>305</v>
-      </c>
-      <c r="C81" s="3" t="s">
-        <v>306</v>
-      </c>
-      <c r="D81" s="20" t="s">
+      <c r="H80" s="27" t="s">
+        <v>291</v>
+      </c>
+      <c r="I80" s="54" t="s">
         <v>307</v>
       </c>
-      <c r="E81" s="3" t="s">
+    </row>
+    <row r="81" spans="1:9" ht="50.25" customHeight="1">
+      <c r="A81" s="144">
+        <v>76</v>
+      </c>
+      <c r="B81" s="155" t="s">
         <v>308</v>
       </c>
-      <c r="F81" s="2" t="s">
-        <v>303</v>
-      </c>
+      <c r="C81" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="D81" s="20"/>
+      <c r="E81" s="2"/>
       <c r="G81" s="2"/>
-      <c r="H81" s="27" t="s">
-        <v>281</v>
-      </c>
-      <c r="I81" s="56" t="s">
+      <c r="H81" s="162" t="s">
+        <v>285</v>
+      </c>
+      <c r="I81" s="54" t="s">
         <v>309</v>
       </c>
     </row>
     <row r="82" spans="1:9" ht="50.25" customHeight="1">
-      <c r="A82" s="144"/>
-      <c r="B82" s="7" t="s">
+      <c r="A82" s="144">
+        <v>77</v>
+      </c>
+      <c r="B82" s="155" t="s">
         <v>310</v>
       </c>
       <c r="C82" s="2"/>
-      <c r="D82" s="11" t="s">
+      <c r="D82" s="20"/>
+      <c r="E82" s="2"/>
+      <c r="G82" s="2"/>
+      <c r="H82" s="162"/>
+      <c r="I82" s="54"/>
+    </row>
+    <row r="83" spans="1:9" ht="50.25" customHeight="1">
+      <c r="A83" s="144">
+        <v>78</v>
+      </c>
+      <c r="B83" s="155" t="s">
         <v>311</v>
       </c>
-      <c r="E82" s="2"/>
-      <c r="F82" s="2"/>
-      <c r="G82" s="2"/>
-      <c r="H82" s="2"/>
-      <c r="I82" s="2"/>
-    </row>
-    <row r="83" spans="1:9" ht="50.25" customHeight="1">
-      <c r="A83" s="146">
-        <v>76</v>
-      </c>
-      <c r="B83" s="7" t="s">
+      <c r="C83" s="3" t="s">
         <v>312</v>
       </c>
-      <c r="C83" s="2"/>
-      <c r="D83" s="11" t="s">
-        <v>312</v>
-      </c>
+      <c r="D83" s="20"/>
       <c r="E83" s="2"/>
-      <c r="F83" s="2"/>
       <c r="G83" s="2"/>
-      <c r="H83" s="16" t="s">
+      <c r="H83" s="162" t="s">
+        <v>285</v>
+      </c>
+      <c r="I83" s="54" t="s">
         <v>313</v>
       </c>
-      <c r="I83" s="88" t="s">
+    </row>
+    <row r="84" spans="1:9" ht="50.25" customHeight="1">
+      <c r="A84" s="144">
+        <v>79</v>
+      </c>
+      <c r="B84" s="155" t="s">
         <v>314</v>
       </c>
-    </row>
-    <row r="84" spans="1:9" ht="50.25" customHeight="1">
-      <c r="A84" s="146">
-        <v>77</v>
-      </c>
-      <c r="B84" s="119" t="s">
+      <c r="C84" s="2" t="s">
         <v>315</v>
       </c>
-      <c r="C84" s="2" t="s">
+      <c r="D84" s="20" t="s">
         <v>316</v>
       </c>
-      <c r="D84" s="110" t="s">
+      <c r="E84" s="2" t="s">
         <v>315</v>
       </c>
-      <c r="E84" s="2" t="s">
-        <v>316</v>
-      </c>
-      <c r="F84" s="2" t="s">
+      <c r="G84" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="H84" s="2"/>
+      <c r="I84" s="54" t="s">
         <v>317</v>
       </c>
-      <c r="G84" s="2" t="s">
+    </row>
+    <row r="85" spans="1:9" ht="50.25" customHeight="1">
+      <c r="A85" s="167">
+        <v>80</v>
+      </c>
+      <c r="B85" s="163" t="s">
         <v>318</v>
       </c>
-      <c r="H84" s="2" t="s">
-        <v>315</v>
-      </c>
-      <c r="I84" s="88" t="s">
+      <c r="C85" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="D85" s="34" t="s">
         <v>319</v>
       </c>
-    </row>
-    <row r="85" spans="1:9" ht="82.5">
-      <c r="A85" s="146">
-        <v>78</v>
-      </c>
-      <c r="B85" s="137" t="s">
+      <c r="E85" s="2"/>
+      <c r="F85" s="2" t="s">
         <v>320</v>
       </c>
-      <c r="C85" s="3" t="s">
+      <c r="G85" s="2"/>
+      <c r="H85" s="2"/>
+      <c r="I85" s="54" t="s">
         <v>321</v>
       </c>
-      <c r="D85" s="11" t="s">
+    </row>
+    <row r="86" spans="1:9" ht="99">
+      <c r="A86" s="144">
+        <v>81</v>
+      </c>
+      <c r="B86" s="164" t="s">
         <v>322</v>
       </c>
-      <c r="E85" s="3" t="s">
-        <v>321</v>
-      </c>
-      <c r="F85" s="2" t="s">
+      <c r="C86" s="3" t="s">
         <v>323</v>
       </c>
-      <c r="G85" s="2"/>
-      <c r="H85" s="104" t="s">
-        <v>67</v>
-      </c>
-      <c r="I85" s="88" t="s">
+      <c r="D86" s="20" t="s">
         <v>324</v>
       </c>
-    </row>
-    <row r="86" spans="1:9" ht="50.25" customHeight="1">
-      <c r="A86" s="146">
-        <v>79</v>
-      </c>
-      <c r="B86" s="138" t="s">
+      <c r="E86" s="3" t="s">
         <v>325</v>
       </c>
-      <c r="C86" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="D86" s="109" t="s">
-        <v>325</v>
-      </c>
-      <c r="E86" s="2" t="s">
-        <v>231</v>
-      </c>
       <c r="F86" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="G86" s="2"/>
+      <c r="H86" s="27" t="s">
+        <v>291</v>
+      </c>
+      <c r="I86" s="54" t="s">
         <v>326</v>
       </c>
-      <c r="G86" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="H86" s="11" t="s">
+    </row>
+    <row r="87" spans="1:9" ht="50.25" customHeight="1">
+      <c r="A87" s="138"/>
+      <c r="B87" s="7" t="s">
         <v>327</v>
       </c>
-      <c r="I86" s="88" t="s">
+      <c r="C87" s="2"/>
+      <c r="D87" s="11" t="s">
         <v>328</v>
-      </c>
-    </row>
-    <row r="87" spans="1:9" ht="50.25" customHeight="1">
-      <c r="A87" s="146">
-        <v>80</v>
-      </c>
-      <c r="B87" s="119" t="s">
-        <v>329</v>
-      </c>
-      <c r="C87" s="19" t="s">
-        <v>190</v>
-      </c>
-      <c r="D87" s="141" t="s">
-        <v>329</v>
       </c>
       <c r="E87" s="2"/>
       <c r="F87" s="2"/>
       <c r="G87" s="2"/>
-      <c r="H87" s="8" t="s">
+      <c r="H87" s="2"/>
+      <c r="I87" s="2"/>
+    </row>
+    <row r="88" spans="1:9" ht="50.25" customHeight="1">
+      <c r="A88" s="140">
+        <v>82</v>
+      </c>
+      <c r="B88" s="166" t="s">
+        <v>329</v>
+      </c>
+      <c r="C88" s="2"/>
+      <c r="D88" s="11" t="s">
+        <v>329</v>
+      </c>
+      <c r="E88" s="2"/>
+      <c r="F88" s="2"/>
+      <c r="G88" s="2"/>
+      <c r="H88" s="16" t="s">
         <v>330</v>
       </c>
-      <c r="I87" s="88" t="s">
+      <c r="I88" s="82" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="88" spans="1:9" ht="50.25" customHeight="1">
-      <c r="A88" s="146">
-        <v>81</v>
-      </c>
-      <c r="B88" s="139" t="s">
+    <row r="89" spans="1:9" ht="50.25" customHeight="1">
+      <c r="A89" s="140">
+        <v>83</v>
+      </c>
+      <c r="B89" s="113" t="s">
         <v>332</v>
       </c>
-      <c r="C88" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="D88" s="11" t="s">
+      <c r="C89" s="2" t="s">
         <v>333</v>
       </c>
-      <c r="E88" s="2" t="s">
-        <v>231</v>
-      </c>
-      <c r="F88" s="2" t="s">
+      <c r="D89" s="104" t="s">
+        <v>332</v>
+      </c>
+      <c r="E89" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="F89" s="2" t="s">
         <v>334</v>
       </c>
-      <c r="G88" s="2"/>
-      <c r="H88" s="104" t="s">
-        <v>67</v>
-      </c>
-      <c r="I88" s="88" t="s">
+      <c r="G89" s="2" t="s">
         <v>335</v>
       </c>
-    </row>
-    <row r="89" spans="1:9" ht="50.25" customHeight="1">
-      <c r="A89" s="146">
-        <v>82</v>
-      </c>
-      <c r="B89" s="140" t="s">
+      <c r="H89" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="I89" s="82" t="s">
         <v>336</v>
       </c>
-      <c r="C89" s="2" t="s">
-        <v>263</v>
-      </c>
-      <c r="D89" s="11" t="s">
-        <v>336</v>
-      </c>
-      <c r="E89" s="2" t="s">
-        <v>298</v>
-      </c>
-      <c r="F89" s="2" t="s">
+    </row>
+    <row r="90" spans="1:9" ht="82.5">
+      <c r="A90" s="140">
+        <v>84</v>
+      </c>
+      <c r="B90" s="131" t="s">
         <v>337</v>
       </c>
-      <c r="G89" s="2"/>
-      <c r="H89" s="2"/>
-      <c r="I89" s="88" t="s">
+      <c r="C90" s="3" t="s">
         <v>338</v>
-      </c>
-    </row>
-    <row r="90" spans="1:9" ht="50.25" customHeight="1">
-      <c r="A90" s="146">
-        <v>83</v>
-      </c>
-      <c r="B90" s="164" t="s">
-        <v>339</v>
-      </c>
-      <c r="C90" s="82" t="s">
-        <v>190</v>
       </c>
       <c r="D90" s="11" t="s">
         <v>339</v>
       </c>
-      <c r="E90" s="2" t="s">
-        <v>190</v>
+      <c r="E90" s="3" t="s">
+        <v>338</v>
       </c>
       <c r="F90" s="2" t="s">
-        <v>326</v>
-      </c>
-      <c r="G90" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="G90" s="2"/>
+      <c r="H90" s="98" t="s">
+        <v>71</v>
+      </c>
+      <c r="I90" s="82" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" ht="50.25" customHeight="1">
+      <c r="A91" s="140">
+        <v>85</v>
+      </c>
+      <c r="B91" s="132" t="s">
+        <v>342</v>
+      </c>
+      <c r="C91" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="D91" s="103" t="s">
+        <v>342</v>
+      </c>
+      <c r="E91" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="F91" s="2" t="s">
+        <v>343</v>
+      </c>
+      <c r="G91" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="H90" s="2" t="s">
-        <v>339</v>
-      </c>
-      <c r="I90" s="88" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="91" spans="1:9" ht="66">
-      <c r="A91" s="146">
-        <v>84</v>
-      </c>
-      <c r="B91" s="165" t="s">
-        <v>341</v>
-      </c>
-      <c r="C91" s="43" t="s">
-        <v>342</v>
-      </c>
-      <c r="D91" s="11" t="s">
+      <c r="H91" s="11" t="s">
+        <v>344</v>
+      </c>
+      <c r="I91" s="82" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" ht="50.25" customHeight="1">
+      <c r="A92" s="140">
+        <v>86</v>
+      </c>
+      <c r="B92" s="113" t="s">
+        <v>346</v>
+      </c>
+      <c r="C92" s="19" t="s">
+        <v>140</v>
+      </c>
+      <c r="D92" s="135" t="s">
+        <v>346</v>
+      </c>
+      <c r="E92" s="2"/>
+      <c r="F92" s="2"/>
+      <c r="G92" s="2"/>
+      <c r="H92" s="8" t="s">
+        <v>347</v>
+      </c>
+      <c r="I92" s="82" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" ht="50.25" customHeight="1">
+      <c r="A93" s="140">
+        <v>87</v>
+      </c>
+      <c r="B93" s="133" t="s">
+        <v>349</v>
+      </c>
+      <c r="C93" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="D93" s="11" t="s">
+        <v>350</v>
+      </c>
+      <c r="E93" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="F93" s="2" t="s">
+        <v>351</v>
+      </c>
+      <c r="G93" s="2"/>
+      <c r="H93" s="98" t="s">
+        <v>71</v>
+      </c>
+      <c r="I93" s="82" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" ht="50.25" customHeight="1">
+      <c r="A94" s="140">
+        <v>88</v>
+      </c>
+      <c r="B94" s="134" t="s">
+        <v>353</v>
+      </c>
+      <c r="C94" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="D94" s="11" t="s">
+        <v>353</v>
+      </c>
+      <c r="E94" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="F94" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="G94" s="2"/>
+      <c r="H94" s="2"/>
+      <c r="I94" s="82" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9" ht="50.25" customHeight="1">
+      <c r="A95" s="140">
+        <v>89</v>
+      </c>
+      <c r="B95" s="156" t="s">
+        <v>356</v>
+      </c>
+      <c r="C95" s="76" t="s">
+        <v>140</v>
+      </c>
+      <c r="D95" s="11" t="s">
+        <v>356</v>
+      </c>
+      <c r="E95" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="F95" s="2" t="s">
         <v>343</v>
       </c>
-      <c r="E91" s="3" t="s">
-        <v>342</v>
-      </c>
-      <c r="F91" s="31" t="s">
-        <v>344</v>
-      </c>
-      <c r="G91" s="2"/>
-      <c r="H91" s="166" t="s">
-        <v>67</v>
-      </c>
-      <c r="I91" s="88" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="92" spans="1:9" ht="24" customHeight="1">
-      <c r="A92" s="152" t="s">
-        <v>346</v>
-      </c>
-      <c r="B92" s="54"/>
-      <c r="C92" s="54"/>
-      <c r="D92" s="54"/>
-      <c r="E92" s="54"/>
-      <c r="F92" s="54"/>
-      <c r="G92" s="54"/>
-      <c r="H92" s="54"/>
-      <c r="I92" s="54"/>
-    </row>
-    <row r="93" spans="1:9" ht="16.5">
-      <c r="A93" s="153" t="s">
+      <c r="G95" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="H95" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="I95" s="82" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9" ht="82.5">
+      <c r="A96" s="140">
+        <v>90</v>
+      </c>
+      <c r="B96" s="157" t="s">
+        <v>358</v>
+      </c>
+      <c r="C96" s="43" t="s">
+        <v>359</v>
+      </c>
+      <c r="D96" s="11" t="s">
+        <v>360</v>
+      </c>
+      <c r="E96" s="3" t="s">
+        <v>359</v>
+      </c>
+      <c r="F96" s="31" t="s">
+        <v>361</v>
+      </c>
+      <c r="G96" s="2"/>
+      <c r="H96" s="158" t="s">
+        <v>71</v>
+      </c>
+      <c r="I96" s="82" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9" ht="24" customHeight="1">
+      <c r="A97" s="145" t="s">
+        <v>363</v>
+      </c>
+      <c r="B97" s="52"/>
+      <c r="C97" s="52"/>
+      <c r="D97" s="52"/>
+      <c r="E97" s="52"/>
+      <c r="F97" s="52"/>
+      <c r="G97" s="52"/>
+      <c r="H97" s="52"/>
+      <c r="I97" s="52"/>
+    </row>
+    <row r="98" spans="1:9">
+      <c r="A98" s="146" t="s">
         <v>8</v>
       </c>
-      <c r="B93" s="37" t="s">
+      <c r="B98" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="C93" s="5" t="s">
+      <c r="C98" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D93" s="5" t="s">
+      <c r="D98" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E93" s="5" t="s">
+      <c r="E98" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="F93" s="5" t="s">
+      <c r="F98" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="G93" s="5" t="s">
+      <c r="G98" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="H93" s="5" t="s">
+      <c r="H98" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="I93" s="5" t="s">
+      <c r="I98" s="5" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="94" spans="1:9" ht="50.25" customHeight="1">
-      <c r="A94" s="154">
-        <v>85</v>
-      </c>
-      <c r="B94" s="89" t="s">
-        <v>347</v>
-      </c>
-      <c r="C94" s="21"/>
-      <c r="D94" s="32" t="s">
-        <v>348</v>
-      </c>
-      <c r="E94" s="2"/>
-      <c r="F94" s="2"/>
-      <c r="G94" s="2"/>
-      <c r="H94" s="16" t="s">
-        <v>347</v>
-      </c>
-      <c r="I94" s="2" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="95" spans="1:9" ht="50.25" customHeight="1">
-      <c r="A95" s="154">
-        <v>86</v>
-      </c>
-      <c r="B95" s="89" t="s">
-        <v>350</v>
-      </c>
-      <c r="C95" s="21" t="s">
-        <v>351</v>
-      </c>
-      <c r="D95" s="2" t="s">
-        <v>352</v>
-      </c>
-      <c r="E95" s="2" t="s">
-        <v>353</v>
-      </c>
-      <c r="F95" s="2" t="s">
-        <v>354</v>
-      </c>
-      <c r="G95" s="2" t="s">
-        <v>355</v>
-      </c>
-      <c r="H95" s="27" t="s">
-        <v>347</v>
-      </c>
-      <c r="I95" s="2" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="96" spans="1:9" ht="148.5">
-      <c r="A96" s="154">
-        <v>87</v>
-      </c>
-      <c r="B96" s="94" t="s">
-        <v>357</v>
-      </c>
-      <c r="C96" s="3" t="s">
-        <v>358</v>
-      </c>
-      <c r="D96" s="2" t="s">
-        <v>359</v>
-      </c>
-      <c r="E96" s="3" t="s">
-        <v>360</v>
-      </c>
-      <c r="F96" s="2" t="s">
-        <v>361</v>
-      </c>
-      <c r="G96" s="2"/>
-      <c r="H96" s="25" t="s">
-        <v>362</v>
-      </c>
-      <c r="I96" s="2" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="97" spans="1:9" ht="50.25" customHeight="1">
-      <c r="A97" s="154">
-        <v>88</v>
-      </c>
-      <c r="B97" s="163" t="s">
+    <row r="99" spans="1:9" ht="50.25" customHeight="1">
+      <c r="A99" s="147">
+        <v>91</v>
+      </c>
+      <c r="B99" s="83" t="s">
         <v>364</v>
       </c>
-      <c r="C97" s="3"/>
-      <c r="D97" s="32" t="s">
+      <c r="C99" s="21"/>
+      <c r="D99" s="32" t="s">
         <v>365</v>
-      </c>
-      <c r="E97" s="2"/>
-      <c r="F97" s="2"/>
-      <c r="G97" s="2"/>
-      <c r="H97" s="2" t="s">
-        <v>364</v>
-      </c>
-      <c r="I97" s="2" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="98" spans="1:9" ht="50.25" customHeight="1">
-      <c r="A98" s="154">
-        <v>89</v>
-      </c>
-      <c r="B98" s="89" t="s">
-        <v>367</v>
-      </c>
-      <c r="C98" s="3" t="s">
-        <v>368</v>
-      </c>
-      <c r="D98" s="2" t="s">
-        <v>369</v>
-      </c>
-      <c r="E98" s="3" t="s">
-        <v>370</v>
-      </c>
-      <c r="F98" t="s">
-        <v>371</v>
-      </c>
-      <c r="G98" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="H98" s="25" t="s">
-        <v>372</v>
-      </c>
-      <c r="I98" s="2" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="99" spans="1:9" ht="122.25" customHeight="1">
-      <c r="A99" s="154">
-        <v>90</v>
-      </c>
-      <c r="B99" s="89" t="s">
-        <v>374</v>
-      </c>
-      <c r="C99" s="2"/>
-      <c r="D99" s="32" t="s">
-        <v>375</v>
       </c>
       <c r="E99" s="2"/>
       <c r="F99" s="2"/>
       <c r="G99" s="2"/>
-      <c r="H99" s="2" t="s">
+      <c r="H99" s="16" t="s">
+        <v>364</v>
+      </c>
+      <c r="I99" s="2" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9" ht="50.25" customHeight="1">
+      <c r="A100" s="147">
+        <v>92</v>
+      </c>
+      <c r="B100" s="83" t="s">
+        <v>367</v>
+      </c>
+      <c r="C100" s="21" t="s">
+        <v>368</v>
+      </c>
+      <c r="D100" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="E100" s="2" t="s">
+        <v>370</v>
+      </c>
+      <c r="F100" s="2" t="s">
+        <v>371</v>
+      </c>
+      <c r="G100" s="2" t="s">
+        <v>372</v>
+      </c>
+      <c r="H100" s="27" t="s">
+        <v>364</v>
+      </c>
+      <c r="I100" s="2" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9" ht="148.5">
+      <c r="A101" s="147">
+        <v>93</v>
+      </c>
+      <c r="B101" s="88" t="s">
+        <v>374</v>
+      </c>
+      <c r="C101" s="3" t="s">
+        <v>375</v>
+      </c>
+      <c r="D101" s="2" t="s">
         <v>376</v>
       </c>
-      <c r="I99" s="2" t="s">
+      <c r="E101" s="3" t="s">
         <v>377</v>
       </c>
-    </row>
-    <row r="100" spans="1:9" ht="88.5" customHeight="1">
-      <c r="A100" s="154">
-        <v>91</v>
-      </c>
-      <c r="B100" s="89" t="s">
+      <c r="F101" s="2" t="s">
         <v>378</v>
       </c>
-      <c r="C100" s="3" t="s">
+      <c r="G101" s="2"/>
+      <c r="H101" s="25" t="s">
         <v>379</v>
       </c>
-      <c r="D100" s="32" t="s">
-        <v>375</v>
-      </c>
-      <c r="E100" s="3" t="s">
-        <v>379</v>
-      </c>
-      <c r="F100" s="2" t="s">
+      <c r="I101" s="2" t="s">
         <v>380</v>
       </c>
-      <c r="G100" s="2"/>
-      <c r="H100" s="27" t="s">
-        <v>376</v>
-      </c>
-      <c r="I100" s="2" t="s">
+    </row>
+    <row r="102" spans="1:9" ht="50.25" customHeight="1">
+      <c r="A102" s="147">
+        <v>94</v>
+      </c>
+      <c r="B102" s="155" t="s">
         <v>381</v>
       </c>
-    </row>
-    <row r="101" spans="1:9" ht="96.75" customHeight="1">
-      <c r="A101" s="154">
-        <v>92</v>
-      </c>
-      <c r="B101" s="89" t="s">
+      <c r="C102" s="3"/>
+      <c r="D102" s="32" t="s">
         <v>382</v>
-      </c>
-      <c r="C101" s="3" t="s">
-        <v>383</v>
-      </c>
-      <c r="D101" s="7" t="s">
-        <v>382</v>
-      </c>
-      <c r="E101" s="3" t="s">
-        <v>384</v>
-      </c>
-      <c r="F101" s="2" t="s">
-        <v>385</v>
-      </c>
-      <c r="G101" s="2"/>
-      <c r="H101" s="27" t="s">
-        <v>376</v>
-      </c>
-      <c r="I101" s="2" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="102" spans="1:9" ht="50.25" customHeight="1">
-      <c r="A102" s="154">
-        <v>93</v>
-      </c>
-      <c r="B102" s="89" t="s">
-        <v>387</v>
-      </c>
-      <c r="C102" s="2"/>
-      <c r="D102" s="16" t="s">
-        <v>387</v>
       </c>
       <c r="E102" s="2"/>
       <c r="F102" s="2"/>
-      <c r="G102" s="2" t="s">
+      <c r="G102" s="2"/>
+      <c r="H102" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="I102" s="2" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9" ht="50.25" customHeight="1">
+      <c r="A103" s="147">
+        <v>95</v>
+      </c>
+      <c r="B103" s="83" t="s">
+        <v>384</v>
+      </c>
+      <c r="C103" s="3" t="s">
+        <v>385</v>
+      </c>
+      <c r="D103" s="2" t="s">
+        <v>386</v>
+      </c>
+      <c r="E103" s="3" t="s">
+        <v>387</v>
+      </c>
+      <c r="F103" t="s">
         <v>388</v>
       </c>
-      <c r="H102" s="25" t="s">
+      <c r="G103" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="H103" s="25" t="s">
         <v>389</v>
       </c>
-      <c r="I102" s="2" t="s">
+      <c r="I103" s="2" t="s">
         <v>390</v>
       </c>
     </row>
-    <row r="103" spans="1:9" ht="50.25" customHeight="1">
-      <c r="A103" s="154">
-        <v>94</v>
-      </c>
-      <c r="B103" s="89" t="s">
+    <row r="104" spans="1:9" ht="122.25" customHeight="1">
+      <c r="A104" s="147">
+        <v>96</v>
+      </c>
+      <c r="B104" s="83" t="s">
         <v>391</v>
       </c>
-      <c r="C103" s="2" t="s">
+      <c r="C104" s="2"/>
+      <c r="D104" s="32" t="s">
         <v>392</v>
       </c>
-      <c r="D103" s="16" t="s">
-        <v>391</v>
-      </c>
-      <c r="E103" s="3" t="s">
+      <c r="E104" s="2"/>
+      <c r="F104" s="2"/>
+      <c r="G104" s="2"/>
+      <c r="H104" s="2" t="s">
         <v>393</v>
       </c>
-      <c r="F103" s="2" t="s">
+      <c r="I104" s="2" t="s">
         <v>394</v>
       </c>
-      <c r="G103" s="3" t="s">
+    </row>
+    <row r="105" spans="1:9" ht="88.5" customHeight="1">
+      <c r="A105" s="147">
+        <v>97</v>
+      </c>
+      <c r="B105" s="83" t="s">
         <v>395</v>
       </c>
-      <c r="H103" s="2" t="s">
-        <v>391</v>
-      </c>
-      <c r="I103" s="2" t="s">
+      <c r="C105" s="3" t="s">
         <v>396</v>
       </c>
-    </row>
-    <row r="104" spans="1:9" ht="50.25" customHeight="1">
-      <c r="A104" s="154">
-        <v>95</v>
-      </c>
-      <c r="B104" s="115" t="s">
+      <c r="D105" s="32" t="s">
+        <v>392</v>
+      </c>
+      <c r="E105" s="3" t="s">
+        <v>396</v>
+      </c>
+      <c r="F105" s="2" t="s">
         <v>397</v>
       </c>
-      <c r="C104" s="3" t="s">
+      <c r="G105" s="2"/>
+      <c r="H105" s="27" t="s">
+        <v>393</v>
+      </c>
+      <c r="I105" s="2" t="s">
         <v>398</v>
       </c>
-      <c r="D104" s="75" t="s">
-        <v>397</v>
-      </c>
-      <c r="E104" s="3" t="s">
-        <v>398</v>
-      </c>
-      <c r="F104" s="2" t="s">
+    </row>
+    <row r="106" spans="1:9" ht="96.75" customHeight="1">
+      <c r="A106" s="147">
+        <v>98</v>
+      </c>
+      <c r="B106" s="83" t="s">
         <v>399</v>
       </c>
-      <c r="G104" s="3"/>
-      <c r="H104" s="27" t="s">
-        <v>391</v>
-      </c>
-      <c r="I104" s="2" t="s">
+      <c r="C106" s="3" t="s">
         <v>400</v>
       </c>
-    </row>
-    <row r="105" spans="1:9" ht="50.25" customHeight="1">
-      <c r="A105" s="155">
-        <v>86</v>
-      </c>
-      <c r="B105" s="8" t="s">
+      <c r="D106" s="7" t="s">
+        <v>399</v>
+      </c>
+      <c r="E106" s="3" t="s">
         <v>401</v>
       </c>
-      <c r="C105" s="2"/>
-      <c r="D105" s="2"/>
-      <c r="E105" s="2"/>
-      <c r="F105" s="2"/>
-      <c r="G105" s="2"/>
-      <c r="H105" s="2" t="s">
-        <v>401</v>
-      </c>
-      <c r="I105" s="2" t="s">
+      <c r="F106" s="2" t="s">
         <v>402</v>
       </c>
-    </row>
-    <row r="106" spans="1:9" ht="50.25" customHeight="1">
-      <c r="A106" s="154">
-        <v>96</v>
-      </c>
-      <c r="B106" s="89" t="s">
+      <c r="G106" s="2"/>
+      <c r="H106" s="27" t="s">
+        <v>393</v>
+      </c>
+      <c r="I106" s="2" t="s">
         <v>403</v>
       </c>
-      <c r="C106" s="3" t="s">
+    </row>
+    <row r="107" spans="1:9" ht="50.25" customHeight="1">
+      <c r="A107" s="147">
+        <v>99</v>
+      </c>
+      <c r="B107" s="83" t="s">
         <v>404</v>
       </c>
-      <c r="D106" s="16" t="s">
-        <v>403</v>
-      </c>
-      <c r="E106" s="38" t="s">
+      <c r="C107" s="2"/>
+      <c r="D107" s="16" t="s">
+        <v>404</v>
+      </c>
+      <c r="E107" s="2"/>
+      <c r="F107" s="2"/>
+      <c r="G107" s="2" t="s">
         <v>405</v>
       </c>
-      <c r="F106" s="2" t="s">
+      <c r="H107" s="25" t="s">
         <v>406</v>
       </c>
-      <c r="G106" s="2" t="s">
+      <c r="I107" s="2" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9" ht="50.25" customHeight="1">
+      <c r="A108" s="147">
+        <v>100</v>
+      </c>
+      <c r="B108" s="83" t="s">
+        <v>408</v>
+      </c>
+      <c r="C108" s="2" t="s">
+        <v>409</v>
+      </c>
+      <c r="D108" s="16" t="s">
+        <v>408</v>
+      </c>
+      <c r="E108" s="3" t="s">
+        <v>410</v>
+      </c>
+      <c r="F108" s="2" t="s">
+        <v>411</v>
+      </c>
+      <c r="G108" s="3" t="s">
+        <v>412</v>
+      </c>
+      <c r="H108" s="2" t="s">
+        <v>408</v>
+      </c>
+      <c r="I108" s="2" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9" ht="50.25" customHeight="1">
+      <c r="A109" s="147">
+        <v>101</v>
+      </c>
+      <c r="B109" s="109" t="s">
+        <v>414</v>
+      </c>
+      <c r="C109" s="3" t="s">
+        <v>415</v>
+      </c>
+      <c r="D109" s="70" t="s">
+        <v>414</v>
+      </c>
+      <c r="E109" s="3" t="s">
+        <v>415</v>
+      </c>
+      <c r="F109" s="2" t="s">
+        <v>416</v>
+      </c>
+      <c r="G109" s="3"/>
+      <c r="H109" s="27" t="s">
+        <v>408</v>
+      </c>
+      <c r="I109" s="2" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9" ht="50.25" customHeight="1">
+      <c r="A110" s="148">
+        <v>102</v>
+      </c>
+      <c r="B110" s="8" t="s">
+        <v>418</v>
+      </c>
+      <c r="C110" s="2"/>
+      <c r="D110" s="2"/>
+      <c r="E110" s="2"/>
+      <c r="F110" s="2"/>
+      <c r="G110" s="2"/>
+      <c r="H110" s="2" t="s">
+        <v>418</v>
+      </c>
+      <c r="I110" s="2" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9" ht="50.25" customHeight="1">
+      <c r="A111" s="147">
+        <v>103</v>
+      </c>
+      <c r="B111" s="83" t="s">
+        <v>420</v>
+      </c>
+      <c r="C111" s="3" t="s">
+        <v>421</v>
+      </c>
+      <c r="D111" s="16" t="s">
+        <v>420</v>
+      </c>
+      <c r="E111" s="38" t="s">
+        <v>422</v>
+      </c>
+      <c r="F111" s="2" t="s">
+        <v>423</v>
+      </c>
+      <c r="G111" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="H106" s="2" t="s">
-        <v>403</v>
-      </c>
-      <c r="I106" s="2" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="107" spans="1:9" ht="50.25" customHeight="1">
-      <c r="A107" s="154">
+      <c r="H111" s="2" t="s">
+        <v>420</v>
+      </c>
+      <c r="I111" s="2" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9" ht="50.25" customHeight="1">
+      <c r="A112" s="147">
+        <v>104</v>
+      </c>
+      <c r="B112" s="83" t="s">
+        <v>425</v>
+      </c>
+      <c r="C112" s="3" t="s">
+        <v>426</v>
+      </c>
+      <c r="D112" s="2" t="s">
+        <v>427</v>
+      </c>
+      <c r="E112" s="38" t="s">
+        <v>428</v>
+      </c>
+      <c r="F112" s="2"/>
+      <c r="G112" s="2"/>
+      <c r="H112" s="2"/>
+      <c r="I112" s="2" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9" ht="50.25" customHeight="1">
+      <c r="A113" s="147">
+        <v>105</v>
+      </c>
+      <c r="B113" s="109" t="s">
+        <v>430</v>
+      </c>
+      <c r="C113" s="3" t="s">
+        <v>431</v>
+      </c>
+      <c r="D113" s="165" t="s">
+        <v>430</v>
+      </c>
+      <c r="E113" s="38"/>
+      <c r="F113" s="2"/>
+      <c r="G113" s="2"/>
+      <c r="H113" s="2"/>
+      <c r="I113" s="2" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9" ht="50.25" customHeight="1">
+      <c r="A114" s="147">
+        <v>106</v>
+      </c>
+      <c r="B114" s="109" t="s">
+        <v>433</v>
+      </c>
+      <c r="C114" s="3" t="s">
+        <v>387</v>
+      </c>
+      <c r="D114" s="165" t="s">
+        <v>433</v>
+      </c>
+      <c r="E114" s="3" t="s">
+        <v>387</v>
+      </c>
+      <c r="F114" s="3" t="s">
+        <v>434</v>
+      </c>
+      <c r="G114" s="2"/>
+      <c r="H114" s="2" t="s">
+        <v>420</v>
+      </c>
+      <c r="I114" s="2" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9" ht="99">
+      <c r="A115" s="147">
+        <v>107</v>
+      </c>
+      <c r="B115" s="85" t="s">
+        <v>436</v>
+      </c>
+      <c r="C115" s="3" t="s">
+        <v>437</v>
+      </c>
+      <c r="D115" s="2" t="s">
+        <v>438</v>
+      </c>
+      <c r="E115" s="38" t="s">
+        <v>428</v>
+      </c>
+      <c r="F115" s="2" t="s">
+        <v>439</v>
+      </c>
+      <c r="G115" s="2"/>
+      <c r="H115" s="25" t="s">
+        <v>440</v>
+      </c>
+      <c r="I115" s="2" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9" ht="50.25" customHeight="1">
+      <c r="A116" s="149">
+        <v>108</v>
+      </c>
+      <c r="B116" s="7" t="s">
+        <v>442</v>
+      </c>
+      <c r="C116" s="2" t="s">
+        <v>409</v>
+      </c>
+      <c r="D116" s="16" t="s">
+        <v>442</v>
+      </c>
+      <c r="E116" s="3" t="s">
+        <v>443</v>
+      </c>
+      <c r="F116" s="2" t="s">
+        <v>444</v>
+      </c>
+      <c r="G116" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="B107" s="89" t="s">
-        <v>408</v>
-      </c>
-      <c r="C107" s="3" t="s">
+      <c r="H116" s="2" t="s">
+        <v>442</v>
+      </c>
+      <c r="I116" s="2" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9" ht="49.5">
+      <c r="A117" s="150">
+        <v>109</v>
+      </c>
+      <c r="B117" s="83" t="s">
+        <v>446</v>
+      </c>
+      <c r="C117" s="2" t="s">
+        <v>447</v>
+      </c>
+      <c r="D117" s="16" t="s">
+        <v>446</v>
+      </c>
+      <c r="E117" s="39" t="s">
+        <v>448</v>
+      </c>
+      <c r="F117" s="3" t="s">
+        <v>449</v>
+      </c>
+      <c r="G117" s="2" t="s">
+        <v>450</v>
+      </c>
+      <c r="H117" s="2" t="s">
+        <v>446</v>
+      </c>
+      <c r="I117" s="82" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9" ht="50.25" customHeight="1">
+      <c r="A118" s="150">
+        <v>110</v>
+      </c>
+      <c r="B118" s="83" t="s">
+        <v>452</v>
+      </c>
+      <c r="C118" s="2" t="s">
         <v>409</v>
       </c>
-      <c r="D107" s="2" t="s">
-        <v>410</v>
-      </c>
-      <c r="E107" s="38" t="s">
-        <v>411</v>
-      </c>
-      <c r="F107" s="2"/>
-      <c r="G107" s="2"/>
-      <c r="H107" s="2"/>
-      <c r="I107" s="2" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="108" spans="1:9" ht="99">
-      <c r="A108" s="154">
-        <v>98</v>
-      </c>
-      <c r="B108" s="91" t="s">
-        <v>413</v>
-      </c>
-      <c r="C108" s="3" t="s">
-        <v>414</v>
-      </c>
-      <c r="D108" s="2" t="s">
-        <v>415</v>
-      </c>
-      <c r="E108" s="38" t="s">
-        <v>411</v>
-      </c>
-      <c r="F108" s="2" t="s">
-        <v>416</v>
-      </c>
-      <c r="G108" s="2"/>
-      <c r="H108" s="25" t="s">
-        <v>417</v>
-      </c>
-      <c r="I108" s="2" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="109" spans="1:9" ht="50.25" customHeight="1">
-      <c r="A109" s="156">
-        <v>99</v>
-      </c>
-      <c r="B109" s="7" t="s">
-        <v>419</v>
-      </c>
-      <c r="C109" s="2" t="s">
-        <v>392</v>
-      </c>
-      <c r="D109" s="16" t="s">
-        <v>419</v>
-      </c>
-      <c r="E109" s="3" t="s">
-        <v>420</v>
-      </c>
-      <c r="F109" s="2" t="s">
-        <v>421</v>
-      </c>
-      <c r="G109" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="H109" s="2" t="s">
-        <v>419</v>
-      </c>
-      <c r="I109" s="2" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="110" spans="1:9" ht="66">
-      <c r="A110" s="157">
-        <v>100</v>
-      </c>
-      <c r="B110" s="7" t="s">
-        <v>423</v>
-      </c>
-      <c r="C110" s="2" t="s">
-        <v>392</v>
-      </c>
-      <c r="D110" s="16" t="s">
-        <v>423</v>
-      </c>
-      <c r="E110" s="39" t="s">
-        <v>424</v>
-      </c>
-      <c r="F110" s="3" t="s">
-        <v>425</v>
-      </c>
-      <c r="G110" s="2" t="s">
-        <v>426</v>
-      </c>
-      <c r="H110" s="2" t="s">
-        <v>423</v>
-      </c>
-      <c r="I110" s="88" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="111" spans="1:9" ht="50.25" customHeight="1">
-      <c r="A111" s="157">
-        <v>101</v>
-      </c>
-      <c r="B111" s="89" t="s">
-        <v>428</v>
-      </c>
-      <c r="C111" s="2" t="s">
-        <v>392</v>
-      </c>
-      <c r="D111" s="16" t="s">
-        <v>429</v>
-      </c>
-      <c r="E111" s="40" t="s">
-        <v>430</v>
-      </c>
-      <c r="F111" s="3" t="s">
-        <v>431</v>
-      </c>
-      <c r="G111" s="2"/>
-      <c r="H111" s="2" t="s">
-        <v>429</v>
-      </c>
-      <c r="I111" s="88" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="112" spans="1:9" ht="50.25" customHeight="1">
-      <c r="A112" s="157">
-        <v>102</v>
-      </c>
-      <c r="B112" s="7" t="s">
-        <v>433</v>
-      </c>
-      <c r="C112" s="3" t="s">
-        <v>434</v>
-      </c>
-      <c r="D112" s="33" t="s">
-        <v>433</v>
-      </c>
-      <c r="E112" s="41" t="s">
-        <v>435</v>
-      </c>
-      <c r="F112" s="3" t="s">
-        <v>436</v>
-      </c>
-      <c r="G112" s="2" t="s">
+      <c r="D118" s="16" t="s">
+        <v>453</v>
+      </c>
+      <c r="E118" s="40" t="s">
+        <v>454</v>
+      </c>
+      <c r="F118" s="3" t="s">
+        <v>455</v>
+      </c>
+      <c r="G118" s="2"/>
+      <c r="H118" s="2" t="s">
+        <v>453</v>
+      </c>
+      <c r="I118" s="82" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9" ht="50.25" customHeight="1">
+      <c r="A119" s="150">
+        <v>111</v>
+      </c>
+      <c r="B119" s="161" t="s">
+        <v>457</v>
+      </c>
+      <c r="C119" s="3" t="s">
+        <v>458</v>
+      </c>
+      <c r="D119" s="33" t="s">
+        <v>457</v>
+      </c>
+      <c r="E119" s="41" t="s">
+        <v>459</v>
+      </c>
+      <c r="F119" s="3" t="s">
+        <v>460</v>
+      </c>
+      <c r="G119" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="H112" s="2" t="s">
-        <v>433</v>
-      </c>
-      <c r="I112" s="56" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="113" spans="1:9" ht="50.25" customHeight="1">
-      <c r="A113" s="157">
-        <v>103</v>
-      </c>
-      <c r="B113" s="89" t="s">
-        <v>438</v>
-      </c>
-      <c r="C113" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="D113" s="33" t="s">
-        <v>439</v>
-      </c>
-      <c r="E113" s="42" t="s">
-        <v>440</v>
-      </c>
-      <c r="F113" s="3" t="s">
-        <v>441</v>
-      </c>
-      <c r="G113" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="H113" s="2" t="s">
-        <v>439</v>
-      </c>
-      <c r="I113" s="88" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="114" spans="1:9" ht="50.25" customHeight="1">
-      <c r="A114" s="157">
-        <v>104</v>
-      </c>
-      <c r="B114" s="7" t="s">
-        <v>443</v>
-      </c>
-      <c r="C114" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="D114" s="33" t="s">
-        <v>443</v>
-      </c>
-      <c r="E114" s="42"/>
-      <c r="F114" s="3" t="s">
-        <v>444</v>
-      </c>
-      <c r="G114" s="2" t="s">
-        <v>445</v>
-      </c>
-      <c r="H114" s="2" t="s">
-        <v>443</v>
-      </c>
-      <c r="I114" s="88" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="115" spans="1:9" ht="50.25" customHeight="1">
-      <c r="A115" s="157">
-        <v>105</v>
-      </c>
-      <c r="B115" s="7" t="s">
-        <v>447</v>
-      </c>
-      <c r="C115" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="D115" s="33" t="s">
-        <v>447</v>
-      </c>
-      <c r="E115" s="42" t="s">
-        <v>448</v>
-      </c>
-      <c r="F115" s="3" t="s">
-        <v>449</v>
-      </c>
-      <c r="G115" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="H115" s="2" t="s">
-        <v>447</v>
-      </c>
-      <c r="I115" s="88" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="116" spans="1:9" ht="50.25" customHeight="1">
-      <c r="A116" s="157">
-        <v>106</v>
-      </c>
-      <c r="B116" s="7" t="s">
-        <v>451</v>
-      </c>
-      <c r="C116" s="2" t="s">
-        <v>452</v>
-      </c>
-      <c r="D116" s="16" t="s">
-        <v>451</v>
-      </c>
-      <c r="E116" s="42" t="s">
-        <v>453</v>
-      </c>
-      <c r="F116" s="3" t="s">
-        <v>454</v>
-      </c>
-      <c r="G116" s="2"/>
-      <c r="H116" s="25" t="s">
-        <v>455</v>
-      </c>
-      <c r="I116" s="88" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="117" spans="1:9" ht="50.25" customHeight="1">
-      <c r="A117" s="157">
-        <v>107</v>
-      </c>
-      <c r="B117" s="89" t="s">
+      <c r="H119" s="2" t="s">
         <v>457</v>
       </c>
-      <c r="C117" s="3" t="s">
-        <v>458</v>
-      </c>
-      <c r="D117" s="16" t="s">
-        <v>457</v>
-      </c>
-      <c r="E117" s="42" t="s">
-        <v>459</v>
-      </c>
-      <c r="F117" s="3" t="s">
-        <v>460</v>
-      </c>
-      <c r="G117" s="2"/>
-      <c r="H117" s="27" t="s">
-        <v>429</v>
-      </c>
-      <c r="I117" s="88" t="s">
+      <c r="I119" s="54" t="s">
         <v>461</v>
       </c>
     </row>
-    <row r="118" spans="1:9" ht="50.25" customHeight="1">
-      <c r="A118" s="157">
-        <v>108</v>
-      </c>
-      <c r="B118" s="7" t="s">
+    <row r="120" spans="1:9" ht="50.25" customHeight="1">
+      <c r="A120" s="150">
+        <v>112</v>
+      </c>
+      <c r="B120" s="83" t="s">
         <v>462</v>
       </c>
-      <c r="C118" s="2" t="s">
+      <c r="C120" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="D120" s="33" t="s">
         <v>463</v>
       </c>
-      <c r="D118" s="16" t="s">
-        <v>462</v>
-      </c>
-      <c r="E118" s="42" t="s">
-        <v>459</v>
-      </c>
-      <c r="F118" s="3" t="s">
+      <c r="E120" s="42" t="s">
         <v>464</v>
       </c>
-      <c r="G118" s="2"/>
-      <c r="H118" s="27" t="s">
-        <v>443</v>
-      </c>
-      <c r="I118" s="88" t="s">
+      <c r="F120" s="3" t="s">
         <v>465</v>
-      </c>
-    </row>
-    <row r="119" spans="1:9" ht="50.25" customHeight="1">
-      <c r="A119" s="158">
-        <v>109</v>
-      </c>
-      <c r="B119" s="119" t="s">
-        <v>466</v>
-      </c>
-      <c r="C119" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="D119" s="16" t="s">
-        <v>466</v>
-      </c>
-      <c r="E119" s="43" t="s">
-        <v>420</v>
-      </c>
-      <c r="F119" s="3" t="s">
-        <v>467</v>
-      </c>
-      <c r="G119" s="2" t="s">
-        <v>426</v>
-      </c>
-      <c r="H119" s="2" t="s">
-        <v>466</v>
-      </c>
-      <c r="I119" s="88" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="120" spans="1:9" ht="50.25" customHeight="1">
-      <c r="A120" s="158">
-        <v>110</v>
-      </c>
-      <c r="B120" s="120" t="s">
-        <v>469</v>
-      </c>
-      <c r="C120" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="D120" s="108" t="s">
-        <v>469</v>
-      </c>
-      <c r="E120" s="2"/>
-      <c r="F120" s="2" t="s">
-        <v>470</v>
       </c>
       <c r="G120" s="2" t="s">
         <v>55</v>
       </c>
       <c r="H120" s="2" t="s">
+        <v>463</v>
+      </c>
+      <c r="I120" s="82" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9" ht="50.25" customHeight="1">
+      <c r="A121" s="150">
+        <v>113</v>
+      </c>
+      <c r="B121" s="83" t="s">
+        <v>467</v>
+      </c>
+      <c r="C121" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="D121" s="33" t="s">
+        <v>467</v>
+      </c>
+      <c r="E121" s="42"/>
+      <c r="F121" s="3" t="s">
+        <v>468</v>
+      </c>
+      <c r="G121" s="2" t="s">
         <v>469</v>
       </c>
-      <c r="I120" s="88" t="s">
+      <c r="H121" s="2" t="s">
+        <v>467</v>
+      </c>
+      <c r="I121" s="82" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9" ht="50.25" customHeight="1">
+      <c r="A122" s="150">
+        <v>114</v>
+      </c>
+      <c r="B122" s="83" t="s">
         <v>471</v>
       </c>
-    </row>
-    <row r="121" spans="1:9" ht="50.25" customHeight="1">
-      <c r="A121" s="158">
-        <v>111</v>
-      </c>
-      <c r="B121" s="120" t="s">
+      <c r="C122" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="D122" s="33" t="s">
+        <v>471</v>
+      </c>
+      <c r="E122" s="42" t="s">
         <v>472</v>
       </c>
-      <c r="C121" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="D121" s="108" t="s">
+      <c r="F122" s="3" t="s">
         <v>473</v>
       </c>
-      <c r="E121" s="2"/>
-      <c r="F121" s="2"/>
-      <c r="G121" s="2"/>
-      <c r="H121" s="2" t="s">
-        <v>472</v>
-      </c>
-      <c r="I121" s="88" t="s">
+      <c r="G122" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="H122" s="2" t="s">
+        <v>471</v>
+      </c>
+      <c r="I122" s="82" t="s">
         <v>474</v>
       </c>
     </row>
-    <row r="122" spans="1:9" ht="50.25" customHeight="1">
-      <c r="A122" s="158">
-        <v>112</v>
-      </c>
-      <c r="B122" s="120" t="s">
+    <row r="123" spans="1:9" ht="50.25" customHeight="1">
+      <c r="A123" s="150">
+        <v>115</v>
+      </c>
+      <c r="B123" s="83" t="s">
         <v>475</v>
       </c>
-      <c r="C122" s="3" t="s">
+      <c r="C123" s="3" t="s">
         <v>476</v>
       </c>
-      <c r="D122" s="2" t="s">
+      <c r="D123" s="16" t="s">
+        <v>475</v>
+      </c>
+      <c r="E123" s="42" t="s">
         <v>477</v>
       </c>
-      <c r="E122" s="3" t="s">
+      <c r="F123" s="3" t="s">
         <v>478</v>
       </c>
-      <c r="F122" s="3" t="s">
+      <c r="G123" s="2"/>
+      <c r="H123" s="25" t="s">
         <v>479</v>
       </c>
-      <c r="G122" s="2"/>
-      <c r="H122" s="56" t="s">
+      <c r="I123" s="82" t="s">
         <v>480</v>
       </c>
-      <c r="I122" s="88" t="s">
+    </row>
+    <row r="124" spans="1:9" ht="50.25" customHeight="1">
+      <c r="A124" s="150">
+        <v>116</v>
+      </c>
+      <c r="B124" s="83" t="s">
         <v>481</v>
       </c>
-    </row>
-    <row r="123" spans="1:9" ht="50.25" customHeight="1">
-      <c r="A123" s="158">
-        <v>113</v>
-      </c>
-      <c r="B123" s="120" t="s">
+      <c r="C124" s="3" t="s">
+        <v>476</v>
+      </c>
+      <c r="D124" s="16" t="s">
+        <v>481</v>
+      </c>
+      <c r="E124" s="42" t="s">
+        <v>477</v>
+      </c>
+      <c r="F124" s="3" t="s">
         <v>482</v>
       </c>
-      <c r="C123" s="2" t="s">
+      <c r="G124" s="2"/>
+      <c r="H124" s="27" t="s">
+        <v>453</v>
+      </c>
+      <c r="I124" s="82" t="s">
         <v>483</v>
       </c>
-      <c r="D123" s="2" t="s">
+    </row>
+    <row r="125" spans="1:9" ht="50.25" customHeight="1">
+      <c r="A125" s="150">
+        <v>117</v>
+      </c>
+      <c r="B125" s="83" t="s">
         <v>484</v>
       </c>
-      <c r="E123" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="F123" s="3" t="s">
+      <c r="C125" s="2" t="s">
         <v>485</v>
       </c>
-      <c r="G123" s="2"/>
-      <c r="H123" s="104" t="s">
-        <v>466</v>
-      </c>
-      <c r="I123" s="88" t="s">
+      <c r="D125" s="16" t="s">
+        <v>484</v>
+      </c>
+      <c r="E125" s="42" t="s">
+        <v>477</v>
+      </c>
+      <c r="F125" s="3" t="s">
         <v>486</v>
       </c>
-    </row>
-    <row r="124" spans="1:9" ht="50.25" customHeight="1">
-      <c r="A124" s="158">
-        <v>114</v>
-      </c>
-      <c r="B124" s="120" t="s">
+      <c r="G125" s="2"/>
+      <c r="H125" s="27" t="s">
+        <v>467</v>
+      </c>
+      <c r="I125" s="82" t="s">
         <v>487</v>
       </c>
-      <c r="C124" s="3" t="s">
+    </row>
+    <row r="126" spans="1:9" ht="50.25" customHeight="1">
+      <c r="A126" s="151">
+        <v>118</v>
+      </c>
+      <c r="B126" s="113" t="s">
         <v>488</v>
       </c>
-      <c r="D124" s="2" t="s">
+      <c r="C126" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="D126" s="16" t="s">
+        <v>488</v>
+      </c>
+      <c r="E126" s="43" t="s">
+        <v>443</v>
+      </c>
+      <c r="F126" s="3" t="s">
         <v>489</v>
       </c>
-      <c r="E124" s="3"/>
-      <c r="F124" s="3" t="s">
+      <c r="G126" s="2" t="s">
+        <v>450</v>
+      </c>
+      <c r="H126" s="2" t="s">
+        <v>488</v>
+      </c>
+      <c r="I126" s="82" t="s">
         <v>490</v>
       </c>
-      <c r="G124" s="2"/>
-      <c r="H124" s="104" t="s">
-        <v>469</v>
-      </c>
-      <c r="I124" s="88" t="s">
+    </row>
+    <row r="127" spans="1:9" ht="50.25" customHeight="1">
+      <c r="A127" s="151">
+        <v>119</v>
+      </c>
+      <c r="B127" s="114" t="s">
         <v>491</v>
       </c>
-    </row>
-    <row r="125" spans="1:9" ht="50.25" customHeight="1">
-      <c r="A125" s="158">
-        <v>115</v>
-      </c>
-      <c r="B125" s="120" t="s">
+      <c r="C127" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="D127" s="102" t="s">
+        <v>491</v>
+      </c>
+      <c r="E127" s="2"/>
+      <c r="F127" s="2" t="s">
         <v>492</v>
-      </c>
-      <c r="C125" s="2" t="s">
-        <v>493</v>
-      </c>
-      <c r="D125" s="2" t="s">
-        <v>494</v>
-      </c>
-      <c r="E125" s="2"/>
-      <c r="F125" s="2" t="s">
-        <v>495</v>
-      </c>
-      <c r="G125" s="2"/>
-      <c r="H125" s="104" t="s">
-        <v>469</v>
-      </c>
-      <c r="I125" s="88" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="126" spans="1:9" ht="50.25" customHeight="1">
-      <c r="A126" s="158">
-        <v>116</v>
-      </c>
-      <c r="B126" s="120" t="s">
-        <v>497</v>
-      </c>
-      <c r="C126" s="3" t="s">
-        <v>498</v>
-      </c>
-      <c r="D126" s="2" t="s">
-        <v>499</v>
-      </c>
-      <c r="E126" s="3" t="s">
-        <v>500</v>
-      </c>
-      <c r="F126" s="2" t="s">
-        <v>501</v>
-      </c>
-      <c r="G126" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="H126" s="2" t="s">
-        <v>499</v>
-      </c>
-      <c r="I126" s="88" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="127" spans="1:9" ht="50.25" customHeight="1">
-      <c r="A127" s="158">
-        <v>117</v>
-      </c>
-      <c r="B127" s="120" t="s">
-        <v>503</v>
-      </c>
-      <c r="C127" s="3" t="s">
-        <v>504</v>
-      </c>
-      <c r="D127" s="134" t="s">
-        <v>505</v>
-      </c>
-      <c r="E127" s="3" t="s">
-        <v>506</v>
-      </c>
-      <c r="F127" s="2" t="s">
-        <v>507</v>
       </c>
       <c r="G127" s="2" t="s">
         <v>55</v>
       </c>
       <c r="H127" s="2" t="s">
-        <v>505</v>
-      </c>
-      <c r="I127" s="88" t="s">
-        <v>508</v>
+        <v>491</v>
+      </c>
+      <c r="I127" s="82" t="s">
+        <v>493</v>
       </c>
     </row>
     <row r="128" spans="1:9" ht="50.25" customHeight="1">
-      <c r="A128" s="158">
-        <v>118</v>
-      </c>
-      <c r="B128" s="120" t="s">
-        <v>509</v>
-      </c>
-      <c r="C128" s="3" t="s">
-        <v>510</v>
-      </c>
-      <c r="D128" s="134" t="s">
-        <v>509</v>
-      </c>
-      <c r="E128" s="3"/>
+      <c r="A128" s="151">
+        <v>120</v>
+      </c>
+      <c r="B128" s="114" t="s">
+        <v>494</v>
+      </c>
+      <c r="C128" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="D128" s="102" t="s">
+        <v>495</v>
+      </c>
+      <c r="E128" s="2"/>
       <c r="F128" s="2"/>
       <c r="G128" s="2"/>
       <c r="H128" s="2" t="s">
+        <v>494</v>
+      </c>
+      <c r="I128" s="82" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9" ht="50.25" customHeight="1">
+      <c r="A129" s="151">
+        <v>121</v>
+      </c>
+      <c r="B129" s="114" t="s">
+        <v>497</v>
+      </c>
+      <c r="C129" s="3" t="s">
+        <v>498</v>
+      </c>
+      <c r="D129" s="2" t="s">
+        <v>499</v>
+      </c>
+      <c r="E129" s="3" t="s">
+        <v>500</v>
+      </c>
+      <c r="F129" s="3" t="s">
+        <v>501</v>
+      </c>
+      <c r="G129" s="2"/>
+      <c r="H129" s="54" t="s">
+        <v>502</v>
+      </c>
+      <c r="I129" s="82" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9" ht="50.25" customHeight="1">
+      <c r="A130" s="151">
+        <v>122</v>
+      </c>
+      <c r="B130" s="114" t="s">
+        <v>504</v>
+      </c>
+      <c r="C130" s="2" t="s">
+        <v>505</v>
+      </c>
+      <c r="D130" s="2" t="s">
+        <v>506</v>
+      </c>
+      <c r="E130" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="F130" s="3" t="s">
+        <v>507</v>
+      </c>
+      <c r="G130" s="2"/>
+      <c r="H130" s="98" t="s">
+        <v>488</v>
+      </c>
+      <c r="I130" s="82" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9" ht="50.25" customHeight="1">
+      <c r="A131" s="151">
+        <v>123</v>
+      </c>
+      <c r="B131" s="114" t="s">
         <v>509</v>
       </c>
-      <c r="I128" s="88" t="s">
+      <c r="C131" s="3" t="s">
+        <v>510</v>
+      </c>
+      <c r="D131" s="2" t="s">
         <v>511</v>
       </c>
-    </row>
-    <row r="129" spans="1:9" ht="50.25" customHeight="1">
-      <c r="A129" s="158">
-        <v>119</v>
-      </c>
-      <c r="B129" s="120" t="s">
+      <c r="E131" s="3"/>
+      <c r="F131" s="3" t="s">
         <v>512</v>
       </c>
-      <c r="C129" s="3" t="s">
+      <c r="G131" s="2"/>
+      <c r="H131" s="98" t="s">
+        <v>491</v>
+      </c>
+      <c r="I131" s="82" t="s">
         <v>513</v>
       </c>
-      <c r="D129" s="2" t="s">
+    </row>
+    <row r="132" spans="1:9" ht="50.25" customHeight="1">
+      <c r="A132" s="151">
+        <v>124</v>
+      </c>
+      <c r="B132" s="114" t="s">
         <v>514</v>
       </c>
-      <c r="E129" s="3" t="s">
-        <v>478</v>
-      </c>
-      <c r="F129" s="2" t="s">
-        <v>479</v>
-      </c>
-      <c r="G129" s="2"/>
-      <c r="H129" s="104" t="s">
-        <v>509</v>
-      </c>
-      <c r="I129" s="88" t="s">
+      <c r="C132" s="2" t="s">
         <v>515</v>
       </c>
-    </row>
-    <row r="130" spans="1:9" ht="50.25" customHeight="1">
-      <c r="A130" s="158">
-        <v>120</v>
-      </c>
-      <c r="B130" s="130" t="s">
+      <c r="D132" s="2" t="s">
         <v>516</v>
       </c>
-      <c r="C130" s="3" t="s">
-        <v>510</v>
-      </c>
-      <c r="D130" s="2" t="s">
-        <v>516</v>
-      </c>
-      <c r="E130" s="3" t="s">
-        <v>510</v>
-      </c>
-      <c r="F130" s="2" t="s">
+      <c r="E132" s="2"/>
+      <c r="F132" s="2" t="s">
         <v>517</v>
       </c>
-      <c r="G130" s="2"/>
-      <c r="H130" s="104" t="s">
-        <v>499</v>
-      </c>
-      <c r="I130" s="88" t="s">
+      <c r="G132" s="2"/>
+      <c r="H132" s="98" t="s">
+        <v>491</v>
+      </c>
+      <c r="I132" s="82" t="s">
         <v>518</v>
       </c>
     </row>
-    <row r="131" spans="1:9" ht="50.25" customHeight="1">
-      <c r="A131" s="158">
-        <v>121</v>
-      </c>
-      <c r="B131" s="120" t="s">
+    <row r="133" spans="1:9" ht="50.25" customHeight="1">
+      <c r="A133" s="151">
+        <v>125</v>
+      </c>
+      <c r="B133" s="114" t="s">
         <v>519</v>
       </c>
-      <c r="C131" s="3" t="s">
+      <c r="C133" s="3" t="s">
         <v>520</v>
       </c>
-      <c r="D131" s="2" t="s">
+      <c r="D133" s="2" t="s">
         <v>521</v>
       </c>
-      <c r="E131" s="3" t="s">
+      <c r="E133" s="3" t="s">
         <v>522</v>
       </c>
-      <c r="F131" s="2" t="s">
+      <c r="F133" s="2" t="s">
+        <v>523</v>
+      </c>
+      <c r="G133" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="H133" s="2" t="s">
+        <v>521</v>
+      </c>
+      <c r="I133" s="82" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9" ht="50.25" customHeight="1">
+      <c r="A134" s="151">
+        <v>126</v>
+      </c>
+      <c r="B134" s="114" t="s">
+        <v>525</v>
+      </c>
+      <c r="C134" s="3" t="s">
+        <v>526</v>
+      </c>
+      <c r="D134" s="128" t="s">
+        <v>527</v>
+      </c>
+      <c r="E134" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="F134" s="2" t="s">
+        <v>528</v>
+      </c>
+      <c r="G134" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="H134" s="2" t="s">
+        <v>527</v>
+      </c>
+      <c r="I134" s="82" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9" ht="50.25" customHeight="1">
+      <c r="A135" s="151">
+        <v>127</v>
+      </c>
+      <c r="B135" s="114" t="s">
+        <v>530</v>
+      </c>
+      <c r="C135" s="3" t="s">
+        <v>531</v>
+      </c>
+      <c r="D135" s="128" t="s">
+        <v>530</v>
+      </c>
+      <c r="E135" s="3"/>
+      <c r="F135" s="2"/>
+      <c r="G135" s="2"/>
+      <c r="H135" s="2" t="s">
+        <v>530</v>
+      </c>
+      <c r="I135" s="82" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9" ht="50.25" customHeight="1">
+      <c r="A136" s="151">
+        <v>128</v>
+      </c>
+      <c r="B136" s="114" t="s">
+        <v>533</v>
+      </c>
+      <c r="C136" s="3" t="s">
+        <v>534</v>
+      </c>
+      <c r="D136" s="2" t="s">
+        <v>535</v>
+      </c>
+      <c r="E136" s="3" t="s">
+        <v>500</v>
+      </c>
+      <c r="F136" s="2" t="s">
         <v>501</v>
       </c>
-      <c r="G131" s="2" t="s">
+      <c r="G136" s="2"/>
+      <c r="H136" s="98" t="s">
+        <v>530</v>
+      </c>
+      <c r="I136" s="82" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9" ht="50.25" customHeight="1">
+      <c r="A137" s="151">
+        <v>129</v>
+      </c>
+      <c r="B137" s="124" t="s">
+        <v>537</v>
+      </c>
+      <c r="C137" s="3" t="s">
+        <v>531</v>
+      </c>
+      <c r="D137" s="2" t="s">
+        <v>537</v>
+      </c>
+      <c r="E137" s="3" t="s">
+        <v>531</v>
+      </c>
+      <c r="F137" s="2" t="s">
+        <v>538</v>
+      </c>
+      <c r="G137" s="2"/>
+      <c r="H137" s="98" t="s">
+        <v>521</v>
+      </c>
+      <c r="I137" s="82" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9" ht="50.25" customHeight="1">
+      <c r="A138" s="151">
+        <v>130</v>
+      </c>
+      <c r="B138" s="114" t="s">
+        <v>540</v>
+      </c>
+      <c r="C138" s="3" t="s">
+        <v>541</v>
+      </c>
+      <c r="D138" s="2" t="s">
+        <v>542</v>
+      </c>
+      <c r="E138" s="3" t="s">
+        <v>543</v>
+      </c>
+      <c r="F138" s="2" t="s">
         <v>523</v>
       </c>
-      <c r="H131" s="2" t="s">
-        <v>521</v>
-      </c>
-      <c r="I131" s="88" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="132" spans="1:9" ht="50.25" customHeight="1">
-      <c r="A132" s="158">
-        <v>122</v>
-      </c>
-      <c r="B132" s="120" t="s">
-        <v>525</v>
-      </c>
-      <c r="C132" s="3" t="s">
-        <v>504</v>
-      </c>
-      <c r="D132" s="134" t="s">
+      <c r="G138" s="2" t="s">
+        <v>544</v>
+      </c>
+      <c r="H138" s="2" t="s">
+        <v>542</v>
+      </c>
+      <c r="I138" s="82" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9" ht="50.25" customHeight="1">
+      <c r="A139" s="151">
+        <v>131</v>
+      </c>
+      <c r="B139" s="114" t="s">
+        <v>546</v>
+      </c>
+      <c r="C139" s="3" t="s">
         <v>526</v>
       </c>
-      <c r="E132" s="3" t="s">
-        <v>506</v>
-      </c>
-      <c r="F132" s="2" t="s">
-        <v>507</v>
-      </c>
-      <c r="G132" s="2" t="s">
-        <v>426</v>
-      </c>
-      <c r="H132" s="56" t="s">
-        <v>526</v>
-      </c>
-      <c r="I132" s="88" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="133" spans="1:9" ht="50.25" customHeight="1">
-      <c r="A133" s="158">
-        <v>123</v>
-      </c>
-      <c r="B133" s="131" t="s">
+      <c r="D139" s="128" t="s">
+        <v>547</v>
+      </c>
+      <c r="E139" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="F139" s="2" t="s">
         <v>528</v>
       </c>
-      <c r="C133" s="39" t="s">
-        <v>510</v>
-      </c>
-      <c r="D133" s="135" t="s">
-        <v>528</v>
-      </c>
-      <c r="E133" s="39"/>
-      <c r="F133" s="46"/>
-      <c r="G133" s="46"/>
-      <c r="H133" s="58" t="s">
-        <v>528</v>
-      </c>
-      <c r="I133" s="129" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="134" spans="1:9" ht="50.25" customHeight="1">
-      <c r="A134" s="158">
-        <v>124</v>
-      </c>
-      <c r="B134" s="132" t="s">
-        <v>530</v>
-      </c>
-      <c r="C134" s="45" t="s">
-        <v>513</v>
-      </c>
-      <c r="D134" s="44" t="s">
-        <v>530</v>
-      </c>
-      <c r="E134" s="45" t="s">
-        <v>478</v>
-      </c>
-      <c r="F134" s="44" t="s">
-        <v>479</v>
-      </c>
-      <c r="G134" s="44"/>
-      <c r="H134" s="133" t="s">
-        <v>528</v>
-      </c>
-      <c r="I134" s="98" t="s">
+      <c r="G139" s="2" t="s">
+        <v>450</v>
+      </c>
+      <c r="H139" s="54" t="s">
+        <v>547</v>
+      </c>
+      <c r="I139" s="82" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="140" spans="1:9" ht="50.25" customHeight="1">
+      <c r="A140" s="151">
+        <v>132</v>
+      </c>
+      <c r="B140" s="125" t="s">
+        <v>549</v>
+      </c>
+      <c r="C140" s="39" t="s">
         <v>531</v>
       </c>
-    </row>
-    <row r="135" spans="1:9" ht="50.25" customHeight="1">
-      <c r="A135" s="158">
-        <v>125</v>
-      </c>
-      <c r="B135" s="132" t="s">
-        <v>532</v>
-      </c>
-      <c r="C135" s="45" t="s">
-        <v>510</v>
-      </c>
-      <c r="D135" s="44" t="s">
-        <v>533</v>
-      </c>
-      <c r="E135" s="45" t="s">
-        <v>136</v>
-      </c>
-      <c r="F135" s="44" t="s">
-        <v>534</v>
-      </c>
-      <c r="G135" s="44"/>
-      <c r="H135" s="133" t="s">
-        <v>519</v>
-      </c>
-      <c r="I135" s="98" t="s">
-        <v>535</v>
-      </c>
-    </row>
-    <row r="136" spans="1:9" ht="50.25" customHeight="1">
-      <c r="A136" s="159" t="s">
-        <v>536</v>
-      </c>
-      <c r="B136" s="111" t="s">
-        <v>537</v>
-      </c>
-      <c r="C136" s="43" t="s">
-        <v>129</v>
-      </c>
-      <c r="D136" s="4" t="s">
-        <v>537</v>
-      </c>
-      <c r="E136" s="43" t="s">
-        <v>538</v>
-      </c>
-      <c r="F136" s="4" t="s">
-        <v>539</v>
-      </c>
-      <c r="G136" s="4" t="s">
-        <v>540</v>
-      </c>
-      <c r="H136" s="4" t="s">
-        <v>537</v>
-      </c>
-      <c r="I136" s="4" t="s">
-        <v>541</v>
-      </c>
-    </row>
-    <row r="137" spans="1:9" ht="50.25" customHeight="1">
-      <c r="A137" s="160">
-        <v>127</v>
-      </c>
-      <c r="B137" s="111" t="s">
-        <v>542</v>
-      </c>
-      <c r="C137" s="43"/>
-      <c r="D137" s="61" t="s">
-        <v>543</v>
-      </c>
-      <c r="E137" s="43"/>
-      <c r="F137" s="4"/>
-      <c r="G137" s="4"/>
-      <c r="H137" s="4" t="s">
-        <v>542</v>
-      </c>
-      <c r="I137" s="4" t="s">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="138" spans="1:9" ht="33">
-      <c r="A138" s="160">
-        <v>128</v>
-      </c>
-      <c r="B138" s="111" t="s">
-        <v>545</v>
-      </c>
-      <c r="C138" s="43" t="s">
-        <v>546</v>
-      </c>
-      <c r="D138" s="4" t="s">
-        <v>547</v>
-      </c>
-      <c r="E138" s="43" t="s">
-        <v>548</v>
-      </c>
-      <c r="F138" s="4" t="s">
+      <c r="D140" s="129" t="s">
         <v>549</v>
-      </c>
-      <c r="G138" s="4"/>
-      <c r="H138" s="60" t="s">
-        <v>537</v>
-      </c>
-      <c r="I138" s="4" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="139" spans="1:9" ht="50.25" customHeight="1">
-      <c r="A139" s="160">
-        <v>129</v>
-      </c>
-      <c r="B139" s="91" t="s">
-        <v>551</v>
-      </c>
-      <c r="C139" s="3" t="s">
-        <v>552</v>
-      </c>
-      <c r="D139" s="32" t="s">
-        <v>553</v>
-      </c>
-      <c r="E139" s="3" t="s">
-        <v>554</v>
-      </c>
-      <c r="F139" s="2" t="s">
-        <v>555</v>
-      </c>
-      <c r="G139" s="2" t="s">
-        <v>556</v>
-      </c>
-      <c r="H139" s="2" t="s">
-        <v>551</v>
-      </c>
-      <c r="I139" s="2" t="s">
-        <v>557</v>
-      </c>
-    </row>
-    <row r="140" spans="1:9" ht="66">
-      <c r="A140" s="160">
-        <v>130</v>
-      </c>
-      <c r="B140" s="116" t="s">
-        <v>558</v>
-      </c>
-      <c r="C140" s="39" t="s">
-        <v>559</v>
-      </c>
-      <c r="D140" s="58" t="s">
-        <v>558</v>
       </c>
       <c r="E140" s="39"/>
       <c r="F140" s="46"/>
       <c r="G140" s="46"/>
-      <c r="H140" s="2" t="s">
+      <c r="H140" s="55" t="s">
+        <v>549</v>
+      </c>
+      <c r="I140" s="123" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="141" spans="1:9" ht="50.25" customHeight="1">
+      <c r="A141" s="151">
+        <v>133</v>
+      </c>
+      <c r="B141" s="126" t="s">
+        <v>551</v>
+      </c>
+      <c r="C141" s="45" t="s">
+        <v>534</v>
+      </c>
+      <c r="D141" s="44" t="s">
+        <v>551</v>
+      </c>
+      <c r="E141" s="45" t="s">
+        <v>500</v>
+      </c>
+      <c r="F141" s="44" t="s">
+        <v>501</v>
+      </c>
+      <c r="G141" s="44"/>
+      <c r="H141" s="127" t="s">
+        <v>549</v>
+      </c>
+      <c r="I141" s="92" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="142" spans="1:9" ht="50.25" customHeight="1">
+      <c r="A142" s="151">
+        <v>134</v>
+      </c>
+      <c r="B142" s="126" t="s">
+        <v>553</v>
+      </c>
+      <c r="C142" s="45" t="s">
+        <v>531</v>
+      </c>
+      <c r="D142" s="44" t="s">
+        <v>554</v>
+      </c>
+      <c r="E142" s="45" t="s">
+        <v>531</v>
+      </c>
+      <c r="F142" s="44" t="s">
+        <v>555</v>
+      </c>
+      <c r="G142" s="44"/>
+      <c r="H142" s="127" t="s">
+        <v>540</v>
+      </c>
+      <c r="I142" s="92" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="143" spans="1:9" ht="50.25" customHeight="1">
+      <c r="A143" s="152">
+        <v>135</v>
+      </c>
+      <c r="B143" s="105" t="s">
+        <v>557</v>
+      </c>
+      <c r="C143" s="43" t="s">
+        <v>133</v>
+      </c>
+      <c r="D143" s="4" t="s">
+        <v>557</v>
+      </c>
+      <c r="E143" s="43" t="s">
         <v>558</v>
       </c>
-      <c r="I140" s="2" t="s">
+      <c r="F143" s="4" t="s">
+        <v>559</v>
+      </c>
+      <c r="G143" s="4" t="s">
         <v>560</v>
       </c>
-    </row>
-    <row r="141" spans="1:9" ht="50.25" customHeight="1">
-      <c r="A141" s="160">
-        <v>131</v>
-      </c>
-      <c r="B141" s="118" t="s">
+      <c r="H143" s="4" t="s">
+        <v>557</v>
+      </c>
+      <c r="I143" s="4" t="s">
         <v>561</v>
       </c>
-      <c r="C141" s="51" t="s">
-        <v>552</v>
-      </c>
-      <c r="D141" s="48" t="s">
+    </row>
+    <row r="144" spans="1:9" ht="50.25" customHeight="1">
+      <c r="A144" s="152">
+        <v>136</v>
+      </c>
+      <c r="B144" s="105" t="s">
         <v>562</v>
       </c>
-      <c r="E141" s="51" t="s">
+      <c r="C144" s="43"/>
+      <c r="D144" s="58" t="s">
         <v>563</v>
       </c>
-      <c r="F141" s="48" t="s">
+      <c r="E144" s="43"/>
+      <c r="F144" s="4"/>
+      <c r="G144" s="4"/>
+      <c r="H144" s="4" t="s">
+        <v>562</v>
+      </c>
+      <c r="I144" s="4" t="s">
         <v>564</v>
       </c>
-      <c r="G141" s="48"/>
-      <c r="H141" s="65" t="s">
-        <v>551</v>
-      </c>
-      <c r="I141" s="2" t="s">
+    </row>
+    <row r="145" spans="1:9" ht="33">
+      <c r="A145" s="152">
+        <v>137</v>
+      </c>
+      <c r="B145" s="105" t="s">
         <v>565</v>
       </c>
-    </row>
-    <row r="142" spans="1:9" ht="50.25" customHeight="1">
-      <c r="A142" s="160">
-        <v>132</v>
-      </c>
-      <c r="B142" s="118" t="s">
+      <c r="C145" s="43" t="s">
         <v>566</v>
       </c>
-      <c r="C142" s="51"/>
-      <c r="D142" s="62" t="s">
+      <c r="D145" s="4" t="s">
         <v>567</v>
       </c>
-      <c r="E142" s="51"/>
-      <c r="F142" s="48"/>
-      <c r="G142" s="48"/>
-      <c r="H142" s="66" t="s">
-        <v>567</v>
-      </c>
-      <c r="I142" s="46" t="s">
+      <c r="E145" s="43" t="s">
         <v>568</v>
       </c>
-    </row>
-    <row r="143" spans="1:9" ht="50.25" customHeight="1">
-      <c r="A143" s="160">
-        <v>133</v>
-      </c>
-      <c r="B143" s="168" t="s">
+      <c r="F145" s="4" t="s">
         <v>569</v>
       </c>
-      <c r="C143" s="23" t="s">
+      <c r="G145" s="4"/>
+      <c r="H145" s="57" t="s">
+        <v>557</v>
+      </c>
+      <c r="I145" s="4" t="s">
         <v>570</v>
       </c>
-      <c r="D143" s="23" t="s">
+    </row>
+    <row r="146" spans="1:9" ht="50.25" customHeight="1">
+      <c r="A146" s="152">
+        <v>138</v>
+      </c>
+      <c r="B146" s="85" t="s">
         <v>571</v>
       </c>
-      <c r="E143" s="12" t="s">
-        <v>554</v>
-      </c>
-      <c r="F143" s="23" t="s">
+      <c r="C146" s="3" t="s">
         <v>572</v>
       </c>
-      <c r="G143" s="72"/>
-      <c r="H143" s="59" t="s">
-        <v>537</v>
-      </c>
-      <c r="I143" s="46" t="s">
+      <c r="D146" s="32" t="s">
         <v>573</v>
       </c>
-    </row>
-    <row r="144" spans="1:9" ht="50.25" customHeight="1">
-      <c r="A144" s="160">
-        <v>134</v>
-      </c>
-      <c r="B144" s="118" t="s">
+      <c r="E146" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="F146" s="2" t="s">
         <v>574</v>
       </c>
-      <c r="C144" s="63" t="s">
+      <c r="G146" s="2" t="s">
         <v>575</v>
       </c>
-      <c r="D144" s="48" t="s">
+      <c r="H146" s="2" t="s">
+        <v>571</v>
+      </c>
+      <c r="I146" s="2" t="s">
         <v>576</v>
       </c>
-      <c r="E144" s="69"/>
-      <c r="F144" s="49" t="s">
+    </row>
+    <row r="147" spans="1:9" ht="66">
+      <c r="A147" s="152">
+        <v>139</v>
+      </c>
+      <c r="B147" s="110" t="s">
         <v>577</v>
       </c>
-      <c r="G144" s="73"/>
-      <c r="H144" s="64"/>
-      <c r="I144" s="2" t="s">
+      <c r="C147" s="39" t="s">
         <v>578</v>
       </c>
-    </row>
-    <row r="145" spans="1:9" ht="50.25" customHeight="1">
-      <c r="A145" s="154">
-        <v>135</v>
-      </c>
-      <c r="B145" s="121" t="s">
+      <c r="D147" s="55" t="s">
+        <v>577</v>
+      </c>
+      <c r="E147" s="39"/>
+      <c r="F147" s="46"/>
+      <c r="G147" s="46"/>
+      <c r="H147" s="2" t="s">
+        <v>577</v>
+      </c>
+      <c r="I147" s="2" t="s">
         <v>579</v>
       </c>
-      <c r="C145" s="48"/>
-      <c r="D145" s="68" t="s">
-        <v>579</v>
-      </c>
-      <c r="E145" s="43"/>
-      <c r="F145" s="48" t="s">
+    </row>
+    <row r="148" spans="1:9" ht="50.25" customHeight="1">
+      <c r="A148" s="152">
+        <v>140</v>
+      </c>
+      <c r="B148" s="112" t="s">
         <v>580</v>
       </c>
-      <c r="G145" s="47" t="s">
+      <c r="C148" s="51" t="s">
+        <v>572</v>
+      </c>
+      <c r="D148" s="48" t="s">
         <v>581</v>
       </c>
-      <c r="H145" s="47" t="s">
-        <v>579</v>
-      </c>
-      <c r="I145" s="50" t="s">
+      <c r="E148" s="51" t="s">
         <v>582</v>
       </c>
-    </row>
-    <row r="146" spans="1:9" ht="50.25" customHeight="1">
-      <c r="A146" s="154">
-        <v>136</v>
-      </c>
-      <c r="B146" s="121" t="s">
+      <c r="F148" s="48" t="s">
         <v>583</v>
       </c>
-      <c r="C146" s="70" t="s">
+      <c r="G148" s="48"/>
+      <c r="H148" s="62" t="s">
+        <v>571</v>
+      </c>
+      <c r="I148" s="2" t="s">
         <v>584</v>
       </c>
-      <c r="D146" s="68" t="s">
-        <v>583</v>
-      </c>
-      <c r="E146" s="70" t="s">
-        <v>584</v>
-      </c>
-      <c r="F146" s="48" t="s">
+    </row>
+    <row r="149" spans="1:9" ht="50.25" customHeight="1">
+      <c r="A149" s="152">
+        <v>141</v>
+      </c>
+      <c r="B149" s="112" t="s">
         <v>585</v>
       </c>
-      <c r="G146" s="47" t="s">
+      <c r="C149" s="51"/>
+      <c r="D149" s="59" t="s">
+        <v>586</v>
+      </c>
+      <c r="E149" s="51"/>
+      <c r="F149" s="48"/>
+      <c r="G149" s="48"/>
+      <c r="H149" s="63" t="s">
+        <v>586</v>
+      </c>
+      <c r="I149" s="46" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="150" spans="1:9" ht="50.25" customHeight="1">
+      <c r="A150" s="152">
+        <v>142</v>
+      </c>
+      <c r="B150" s="160" t="s">
+        <v>588</v>
+      </c>
+      <c r="C150" s="23" t="s">
+        <v>589</v>
+      </c>
+      <c r="D150" s="23" t="s">
+        <v>590</v>
+      </c>
+      <c r="E150" s="12" t="s">
+        <v>187</v>
+      </c>
+      <c r="F150" s="23" t="s">
+        <v>591</v>
+      </c>
+      <c r="G150" s="68"/>
+      <c r="H150" s="56" t="s">
+        <v>557</v>
+      </c>
+      <c r="I150" s="46" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="151" spans="1:9" ht="50.25" customHeight="1">
+      <c r="A151" s="152">
+        <v>143</v>
+      </c>
+      <c r="B151" s="112" t="s">
+        <v>593</v>
+      </c>
+      <c r="C151" s="60" t="s">
+        <v>594</v>
+      </c>
+      <c r="D151" s="48" t="s">
+        <v>595</v>
+      </c>
+      <c r="E151" s="65"/>
+      <c r="F151" s="49" t="s">
+        <v>596</v>
+      </c>
+      <c r="G151" s="69"/>
+      <c r="H151" s="61"/>
+      <c r="I151" s="2" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="152" spans="1:9" ht="50.25" customHeight="1">
+      <c r="A152" s="147">
+        <v>144</v>
+      </c>
+      <c r="B152" s="115" t="s">
+        <v>598</v>
+      </c>
+      <c r="C152" s="48"/>
+      <c r="D152" s="64" t="s">
+        <v>598</v>
+      </c>
+      <c r="E152" s="43"/>
+      <c r="F152" s="48" t="s">
+        <v>599</v>
+      </c>
+      <c r="G152" s="47" t="s">
+        <v>600</v>
+      </c>
+      <c r="H152" s="47" t="s">
+        <v>598</v>
+      </c>
+      <c r="I152" s="50" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="153" spans="1:9" ht="50.25" customHeight="1">
+      <c r="A153" s="147">
+        <v>145</v>
+      </c>
+      <c r="B153" s="115" t="s">
+        <v>602</v>
+      </c>
+      <c r="C153" s="66" t="s">
+        <v>603</v>
+      </c>
+      <c r="D153" s="64" t="s">
+        <v>602</v>
+      </c>
+      <c r="E153" s="66" t="s">
+        <v>603</v>
+      </c>
+      <c r="F153" s="48" t="s">
+        <v>604</v>
+      </c>
+      <c r="G153" s="47" t="s">
         <v>55</v>
       </c>
-      <c r="H146" s="47" t="s">
-        <v>583</v>
-      </c>
-      <c r="I146" s="47" t="s">
-        <v>586</v>
-      </c>
-    </row>
-    <row r="147" spans="1:9" ht="50.25" customHeight="1">
-      <c r="A147" s="154">
-        <v>137</v>
-      </c>
-      <c r="B147" s="136" t="s">
-        <v>587</v>
-      </c>
-      <c r="C147" s="70"/>
-      <c r="D147" s="50" t="s">
-        <v>587</v>
-      </c>
-      <c r="E147" s="71"/>
-      <c r="F147" s="48"/>
-      <c r="G147" s="47"/>
-      <c r="H147" s="50" t="s">
-        <v>588</v>
-      </c>
-      <c r="I147" s="47" t="s">
-        <v>589</v>
-      </c>
-    </row>
-    <row r="148" spans="1:9" ht="66">
-      <c r="A148" s="154">
-        <v>138</v>
-      </c>
-      <c r="B148" s="118" t="s">
-        <v>590</v>
-      </c>
-      <c r="C148" s="41" t="s">
-        <v>591</v>
-      </c>
-      <c r="D148" s="48" t="s">
-        <v>592</v>
-      </c>
-      <c r="E148" s="48" t="s">
-        <v>584</v>
-      </c>
-      <c r="F148" s="48" t="s">
-        <v>593</v>
-      </c>
-      <c r="G148" s="48"/>
-      <c r="H148" s="48" t="s">
-        <v>594</v>
-      </c>
-      <c r="I148" s="48" t="s">
-        <v>595</v>
-      </c>
-    </row>
-    <row r="149" spans="1:9" ht="50.25" customHeight="1">
-      <c r="A149" s="160">
-        <v>139</v>
-      </c>
-      <c r="B149" s="118" t="s">
-        <v>596</v>
-      </c>
-      <c r="C149" s="48"/>
-      <c r="D149" s="48"/>
-      <c r="E149" s="48"/>
-      <c r="F149" s="48" t="s">
-        <v>597</v>
-      </c>
-      <c r="G149" s="48" t="s">
-        <v>426</v>
-      </c>
-      <c r="H149" s="48" t="s">
-        <v>596</v>
-      </c>
-      <c r="I149" s="48" t="s">
-        <v>598</v>
-      </c>
-    </row>
-    <row r="150" spans="1:9" ht="50.25" customHeight="1">
-      <c r="A150" s="160">
-        <v>140</v>
-      </c>
-      <c r="B150" s="118" t="s">
-        <v>599</v>
-      </c>
-      <c r="C150" s="48" t="s">
-        <v>600</v>
-      </c>
-      <c r="D150" s="62" t="s">
-        <v>601</v>
-      </c>
-      <c r="E150" s="48" t="s">
+      <c r="H153" s="47" t="s">
         <v>602</v>
       </c>
-      <c r="F150" s="48" t="s">
+      <c r="I153" s="47" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="154" spans="1:9" ht="50.25" customHeight="1">
+      <c r="A154" s="147">
+        <v>146</v>
+      </c>
+      <c r="B154" s="130" t="s">
+        <v>606</v>
+      </c>
+      <c r="C154" s="66"/>
+      <c r="D154" s="50" t="s">
+        <v>606</v>
+      </c>
+      <c r="E154" s="67"/>
+      <c r="F154" s="48"/>
+      <c r="G154" s="47"/>
+      <c r="H154" s="50" t="s">
+        <v>607</v>
+      </c>
+      <c r="I154" s="47" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="155" spans="1:9" ht="66">
+      <c r="A155" s="147">
+        <v>147</v>
+      </c>
+      <c r="B155" s="112" t="s">
+        <v>609</v>
+      </c>
+      <c r="C155" s="41" t="s">
+        <v>610</v>
+      </c>
+      <c r="D155" s="48" t="s">
+        <v>611</v>
+      </c>
+      <c r="E155" s="48" t="s">
         <v>603</v>
       </c>
-      <c r="G150" s="48" t="s">
-        <v>604</v>
-      </c>
-      <c r="H150" s="48" t="s">
-        <v>599</v>
-      </c>
-      <c r="I150" s="48" t="s">
-        <v>605</v>
-      </c>
-    </row>
-    <row r="151" spans="1:9" ht="50.25" customHeight="1">
-      <c r="A151" s="160">
-        <v>141</v>
-      </c>
-      <c r="B151" s="118" t="s">
-        <v>606</v>
-      </c>
-      <c r="C151" s="48" t="s">
-        <v>600</v>
-      </c>
-      <c r="D151" s="62" t="s">
-        <v>607</v>
-      </c>
-      <c r="E151" s="48"/>
-      <c r="F151" s="48"/>
-      <c r="G151" s="48"/>
-      <c r="H151" s="48" t="s">
-        <v>606</v>
-      </c>
-      <c r="I151" s="48" t="s">
-        <v>608</v>
-      </c>
-    </row>
-    <row r="152" spans="1:9" ht="50.25" customHeight="1">
-      <c r="A152" s="160">
-        <v>142</v>
-      </c>
-      <c r="B152" s="48" t="s">
-        <v>609</v>
-      </c>
-      <c r="C152" s="51" t="s">
-        <v>610</v>
-      </c>
-      <c r="D152" s="48" t="s">
-        <v>611</v>
-      </c>
-      <c r="E152" s="48" t="s">
+      <c r="F155" s="48" t="s">
         <v>612</v>
       </c>
-      <c r="F152" s="48" t="s">
+      <c r="G155" s="48"/>
+      <c r="H155" s="48" t="s">
         <v>613</v>
       </c>
-      <c r="G152" s="48"/>
-      <c r="H152" s="55" t="s">
-        <v>599</v>
-      </c>
-      <c r="I152" s="48" t="s">
+      <c r="I155" s="48" t="s">
         <v>614</v>
       </c>
     </row>
-    <row r="153" spans="1:9" ht="50.25" customHeight="1">
-      <c r="A153" s="160">
-        <v>143</v>
-      </c>
-      <c r="B153" s="48" t="s">
+    <row r="156" spans="1:9" ht="50.25" customHeight="1">
+      <c r="A156" s="153">
+        <v>148</v>
+      </c>
+      <c r="B156" s="112" t="s">
         <v>615</v>
-      </c>
-      <c r="C153" s="51"/>
-      <c r="D153" s="48" t="s">
-        <v>616</v>
-      </c>
-      <c r="E153" s="48"/>
-      <c r="F153" s="48"/>
-      <c r="G153" s="48"/>
-      <c r="H153" s="55" t="s">
-        <v>617</v>
-      </c>
-      <c r="I153" s="48" t="s">
-        <v>618</v>
-      </c>
-    </row>
-    <row r="154" spans="1:9" ht="50.25" customHeight="1">
-      <c r="A154" s="160">
-        <v>144</v>
-      </c>
-      <c r="B154" s="48" t="s">
-        <v>619</v>
-      </c>
-      <c r="C154" s="51" t="s">
-        <v>575</v>
-      </c>
-      <c r="D154" s="48" t="s">
-        <v>620</v>
-      </c>
-      <c r="E154" s="48" t="s">
-        <v>411</v>
-      </c>
-      <c r="F154" s="48" t="s">
-        <v>621</v>
-      </c>
-      <c r="G154" s="48"/>
-      <c r="H154" s="55"/>
-      <c r="I154" s="48" t="s">
-        <v>622</v>
-      </c>
-    </row>
-    <row r="155" spans="1:9" ht="50.25" customHeight="1">
-      <c r="A155" s="160">
-        <v>145</v>
-      </c>
-      <c r="B155" s="48" t="s">
-        <v>623</v>
-      </c>
-      <c r="C155" s="48" t="s">
-        <v>600</v>
-      </c>
-      <c r="D155" s="48" t="s">
-        <v>623</v>
-      </c>
-      <c r="E155" s="48" t="s">
-        <v>602</v>
-      </c>
-      <c r="F155" s="48" t="s">
-        <v>621</v>
-      </c>
-      <c r="G155" s="48"/>
-      <c r="H155" s="55" t="s">
-        <v>596</v>
-      </c>
-      <c r="I155" s="48" t="s">
-        <v>624</v>
-      </c>
-    </row>
-    <row r="156" spans="1:9" ht="50.25" customHeight="1">
-      <c r="A156" s="157">
-        <v>146</v>
-      </c>
-      <c r="B156" s="118" t="s">
-        <v>625</v>
       </c>
       <c r="C156" s="48"/>
       <c r="D156" s="48"/>
       <c r="E156" s="48"/>
       <c r="F156" s="48" t="s">
+        <v>616</v>
+      </c>
+      <c r="G156" s="48" t="s">
+        <v>450</v>
+      </c>
+      <c r="H156" s="48" t="s">
+        <v>615</v>
+      </c>
+      <c r="I156" s="48" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="157" spans="1:9" ht="50.25" customHeight="1">
+      <c r="A157" s="153">
+        <v>149</v>
+      </c>
+      <c r="B157" s="112" t="s">
+        <v>618</v>
+      </c>
+      <c r="C157" s="48" t="s">
+        <v>619</v>
+      </c>
+      <c r="D157" s="59" t="s">
+        <v>620</v>
+      </c>
+      <c r="E157" s="48" t="s">
+        <v>621</v>
+      </c>
+      <c r="F157" s="48" t="s">
+        <v>622</v>
+      </c>
+      <c r="G157" s="48" t="s">
+        <v>623</v>
+      </c>
+      <c r="H157" s="48" t="s">
+        <v>618</v>
+      </c>
+      <c r="I157" s="48" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="158" spans="1:9" ht="50.25" customHeight="1">
+      <c r="A158" s="153">
+        <v>150</v>
+      </c>
+      <c r="B158" s="112" t="s">
+        <v>625</v>
+      </c>
+      <c r="C158" s="48" t="s">
+        <v>619</v>
+      </c>
+      <c r="D158" s="59" t="s">
         <v>626</v>
       </c>
-      <c r="G156" s="48" t="s">
+      <c r="E158" s="48"/>
+      <c r="F158" s="48"/>
+      <c r="G158" s="48"/>
+      <c r="H158" s="48" t="s">
+        <v>625</v>
+      </c>
+      <c r="I158" s="48" t="s">
         <v>627</v>
       </c>
-      <c r="H156" s="48" t="s">
-        <v>625</v>
-      </c>
-      <c r="I156" s="48" t="s">
+    </row>
+    <row r="159" spans="1:9" ht="50.25" customHeight="1">
+      <c r="A159" s="153">
+        <v>151</v>
+      </c>
+      <c r="B159" s="112" t="s">
         <v>628</v>
       </c>
-    </row>
-    <row r="157" spans="1:9" ht="50.25" customHeight="1">
-      <c r="A157" s="161">
-        <v>147</v>
-      </c>
-      <c r="B157" s="118" t="s">
+      <c r="C159" s="51" t="s">
         <v>629</v>
       </c>
-      <c r="C157" s="48" t="s">
+      <c r="D159" s="48" t="s">
         <v>630</v>
       </c>
-      <c r="D157" s="62" t="s">
+      <c r="E159" s="48" t="s">
+        <v>631</v>
+      </c>
+      <c r="F159" s="48" t="s">
+        <v>632</v>
+      </c>
+      <c r="G159" s="48"/>
+      <c r="H159" s="53" t="s">
+        <v>618</v>
+      </c>
+      <c r="I159" s="48" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="160" spans="1:9" ht="50.25" customHeight="1">
+      <c r="A160" s="153">
+        <v>152</v>
+      </c>
+      <c r="B160" s="112" t="s">
+        <v>634</v>
+      </c>
+      <c r="C160" s="51" t="s">
         <v>629</v>
       </c>
-      <c r="E157" s="51" t="s">
-        <v>631</v>
-      </c>
-      <c r="F157" s="48" t="s">
-        <v>632</v>
-      </c>
-      <c r="G157" s="48" t="s">
+      <c r="D160" s="48" t="s">
+        <v>635</v>
+      </c>
+      <c r="E160" s="48" t="s">
+        <v>636</v>
+      </c>
+      <c r="F160" s="48" t="s">
+        <v>637</v>
+      </c>
+      <c r="G160" s="48"/>
+      <c r="H160" s="53" t="s">
+        <v>615</v>
+      </c>
+      <c r="I160" s="48" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="161" spans="1:9" ht="50.25" customHeight="1">
+      <c r="A161" s="153">
+        <v>153</v>
+      </c>
+      <c r="B161" s="112" t="s">
+        <v>639</v>
+      </c>
+      <c r="C161" s="51"/>
+      <c r="D161" s="48" t="s">
+        <v>640</v>
+      </c>
+      <c r="E161" s="48"/>
+      <c r="F161" s="48"/>
+      <c r="G161" s="48"/>
+      <c r="H161" s="53" t="s">
+        <v>641</v>
+      </c>
+      <c r="I161" s="48" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="162" spans="1:9" ht="50.25" customHeight="1">
+      <c r="A162" s="153">
+        <v>154</v>
+      </c>
+      <c r="B162" s="112" t="s">
+        <v>643</v>
+      </c>
+      <c r="C162" s="51" t="s">
+        <v>594</v>
+      </c>
+      <c r="D162" s="48" t="s">
+        <v>644</v>
+      </c>
+      <c r="E162" s="48" t="s">
+        <v>428</v>
+      </c>
+      <c r="F162" s="48" t="s">
+        <v>645</v>
+      </c>
+      <c r="G162" s="48"/>
+      <c r="H162" s="53"/>
+      <c r="I162" s="48" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="163" spans="1:9" ht="50.25" customHeight="1">
+      <c r="A163" s="153">
+        <v>155</v>
+      </c>
+      <c r="B163" s="112" t="s">
+        <v>647</v>
+      </c>
+      <c r="C163" s="48" t="s">
+        <v>619</v>
+      </c>
+      <c r="D163" s="48" t="s">
+        <v>647</v>
+      </c>
+      <c r="E163" s="48" t="s">
+        <v>621</v>
+      </c>
+      <c r="F163" s="48" t="s">
+        <v>645</v>
+      </c>
+      <c r="G163" s="48"/>
+      <c r="H163" s="53" t="s">
+        <v>615</v>
+      </c>
+      <c r="I163" s="48" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="164" spans="1:9" ht="50.25" customHeight="1">
+      <c r="A164" s="150">
+        <v>156</v>
+      </c>
+      <c r="B164" s="112" t="s">
+        <v>649</v>
+      </c>
+      <c r="C164" s="48"/>
+      <c r="D164" s="48"/>
+      <c r="E164" s="48"/>
+      <c r="F164" s="48" t="s">
+        <v>650</v>
+      </c>
+      <c r="G164" s="48" t="s">
+        <v>651</v>
+      </c>
+      <c r="H164" s="48" t="s">
+        <v>649</v>
+      </c>
+      <c r="I164" s="48" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="165" spans="1:9" ht="50.25" customHeight="1">
+      <c r="A165" s="150">
+        <v>157</v>
+      </c>
+      <c r="B165" s="112" t="s">
+        <v>653</v>
+      </c>
+      <c r="C165" s="48" t="s">
+        <v>654</v>
+      </c>
+      <c r="D165" s="59" t="s">
+        <v>653</v>
+      </c>
+      <c r="E165" s="51" t="s">
+        <v>655</v>
+      </c>
+      <c r="F165" s="48" t="s">
+        <v>656</v>
+      </c>
+      <c r="G165" s="48" t="s">
         <v>55</v>
       </c>
-      <c r="H157" s="48" t="s">
-        <v>629</v>
-      </c>
-      <c r="I157" s="48" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="158" spans="1:9" ht="50.25" customHeight="1">
-      <c r="A158" s="161">
-        <v>148</v>
-      </c>
-      <c r="B158" s="118" t="s">
-        <v>634</v>
-      </c>
-      <c r="C158" s="48" t="s">
-        <v>630</v>
-      </c>
-      <c r="D158" s="128" t="s">
-        <v>634</v>
-      </c>
-      <c r="E158" s="51"/>
-      <c r="F158" s="48" t="s">
-        <v>635</v>
-      </c>
-      <c r="G158" s="48"/>
-      <c r="H158" s="48"/>
-      <c r="I158" s="48" t="s">
-        <v>636</v>
-      </c>
-    </row>
-    <row r="159" spans="1:9" ht="50.25" customHeight="1">
-      <c r="A159" s="161">
-        <v>149</v>
-      </c>
-      <c r="B159" s="118" t="s">
-        <v>637</v>
-      </c>
-      <c r="C159" s="48" t="s">
-        <v>630</v>
-      </c>
-      <c r="D159" s="127"/>
-      <c r="E159" s="51" t="s">
-        <v>638</v>
-      </c>
-      <c r="F159" s="48" t="s">
-        <v>639</v>
-      </c>
-      <c r="G159" s="48"/>
-      <c r="H159" s="55" t="s">
-        <v>629</v>
-      </c>
-      <c r="I159" s="48" t="s">
-        <v>640</v>
-      </c>
-    </row>
-    <row r="160" spans="1:9" ht="50.25" customHeight="1">
-      <c r="A160" s="161">
-        <v>150</v>
-      </c>
-      <c r="B160" s="118" t="s">
-        <v>641</v>
-      </c>
-      <c r="C160" s="51" t="s">
-        <v>642</v>
-      </c>
-      <c r="D160" s="48" t="s">
-        <v>643</v>
-      </c>
-      <c r="E160" s="51" t="s">
-        <v>644</v>
-      </c>
-      <c r="F160" s="48" t="s">
-        <v>645</v>
-      </c>
-      <c r="G160" s="48"/>
-      <c r="H160" s="55" t="s">
-        <v>625</v>
-      </c>
-      <c r="I160" s="48" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="161" spans="1:9" ht="50.25" customHeight="1">
-      <c r="A161" s="160">
-        <v>151</v>
-      </c>
-      <c r="B161" s="118" t="s">
-        <v>647</v>
-      </c>
-      <c r="C161" s="48" t="s">
-        <v>129</v>
-      </c>
-      <c r="D161" s="48"/>
-      <c r="E161" s="48"/>
-      <c r="F161" s="48" t="s">
-        <v>648</v>
-      </c>
-      <c r="G161" s="48" t="s">
-        <v>523</v>
-      </c>
-      <c r="H161" s="48" t="s">
-        <v>647</v>
-      </c>
-      <c r="I161" s="48" t="s">
+      <c r="H165" s="48" t="s">
+        <v>653</v>
+      </c>
+      <c r="I165" s="48" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="166" spans="1:9" ht="50.25" customHeight="1">
+      <c r="A166" s="150">
+        <v>158</v>
+      </c>
+      <c r="B166" s="112" t="s">
+        <v>658</v>
+      </c>
+      <c r="C166" s="48" t="s">
+        <v>654</v>
+      </c>
+      <c r="D166" s="122" t="s">
+        <v>658</v>
+      </c>
+      <c r="E166" s="51"/>
+      <c r="F166" s="48" t="s">
+        <v>659</v>
+      </c>
+      <c r="G166" s="48"/>
+      <c r="H166" s="48"/>
+      <c r="I166" s="48" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="167" spans="1:9" ht="50.25" customHeight="1">
+      <c r="A167" s="150">
+        <v>159</v>
+      </c>
+      <c r="B167" s="112" t="s">
+        <v>661</v>
+      </c>
+      <c r="C167" s="48" t="s">
+        <v>654</v>
+      </c>
+      <c r="D167" s="121"/>
+      <c r="E167" s="51" t="s">
+        <v>662</v>
+      </c>
+      <c r="F167" s="48" t="s">
+        <v>663</v>
+      </c>
+      <c r="G167" s="48"/>
+      <c r="H167" s="53" t="s">
+        <v>653</v>
+      </c>
+      <c r="I167" s="48" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="168" spans="1:9" ht="50.25" customHeight="1">
+      <c r="A168" s="150">
+        <v>160</v>
+      </c>
+      <c r="B168" s="112" t="s">
+        <v>665</v>
+      </c>
+      <c r="C168" s="51" t="s">
+        <v>666</v>
+      </c>
+      <c r="D168" s="48" t="s">
+        <v>667</v>
+      </c>
+      <c r="E168" s="51" t="s">
+        <v>668</v>
+      </c>
+      <c r="F168" s="48" t="s">
+        <v>669</v>
+      </c>
+      <c r="G168" s="48"/>
+      <c r="H168" s="53" t="s">
         <v>649</v>
       </c>
-    </row>
-    <row r="162" spans="1:9" ht="50.25" customHeight="1">
-      <c r="A162" s="160">
-        <v>152</v>
-      </c>
-      <c r="B162" s="118" t="s">
-        <v>650</v>
-      </c>
-      <c r="C162" s="51"/>
-      <c r="D162" s="62" t="s">
-        <v>651</v>
-      </c>
-      <c r="E162" s="51"/>
-      <c r="F162" s="48"/>
-      <c r="G162" s="48"/>
-      <c r="H162" s="48" t="s">
-        <v>650</v>
-      </c>
-      <c r="I162" s="48" t="s">
-        <v>652</v>
-      </c>
-    </row>
-    <row r="163" spans="1:9" ht="72.75" customHeight="1">
-      <c r="A163" s="160">
-        <v>153</v>
-      </c>
-      <c r="B163" s="118" t="s">
-        <v>653</v>
-      </c>
-      <c r="C163" s="51" t="s">
-        <v>654</v>
-      </c>
-      <c r="D163" s="62" t="s">
-        <v>655</v>
-      </c>
-      <c r="E163" s="51" t="s">
-        <v>656</v>
-      </c>
-      <c r="F163" s="48" t="s">
-        <v>657</v>
-      </c>
-      <c r="G163" s="48"/>
-      <c r="H163" s="55" t="s">
-        <v>647</v>
-      </c>
-      <c r="I163" s="48" t="s">
-        <v>658</v>
-      </c>
-    </row>
-    <row r="164" spans="1:9" ht="50.25" customHeight="1">
-      <c r="A164" s="160">
-        <v>154</v>
-      </c>
-      <c r="B164" s="118" t="s">
-        <v>659</v>
-      </c>
-      <c r="C164" s="48" t="s">
-        <v>660</v>
-      </c>
-      <c r="D164" s="62" t="s">
-        <v>661</v>
-      </c>
-      <c r="E164" s="48" t="s">
-        <v>241</v>
-      </c>
-      <c r="F164" s="48" t="s">
-        <v>648</v>
-      </c>
-      <c r="G164" s="48" t="s">
-        <v>556</v>
-      </c>
-      <c r="H164" s="48" t="s">
-        <v>659</v>
-      </c>
-      <c r="I164" s="48" t="s">
-        <v>662</v>
-      </c>
-    </row>
-    <row r="165" spans="1:9" ht="50.25" customHeight="1">
-      <c r="A165" s="160">
-        <v>155</v>
-      </c>
-      <c r="B165" s="118" t="s">
-        <v>663</v>
-      </c>
-      <c r="C165" s="48"/>
-      <c r="D165" s="48" t="s">
-        <v>664</v>
-      </c>
-      <c r="E165" s="48"/>
-      <c r="F165" s="48"/>
-      <c r="G165" s="48"/>
-      <c r="H165" s="48" t="s">
-        <v>663</v>
-      </c>
-      <c r="I165" t="s">
-        <v>665</v>
-      </c>
-    </row>
-    <row r="166" spans="1:9" ht="50.25" customHeight="1">
-      <c r="A166" s="160">
-        <v>156</v>
-      </c>
-      <c r="B166" s="118" t="s">
-        <v>666</v>
-      </c>
-      <c r="C166" s="47" t="s">
-        <v>660</v>
-      </c>
-      <c r="D166" s="48" t="s">
-        <v>667</v>
-      </c>
-      <c r="E166" s="47" t="s">
-        <v>241</v>
-      </c>
-      <c r="F166" s="47" t="s">
-        <v>668</v>
-      </c>
-      <c r="G166" s="47"/>
-      <c r="H166" s="55" t="s">
-        <v>659</v>
-      </c>
-      <c r="I166" t="s">
-        <v>669</v>
-      </c>
-    </row>
-    <row r="167" spans="1:9" ht="50.25" customHeight="1">
-      <c r="A167" s="160">
-        <v>157</v>
-      </c>
-      <c r="B167" s="67" t="s">
+      <c r="I168" s="48" t="s">
         <v>670</v>
       </c>
-      <c r="C167" s="47"/>
-      <c r="D167" s="13" t="s">
+    </row>
+    <row r="169" spans="1:9" ht="50.25" customHeight="1">
+      <c r="A169" s="153">
+        <v>161</v>
+      </c>
+      <c r="B169" s="112" t="s">
         <v>671</v>
       </c>
-      <c r="E167" s="53"/>
-      <c r="F167" s="53"/>
-      <c r="G167" s="48"/>
-      <c r="H167" s="74" t="s">
-        <v>670</v>
-      </c>
-      <c r="I167" t="s">
+      <c r="C169" s="48" t="s">
+        <v>133</v>
+      </c>
+      <c r="D169" s="48"/>
+      <c r="E169" s="48"/>
+      <c r="F169" s="48" t="s">
         <v>672</v>
       </c>
-    </row>
-    <row r="168" spans="1:9" ht="50.25" customHeight="1">
-      <c r="A168" s="160">
-        <v>158</v>
-      </c>
-      <c r="B168" s="67" t="s">
+      <c r="G169" s="48" t="s">
+        <v>544</v>
+      </c>
+      <c r="H169" s="48" t="s">
+        <v>671</v>
+      </c>
+      <c r="I169" s="48" t="s">
         <v>673</v>
       </c>
-      <c r="C168" s="53" t="s">
-        <v>660</v>
-      </c>
-      <c r="D168" s="53" t="s">
+    </row>
+    <row r="170" spans="1:9" ht="50.25" customHeight="1">
+      <c r="A170" s="153">
+        <v>162</v>
+      </c>
+      <c r="B170" s="112" t="s">
         <v>674</v>
       </c>
-      <c r="E168" s="67" t="s">
-        <v>241</v>
-      </c>
-      <c r="F168" s="68" t="s">
+      <c r="C170" s="51"/>
+      <c r="D170" s="59" t="s">
         <v>675</v>
       </c>
-      <c r="G168" s="52"/>
-      <c r="H168" s="57" t="s">
-        <v>647</v>
-      </c>
-      <c r="I168" s="48" t="s">
+      <c r="E170" s="51"/>
+      <c r="F170" s="48"/>
+      <c r="G170" s="48"/>
+      <c r="H170" s="48" t="s">
+        <v>674</v>
+      </c>
+      <c r="I170" s="48" t="s">
         <v>676</v>
       </c>
     </row>
-    <row r="169" spans="1:9" ht="16.5">
-      <c r="A169" s="160">
-        <v>159</v>
-      </c>
-      <c r="B169" s="118" t="s">
+    <row r="171" spans="1:9" ht="72.75" customHeight="1">
+      <c r="A171" s="153">
+        <v>163</v>
+      </c>
+      <c r="B171" s="112" t="s">
         <v>677</v>
       </c>
-      <c r="C169" s="48" t="s">
-        <v>660</v>
-      </c>
-      <c r="D169" s="48" t="s">
+      <c r="C171" s="51" t="s">
         <v>678</v>
       </c>
-      <c r="E169" s="48" t="s">
-        <v>241</v>
-      </c>
-      <c r="F169" s="48" t="s">
+      <c r="D171" s="59" t="s">
         <v>679</v>
       </c>
-      <c r="G169" s="162"/>
-      <c r="H169" s="55" t="s">
-        <v>647</v>
-      </c>
-      <c r="I169" s="162" t="s">
+      <c r="E171" s="51" t="s">
         <v>680</v>
       </c>
-    </row>
-    <row r="170" spans="1:9" ht="16.5"/>
-    <row r="171" spans="1:9" ht="16.5"/>
-    <row r="172" spans="1:9" ht="16.5"/>
-    <row r="173" spans="1:9" ht="16.5"/>
-    <row r="174" spans="1:9" ht="16.5"/>
+      <c r="F171" s="48" t="s">
+        <v>681</v>
+      </c>
+      <c r="G171" s="48"/>
+      <c r="H171" s="53" t="s">
+        <v>671</v>
+      </c>
+      <c r="I171" s="48" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="172" spans="1:9" ht="50.25" customHeight="1">
+      <c r="A172" s="153">
+        <v>164</v>
+      </c>
+      <c r="B172" s="112" t="s">
+        <v>683</v>
+      </c>
+      <c r="C172" s="48" t="s">
+        <v>684</v>
+      </c>
+      <c r="D172" s="59" t="s">
+        <v>685</v>
+      </c>
+      <c r="E172" s="48" t="s">
+        <v>251</v>
+      </c>
+      <c r="F172" s="48" t="s">
+        <v>672</v>
+      </c>
+      <c r="G172" s="48" t="s">
+        <v>575</v>
+      </c>
+      <c r="H172" s="48" t="s">
+        <v>683</v>
+      </c>
+      <c r="I172" s="48" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="173" spans="1:9" ht="50.25" customHeight="1">
+      <c r="A173" s="153">
+        <v>165</v>
+      </c>
+      <c r="B173" s="112" t="s">
+        <v>687</v>
+      </c>
+      <c r="C173" s="48"/>
+      <c r="D173" s="48" t="s">
+        <v>688</v>
+      </c>
+      <c r="E173" s="48"/>
+      <c r="F173" s="48"/>
+      <c r="G173" s="48"/>
+      <c r="H173" s="48" t="s">
+        <v>687</v>
+      </c>
+      <c r="I173" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="174" spans="1:9" ht="50.25" customHeight="1">
+      <c r="A174" s="153">
+        <v>166</v>
+      </c>
+      <c r="B174" s="112" t="s">
+        <v>690</v>
+      </c>
+      <c r="C174" s="47" t="s">
+        <v>684</v>
+      </c>
+      <c r="D174" s="48" t="s">
+        <v>691</v>
+      </c>
+      <c r="E174" s="47" t="s">
+        <v>251</v>
+      </c>
+      <c r="F174" s="47" t="s">
+        <v>692</v>
+      </c>
+      <c r="G174" s="47"/>
+      <c r="H174" s="53" t="s">
+        <v>683</v>
+      </c>
+      <c r="I174" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="175" spans="1:9">
+      <c r="A175" s="153">
+        <v>167</v>
+      </c>
+      <c r="B175" s="112" t="s">
+        <v>694</v>
+      </c>
+      <c r="C175" s="48" t="s">
+        <v>684</v>
+      </c>
+      <c r="D175" s="48" t="s">
+        <v>695</v>
+      </c>
+      <c r="E175" s="48" t="s">
+        <v>251</v>
+      </c>
+      <c r="F175" s="48" t="s">
+        <v>696</v>
+      </c>
+      <c r="G175" s="154"/>
+      <c r="H175" s="53" t="s">
+        <v>671</v>
+      </c>
+      <c r="I175" s="154" t="s">
+        <v>697</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
